--- a/Code/Results/Cases/Case_4_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_44/res_bus/vm_pu.xlsx
@@ -421,10 +421,10 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9956252084241913</v>
+        <v>0.995625208424191</v>
       </c>
       <c r="D2">
-        <v>1.012085536846545</v>
+        <v>1.012085536846544</v>
       </c>
       <c r="E2">
         <v>1.005633039935346</v>
@@ -436,7 +436,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042197517903861</v>
+        <v>1.04219751790386</v>
       </c>
       <c r="J2">
         <v>1.017937560774448</v>
@@ -445,7 +445,7 @@
         <v>1.023379029971827</v>
       </c>
       <c r="L2">
-        <v>1.017014451463109</v>
+        <v>1.017014451463108</v>
       </c>
       <c r="M2">
         <v>1.019935998973392</v>
@@ -459,31 +459,31 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.006765674506119</v>
+        <v>1.006765674506118</v>
       </c>
       <c r="D3">
-        <v>1.020831696265934</v>
+        <v>1.020831696265933</v>
       </c>
       <c r="E3">
         <v>1.016272879396747</v>
       </c>
       <c r="F3">
-        <v>1.019508516912401</v>
+        <v>1.0195085169124</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046812312789363</v>
+        <v>1.046812312789362</v>
       </c>
       <c r="J3">
         <v>1.027073584382719</v>
       </c>
       <c r="K3">
-        <v>1.031204793338168</v>
+        <v>1.031204793338167</v>
       </c>
       <c r="L3">
-        <v>1.026701694999528</v>
+        <v>1.026701694999527</v>
       </c>
       <c r="M3">
         <v>1.029897722280856</v>
@@ -515,16 +515,16 @@
         <v>1.049640339068695</v>
       </c>
       <c r="J4">
-        <v>1.032702010091724</v>
+        <v>1.032702010091725</v>
       </c>
       <c r="K4">
-        <v>1.036018051203489</v>
+        <v>1.03601805120349</v>
       </c>
       <c r="L4">
         <v>1.032675453597909</v>
       </c>
       <c r="M4">
-        <v>1.036045528297082</v>
+        <v>1.036045528297083</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,7 +535,7 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016458262632718</v>
+        <v>1.016458262632717</v>
       </c>
       <c r="D5">
         <v>1.028435809914413</v>
@@ -544,25 +544,25 @@
         <v>1.025539658990134</v>
       </c>
       <c r="F5">
-        <v>1.02902047979877</v>
+        <v>1.029020479798769</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050794359515037</v>
+        <v>1.050794359515036</v>
       </c>
       <c r="J5">
-        <v>1.035006011790929</v>
+        <v>1.035006011790928</v>
       </c>
       <c r="K5">
-        <v>1.037986428447022</v>
+        <v>1.037986428447021</v>
       </c>
       <c r="L5">
-        <v>1.035122187555973</v>
+        <v>1.035122187555972</v>
       </c>
       <c r="M5">
-        <v>1.038564683154462</v>
+        <v>1.038564683154461</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,13 +573,13 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016927206118467</v>
+        <v>1.016927206118468</v>
       </c>
       <c r="D6">
-        <v>1.028803542366595</v>
+        <v>1.028803542366596</v>
       </c>
       <c r="E6">
-        <v>1.025988232078215</v>
+        <v>1.025988232078216</v>
       </c>
       <c r="F6">
         <v>1.029481097931247</v>
@@ -594,13 +594,13 @@
         <v>1.035389365853601</v>
       </c>
       <c r="K6">
-        <v>1.038313824631019</v>
+        <v>1.03831382463102</v>
       </c>
       <c r="L6">
         <v>1.035529370738303</v>
       </c>
       <c r="M6">
-        <v>1.03898398497183</v>
+        <v>1.038983984971831</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013678843115446</v>
+        <v>1.013678843115444</v>
       </c>
       <c r="D7">
-        <v>1.026255922887538</v>
+        <v>1.026255922887537</v>
       </c>
       <c r="E7">
-        <v>1.02288141273926</v>
+        <v>1.022881412739258</v>
       </c>
       <c r="F7">
-        <v>1.026291197618118</v>
+        <v>1.026291197618116</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.04965589260122</v>
       </c>
       <c r="J7">
-        <v>1.032733033794361</v>
+        <v>1.032733033794359</v>
       </c>
       <c r="K7">
-        <v>1.036044563395733</v>
+        <v>1.036044563395732</v>
       </c>
       <c r="L7">
-        <v>1.032708393776771</v>
+        <v>1.032708393776769</v>
       </c>
       <c r="M7">
-        <v>1.036079438982939</v>
+        <v>1.036079438982937</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9994636235116667</v>
+        <v>0.9994636235116657</v>
       </c>
       <c r="D8">
-        <v>1.015099560243459</v>
+        <v>1.015099560243458</v>
       </c>
       <c r="E8">
-        <v>1.009297613130891</v>
+        <v>1.00929761313089</v>
       </c>
       <c r="F8">
-        <v>1.012353009485817</v>
+        <v>1.012353009485816</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043791752561291</v>
+        <v>1.04379175256129</v>
       </c>
       <c r="J8">
-        <v>1.021087396359048</v>
+        <v>1.021087396359047</v>
       </c>
       <c r="K8">
-        <v>1.026078810264812</v>
+        <v>1.026078810264811</v>
       </c>
       <c r="L8">
-        <v>1.020353098131905</v>
+        <v>1.020353098131903</v>
       </c>
       <c r="M8">
-        <v>1.023368211422283</v>
+        <v>1.023368211422282</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9714927295227084</v>
+        <v>0.9714927295227103</v>
       </c>
       <c r="D9">
-        <v>0.9931306589214394</v>
+        <v>0.9931306589214405</v>
       </c>
       <c r="E9">
-        <v>0.9826262545342086</v>
+        <v>0.9826262545342103</v>
       </c>
       <c r="F9">
-        <v>0.9850218488185171</v>
+        <v>0.9850218488185187</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.032088014029523</v>
       </c>
       <c r="J9">
-        <v>0.9980939334620522</v>
+        <v>0.9980939334620537</v>
       </c>
       <c r="K9">
-        <v>1.006336178342902</v>
+        <v>1.006336178342903</v>
       </c>
       <c r="L9">
-        <v>0.9960076416258906</v>
+        <v>0.9960076416258924</v>
       </c>
       <c r="M9">
-        <v>0.9983627023025073</v>
+        <v>0.998362702302509</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9502303439948676</v>
+        <v>0.9502303439948663</v>
       </c>
       <c r="D10">
-        <v>0.9764364538665169</v>
+        <v>0.9764364538665157</v>
       </c>
       <c r="E10">
-        <v>0.9624033057581332</v>
+        <v>0.962403305758132</v>
       </c>
       <c r="F10">
-        <v>0.9643246245418413</v>
+        <v>0.96432462454184</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.023082709584519</v>
       </c>
       <c r="J10">
-        <v>0.9805678923872543</v>
+        <v>0.9805678923872533</v>
       </c>
       <c r="K10">
-        <v>0.9912446001801551</v>
+        <v>0.9912446001801538</v>
       </c>
       <c r="L10">
-        <v>0.9774862625549592</v>
+        <v>0.9774862625549584</v>
       </c>
       <c r="M10">
-        <v>0.9793693351297195</v>
+        <v>0.9793693351297182</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9402013281823025</v>
+        <v>0.940201328182306</v>
       </c>
       <c r="D11">
-        <v>0.9685688350731162</v>
+        <v>0.968568835073119</v>
       </c>
       <c r="E11">
-        <v>0.9528805195388823</v>
+        <v>0.952880519538886</v>
       </c>
       <c r="F11">
-        <v>0.9545849911710638</v>
+        <v>0.954584991171067</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.018811018432132</v>
+        <v>1.018811018432134</v>
       </c>
       <c r="J11">
-        <v>0.9722922404129781</v>
+        <v>0.9722922404129812</v>
       </c>
       <c r="K11">
-        <v>0.9841088790445691</v>
+        <v>0.9841088790445718</v>
       </c>
       <c r="L11">
-        <v>0.9687493243364848</v>
+        <v>0.9687493243364883</v>
       </c>
       <c r="M11">
-        <v>0.9704173841245007</v>
+        <v>0.970417384124504</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9363292145534461</v>
+        <v>0.9363292145534485</v>
       </c>
       <c r="D12">
-        <v>0.9655328221049196</v>
+        <v>0.9655328221049216</v>
       </c>
       <c r="E12">
-        <v>0.9492066594639467</v>
+        <v>0.949206659463949</v>
       </c>
       <c r="F12">
-        <v>0.9508284738472002</v>
+        <v>0.9508284738472029</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.017158351900667</v>
+        <v>1.017158351900669</v>
       </c>
       <c r="J12">
-        <v>0.969096002172411</v>
+        <v>0.9690960021724135</v>
       </c>
       <c r="K12">
-        <v>0.9813515527222731</v>
+        <v>0.9813515527222753</v>
       </c>
       <c r="L12">
-        <v>0.9653762668560985</v>
+        <v>0.965376266856101</v>
       </c>
       <c r="M12">
-        <v>0.9669625093159571</v>
+        <v>0.9669625093159595</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9371668928680216</v>
+        <v>0.9371668928680221</v>
       </c>
       <c r="D13">
-        <v>0.966189538108295</v>
+        <v>0.9661895381082956</v>
       </c>
       <c r="E13">
-        <v>0.9500013146641791</v>
+        <v>0.9500013146641799</v>
       </c>
       <c r="F13">
-        <v>0.9516409622521306</v>
+        <v>0.9516409622521315</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.017516032556526</v>
       </c>
       <c r="J13">
-        <v>0.9697875077556537</v>
+        <v>0.9697875077556543</v>
       </c>
       <c r="K13">
-        <v>0.9819481590072123</v>
+        <v>0.9819481590072129</v>
       </c>
       <c r="L13">
-        <v>0.966105966424205</v>
+        <v>0.9661059664242057</v>
       </c>
       <c r="M13">
-        <v>0.9677098541203629</v>
+        <v>0.9677098541203637</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9398844139491438</v>
+        <v>0.9398844139491501</v>
       </c>
       <c r="D14">
-        <v>0.9683203154353798</v>
+        <v>0.968320315435385</v>
       </c>
       <c r="E14">
-        <v>0.9525797722906021</v>
+        <v>0.9525797722906085</v>
       </c>
       <c r="F14">
-        <v>0.9542774571386794</v>
+        <v>0.9542774571386852</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.018675822604179</v>
+        <v>1.018675822604182</v>
       </c>
       <c r="J14">
-        <v>0.9720306633914326</v>
+        <v>0.9720306633914385</v>
       </c>
       <c r="K14">
-        <v>0.9838832488207341</v>
+        <v>0.9838832488207392</v>
       </c>
       <c r="L14">
-        <v>0.9684732494227667</v>
+        <v>0.9684732494227731</v>
       </c>
       <c r="M14">
-        <v>0.9701345883983671</v>
+        <v>0.970134588398373</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9415384908812915</v>
+        <v>0.9415384908812937</v>
       </c>
       <c r="D15">
-        <v>0.9696174876591152</v>
+        <v>0.9696174876591167</v>
       </c>
       <c r="E15">
-        <v>0.9541495841572243</v>
+        <v>0.9541495841572263</v>
       </c>
       <c r="F15">
-        <v>0.9558827345652193</v>
+        <v>0.9558827345652213</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.019381317163699</v>
+        <v>1.0193813171637</v>
       </c>
       <c r="J15">
-        <v>0.9733958758293043</v>
+        <v>0.9733958758293062</v>
       </c>
       <c r="K15">
-        <v>0.9850607951712684</v>
+        <v>0.9850607951712701</v>
       </c>
       <c r="L15">
-        <v>0.9699141828659261</v>
+        <v>0.9699141828659281</v>
       </c>
       <c r="M15">
-        <v>0.971610648499594</v>
+        <v>0.971610648499596</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9508767646697743</v>
+        <v>0.9508767646697717</v>
       </c>
       <c r="D16">
-        <v>0.9769437436462973</v>
+        <v>0.9769437436462944</v>
       </c>
       <c r="E16">
-        <v>0.9630174528611634</v>
+        <v>0.9630174528611607</v>
       </c>
       <c r="F16">
-        <v>0.964952890682459</v>
+        <v>0.9649528906824565</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023357568608717</v>
+        <v>1.023357568608715</v>
       </c>
       <c r="J16">
-        <v>0.9811011377029687</v>
+        <v>0.9811011377029661</v>
       </c>
       <c r="K16">
-        <v>0.9917042052112688</v>
+        <v>0.9917042052112662</v>
       </c>
       <c r="L16">
-        <v>0.9780494103809424</v>
+        <v>0.9780494103809396</v>
       </c>
       <c r="M16">
-        <v>0.9799465005167847</v>
+        <v>0.9799465005167823</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9564997166227956</v>
+        <v>0.9564997166227954</v>
       </c>
       <c r="D17">
-        <v>0.9813572434716423</v>
+        <v>0.9813572434716424</v>
       </c>
       <c r="E17">
         <v>0.9683614655614934</v>
       </c>
       <c r="F17">
-        <v>0.9704204788310689</v>
+        <v>0.9704204788310691</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1012,13 +1012,13 @@
         <v>0.9857386553755969</v>
       </c>
       <c r="K17">
-        <v>0.9957002390586503</v>
+        <v>0.9957002390586502</v>
       </c>
       <c r="L17">
-        <v>0.9829479458877535</v>
+        <v>0.9829479458877536</v>
       </c>
       <c r="M17">
-        <v>0.9849678137287364</v>
+        <v>0.9849678137287365</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9597020195353343</v>
+        <v>0.959702019535335</v>
       </c>
       <c r="D18">
-        <v>0.9838713245644783</v>
+        <v>0.9838713245644788</v>
       </c>
       <c r="E18">
-        <v>0.9714063416125647</v>
+        <v>0.971406341612565</v>
       </c>
       <c r="F18">
-        <v>0.9735363572860494</v>
+        <v>0.9735363572860498</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.027103722649075</v>
       </c>
       <c r="J18">
-        <v>0.9883789049339594</v>
+        <v>0.98837890493396</v>
       </c>
       <c r="K18">
-        <v>0.99797439137835</v>
+        <v>0.9979743913783506</v>
       </c>
       <c r="L18">
-        <v>0.985737593315951</v>
+        <v>0.9857375933159513</v>
       </c>
       <c r="M18">
-        <v>0.9878280770858668</v>
+        <v>0.9878280770858673</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9607813899972644</v>
+        <v>0.9607813899972636</v>
       </c>
       <c r="D19">
-        <v>0.9847188038682426</v>
+        <v>0.9847188038682417</v>
       </c>
       <c r="E19">
-        <v>0.9724328821796424</v>
+        <v>0.9724328821796414</v>
       </c>
       <c r="F19">
-        <v>0.9745869351650056</v>
+        <v>0.9745869351650052</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.027561036244411</v>
       </c>
       <c r="J19">
-        <v>0.9892686796988299</v>
+        <v>0.9892686796988293</v>
       </c>
       <c r="K19">
-        <v>0.9987406375659583</v>
+        <v>0.9987406375659573</v>
       </c>
       <c r="L19">
-        <v>0.9866778496678522</v>
+        <v>0.9866778496678514</v>
       </c>
       <c r="M19">
-        <v>0.9887922515362806</v>
+        <v>0.98879225153628</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9559045884788299</v>
+        <v>0.9559045884788291</v>
       </c>
       <c r="D20">
-        <v>0.9808900596697996</v>
+        <v>0.9808900596697989</v>
       </c>
       <c r="E20">
-        <v>0.9677957082620697</v>
+        <v>0.9677957082620686</v>
       </c>
       <c r="F20">
-        <v>0.9698415769047823</v>
+        <v>0.9698415769047816</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025493280309267</v>
+        <v>1.025493280309266</v>
       </c>
       <c r="J20">
-        <v>0.9852479110664714</v>
+        <v>0.9852479110664708</v>
       </c>
       <c r="K20">
-        <v>0.9952774687441971</v>
+        <v>0.9952774687441964</v>
       </c>
       <c r="L20">
-        <v>0.9824294974377029</v>
+        <v>0.9824294974377018</v>
       </c>
       <c r="M20">
-        <v>0.9844362978902195</v>
+        <v>0.9844362978902188</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,19 +1140,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
         <v>0.9390884482258725</v>
       </c>
       <c r="D21">
-        <v>0.9676961584030953</v>
+        <v>0.9676961584030955</v>
       </c>
       <c r="E21">
-        <v>0.95182445815661</v>
+        <v>0.9518244581566102</v>
       </c>
       <c r="F21">
-        <v>0.9535051144041521</v>
+        <v>0.9535051144041523</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.018336209459914</v>
       </c>
       <c r="J21">
-        <v>0.9713736670236924</v>
+        <v>0.9713736670236925</v>
       </c>
       <c r="K21">
         <v>0.9833165177983465</v>
       </c>
       <c r="L21">
-        <v>0.9677798606099435</v>
+        <v>0.9677798606099436</v>
       </c>
       <c r="M21">
-        <v>0.9694243388561703</v>
+        <v>0.9694243388561705</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9276484835278215</v>
+        <v>0.9276484835278206</v>
       </c>
       <c r="D22">
-        <v>0.9587303245030551</v>
+        <v>0.9587303245030544</v>
       </c>
       <c r="E22">
-        <v>0.9409761611933873</v>
+        <v>0.9409761611933861</v>
       </c>
       <c r="F22">
-        <v>0.9424146989681011</v>
+        <v>0.9424146989681003</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.013447264360912</v>
       </c>
       <c r="J22">
-        <v>0.9619288475473755</v>
+        <v>0.9619288475473746</v>
       </c>
       <c r="K22">
-        <v>0.975166203891023</v>
+        <v>0.9751662038910223</v>
       </c>
       <c r="L22">
-        <v>0.9578151542820987</v>
+        <v>0.9578151542820977</v>
       </c>
       <c r="M22">
-        <v>0.9592202731388195</v>
+        <v>0.9592202731388187</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1225,7 +1225,7 @@
         <v>0.9635541511246273</v>
       </c>
       <c r="E23">
-        <v>0.946812477128533</v>
+        <v>0.9468124771285329</v>
       </c>
       <c r="F23">
         <v>0.9483807118765674</v>
@@ -1234,10 +1234,10 @@
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.016080030078967</v>
+        <v>1.016080030078968</v>
       </c>
       <c r="J23">
-        <v>0.967012070962042</v>
+        <v>0.9670120709620422</v>
       </c>
       <c r="K23">
         <v>0.9795534211614526</v>
@@ -1246,7 +1246,7 @@
         <v>0.963177432993345</v>
       </c>
       <c r="M23">
-        <v>0.9647106832344999</v>
+        <v>0.9647106832345</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9561737389831256</v>
+        <v>0.956173738983124</v>
       </c>
       <c r="D24">
-        <v>0.9811013447970701</v>
+        <v>0.9811013447970687</v>
       </c>
       <c r="E24">
-        <v>0.9680515711774004</v>
+        <v>0.9680515711773989</v>
       </c>
       <c r="F24">
-        <v>0.9701033826117935</v>
+        <v>0.9701033826117922</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025607500047341</v>
+        <v>1.02560750004734</v>
       </c>
       <c r="J24">
-        <v>0.9854698559643054</v>
+        <v>0.985469855964304</v>
       </c>
       <c r="K24">
-        <v>0.995468674371059</v>
+        <v>0.9954686743710577</v>
       </c>
       <c r="L24">
-        <v>0.9826639693829132</v>
+        <v>0.9826639693829118</v>
       </c>
       <c r="M24">
-        <v>0.9846766774850658</v>
+        <v>0.9846766774850645</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9791286477837396</v>
+        <v>0.9791286477837413</v>
       </c>
       <c r="D25">
-        <v>0.999128503009227</v>
+        <v>0.999128503009228</v>
       </c>
       <c r="E25">
-        <v>0.9898998448555836</v>
+        <v>0.9898998448555854</v>
       </c>
       <c r="F25">
-        <v>0.9924711570292487</v>
+        <v>0.9924711570292504</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03530146046112</v>
+        <v>1.035301460461121</v>
       </c>
       <c r="J25">
-        <v>1.004379426519378</v>
+        <v>1.00437942651938</v>
       </c>
       <c r="K25">
-        <v>1.011740362927455</v>
+        <v>1.011740362927456</v>
       </c>
       <c r="L25">
-        <v>1.0026570026925</v>
+        <v>1.002657002692501</v>
       </c>
       <c r="M25">
-        <v>1.005187483856984</v>
+        <v>1.005187483856985</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_44/res_bus/vm_pu.xlsx
@@ -421,10 +421,10 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.995625208424191</v>
+        <v>0.9956252084241913</v>
       </c>
       <c r="D2">
-        <v>1.012085536846544</v>
+        <v>1.012085536846545</v>
       </c>
       <c r="E2">
         <v>1.005633039935346</v>
@@ -436,7 +436,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04219751790386</v>
+        <v>1.042197517903861</v>
       </c>
       <c r="J2">
         <v>1.017937560774448</v>
@@ -445,7 +445,7 @@
         <v>1.023379029971827</v>
       </c>
       <c r="L2">
-        <v>1.017014451463108</v>
+        <v>1.017014451463109</v>
       </c>
       <c r="M2">
         <v>1.019935998973392</v>
@@ -459,31 +459,31 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.006765674506118</v>
+        <v>1.006765674506119</v>
       </c>
       <c r="D3">
-        <v>1.020831696265933</v>
+        <v>1.020831696265934</v>
       </c>
       <c r="E3">
         <v>1.016272879396747</v>
       </c>
       <c r="F3">
-        <v>1.0195085169124</v>
+        <v>1.019508516912401</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046812312789362</v>
+        <v>1.046812312789363</v>
       </c>
       <c r="J3">
         <v>1.027073584382719</v>
       </c>
       <c r="K3">
-        <v>1.031204793338167</v>
+        <v>1.031204793338168</v>
       </c>
       <c r="L3">
-        <v>1.026701694999527</v>
+        <v>1.026701694999528</v>
       </c>
       <c r="M3">
         <v>1.029897722280856</v>
@@ -515,16 +515,16 @@
         <v>1.049640339068695</v>
       </c>
       <c r="J4">
-        <v>1.032702010091725</v>
+        <v>1.032702010091724</v>
       </c>
       <c r="K4">
-        <v>1.03601805120349</v>
+        <v>1.036018051203489</v>
       </c>
       <c r="L4">
         <v>1.032675453597909</v>
       </c>
       <c r="M4">
-        <v>1.036045528297083</v>
+        <v>1.036045528297082</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,7 +535,7 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016458262632717</v>
+        <v>1.016458262632718</v>
       </c>
       <c r="D5">
         <v>1.028435809914413</v>
@@ -544,25 +544,25 @@
         <v>1.025539658990134</v>
       </c>
       <c r="F5">
-        <v>1.029020479798769</v>
+        <v>1.02902047979877</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050794359515036</v>
+        <v>1.050794359515037</v>
       </c>
       <c r="J5">
-        <v>1.035006011790928</v>
+        <v>1.035006011790929</v>
       </c>
       <c r="K5">
-        <v>1.037986428447021</v>
+        <v>1.037986428447022</v>
       </c>
       <c r="L5">
-        <v>1.035122187555972</v>
+        <v>1.035122187555973</v>
       </c>
       <c r="M5">
-        <v>1.038564683154461</v>
+        <v>1.038564683154462</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,13 +573,13 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016927206118468</v>
+        <v>1.016927206118467</v>
       </c>
       <c r="D6">
-        <v>1.028803542366596</v>
+        <v>1.028803542366595</v>
       </c>
       <c r="E6">
-        <v>1.025988232078216</v>
+        <v>1.025988232078215</v>
       </c>
       <c r="F6">
         <v>1.029481097931247</v>
@@ -594,13 +594,13 @@
         <v>1.035389365853601</v>
       </c>
       <c r="K6">
-        <v>1.03831382463102</v>
+        <v>1.038313824631019</v>
       </c>
       <c r="L6">
         <v>1.035529370738303</v>
       </c>
       <c r="M6">
-        <v>1.038983984971831</v>
+        <v>1.03898398497183</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013678843115444</v>
+        <v>1.013678843115446</v>
       </c>
       <c r="D7">
-        <v>1.026255922887537</v>
+        <v>1.026255922887538</v>
       </c>
       <c r="E7">
-        <v>1.022881412739258</v>
+        <v>1.02288141273926</v>
       </c>
       <c r="F7">
-        <v>1.026291197618116</v>
+        <v>1.026291197618118</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.04965589260122</v>
       </c>
       <c r="J7">
-        <v>1.032733033794359</v>
+        <v>1.032733033794361</v>
       </c>
       <c r="K7">
-        <v>1.036044563395732</v>
+        <v>1.036044563395733</v>
       </c>
       <c r="L7">
-        <v>1.032708393776769</v>
+        <v>1.032708393776771</v>
       </c>
       <c r="M7">
-        <v>1.036079438982937</v>
+        <v>1.036079438982939</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9994636235116657</v>
+        <v>0.9994636235116667</v>
       </c>
       <c r="D8">
-        <v>1.015099560243458</v>
+        <v>1.015099560243459</v>
       </c>
       <c r="E8">
-        <v>1.00929761313089</v>
+        <v>1.009297613130891</v>
       </c>
       <c r="F8">
-        <v>1.012353009485816</v>
+        <v>1.012353009485817</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04379175256129</v>
+        <v>1.043791752561291</v>
       </c>
       <c r="J8">
-        <v>1.021087396359047</v>
+        <v>1.021087396359048</v>
       </c>
       <c r="K8">
-        <v>1.026078810264811</v>
+        <v>1.026078810264812</v>
       </c>
       <c r="L8">
-        <v>1.020353098131903</v>
+        <v>1.020353098131905</v>
       </c>
       <c r="M8">
-        <v>1.023368211422282</v>
+        <v>1.023368211422283</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9714927295227103</v>
+        <v>0.9714927295227084</v>
       </c>
       <c r="D9">
-        <v>0.9931306589214405</v>
+        <v>0.9931306589214394</v>
       </c>
       <c r="E9">
-        <v>0.9826262545342103</v>
+        <v>0.9826262545342086</v>
       </c>
       <c r="F9">
-        <v>0.9850218488185187</v>
+        <v>0.9850218488185171</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.032088014029523</v>
       </c>
       <c r="J9">
-        <v>0.9980939334620537</v>
+        <v>0.9980939334620522</v>
       </c>
       <c r="K9">
-        <v>1.006336178342903</v>
+        <v>1.006336178342902</v>
       </c>
       <c r="L9">
-        <v>0.9960076416258924</v>
+        <v>0.9960076416258906</v>
       </c>
       <c r="M9">
-        <v>0.998362702302509</v>
+        <v>0.9983627023025073</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9502303439948663</v>
+        <v>0.9502303439948676</v>
       </c>
       <c r="D10">
-        <v>0.9764364538665157</v>
+        <v>0.9764364538665169</v>
       </c>
       <c r="E10">
-        <v>0.962403305758132</v>
+        <v>0.9624033057581332</v>
       </c>
       <c r="F10">
-        <v>0.96432462454184</v>
+        <v>0.9643246245418413</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.023082709584519</v>
       </c>
       <c r="J10">
-        <v>0.9805678923872533</v>
+        <v>0.9805678923872543</v>
       </c>
       <c r="K10">
-        <v>0.9912446001801538</v>
+        <v>0.9912446001801551</v>
       </c>
       <c r="L10">
-        <v>0.9774862625549584</v>
+        <v>0.9774862625549592</v>
       </c>
       <c r="M10">
-        <v>0.9793693351297182</v>
+        <v>0.9793693351297195</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.940201328182306</v>
+        <v>0.9402013281823025</v>
       </c>
       <c r="D11">
-        <v>0.968568835073119</v>
+        <v>0.9685688350731162</v>
       </c>
       <c r="E11">
-        <v>0.952880519538886</v>
+        <v>0.9528805195388823</v>
       </c>
       <c r="F11">
-        <v>0.954584991171067</v>
+        <v>0.9545849911710638</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.018811018432134</v>
+        <v>1.018811018432132</v>
       </c>
       <c r="J11">
-        <v>0.9722922404129812</v>
+        <v>0.9722922404129781</v>
       </c>
       <c r="K11">
-        <v>0.9841088790445718</v>
+        <v>0.9841088790445691</v>
       </c>
       <c r="L11">
-        <v>0.9687493243364883</v>
+        <v>0.9687493243364848</v>
       </c>
       <c r="M11">
-        <v>0.970417384124504</v>
+        <v>0.9704173841245007</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9363292145534485</v>
+        <v>0.9363292145534461</v>
       </c>
       <c r="D12">
-        <v>0.9655328221049216</v>
+        <v>0.9655328221049196</v>
       </c>
       <c r="E12">
-        <v>0.949206659463949</v>
+        <v>0.9492066594639467</v>
       </c>
       <c r="F12">
-        <v>0.9508284738472029</v>
+        <v>0.9508284738472002</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.017158351900669</v>
+        <v>1.017158351900667</v>
       </c>
       <c r="J12">
-        <v>0.9690960021724135</v>
+        <v>0.969096002172411</v>
       </c>
       <c r="K12">
-        <v>0.9813515527222753</v>
+        <v>0.9813515527222731</v>
       </c>
       <c r="L12">
-        <v>0.965376266856101</v>
+        <v>0.9653762668560985</v>
       </c>
       <c r="M12">
-        <v>0.9669625093159595</v>
+        <v>0.9669625093159571</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9371668928680221</v>
+        <v>0.9371668928680216</v>
       </c>
       <c r="D13">
-        <v>0.9661895381082956</v>
+        <v>0.966189538108295</v>
       </c>
       <c r="E13">
-        <v>0.9500013146641799</v>
+        <v>0.9500013146641791</v>
       </c>
       <c r="F13">
-        <v>0.9516409622521315</v>
+        <v>0.9516409622521306</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.017516032556526</v>
       </c>
       <c r="J13">
-        <v>0.9697875077556543</v>
+        <v>0.9697875077556537</v>
       </c>
       <c r="K13">
-        <v>0.9819481590072129</v>
+        <v>0.9819481590072123</v>
       </c>
       <c r="L13">
-        <v>0.9661059664242057</v>
+        <v>0.966105966424205</v>
       </c>
       <c r="M13">
-        <v>0.9677098541203637</v>
+        <v>0.9677098541203629</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9398844139491501</v>
+        <v>0.9398844139491438</v>
       </c>
       <c r="D14">
-        <v>0.968320315435385</v>
+        <v>0.9683203154353798</v>
       </c>
       <c r="E14">
-        <v>0.9525797722906085</v>
+        <v>0.9525797722906021</v>
       </c>
       <c r="F14">
-        <v>0.9542774571386852</v>
+        <v>0.9542774571386794</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.018675822604182</v>
+        <v>1.018675822604179</v>
       </c>
       <c r="J14">
-        <v>0.9720306633914385</v>
+        <v>0.9720306633914326</v>
       </c>
       <c r="K14">
-        <v>0.9838832488207392</v>
+        <v>0.9838832488207341</v>
       </c>
       <c r="L14">
-        <v>0.9684732494227731</v>
+        <v>0.9684732494227667</v>
       </c>
       <c r="M14">
-        <v>0.970134588398373</v>
+        <v>0.9701345883983671</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9415384908812937</v>
+        <v>0.9415384908812915</v>
       </c>
       <c r="D15">
-        <v>0.9696174876591167</v>
+        <v>0.9696174876591152</v>
       </c>
       <c r="E15">
-        <v>0.9541495841572263</v>
+        <v>0.9541495841572243</v>
       </c>
       <c r="F15">
-        <v>0.9558827345652213</v>
+        <v>0.9558827345652193</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.0193813171637</v>
+        <v>1.019381317163699</v>
       </c>
       <c r="J15">
-        <v>0.9733958758293062</v>
+        <v>0.9733958758293043</v>
       </c>
       <c r="K15">
-        <v>0.9850607951712701</v>
+        <v>0.9850607951712684</v>
       </c>
       <c r="L15">
-        <v>0.9699141828659281</v>
+        <v>0.9699141828659261</v>
       </c>
       <c r="M15">
-        <v>0.971610648499596</v>
+        <v>0.971610648499594</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9508767646697717</v>
+        <v>0.9508767646697743</v>
       </c>
       <c r="D16">
-        <v>0.9769437436462944</v>
+        <v>0.9769437436462973</v>
       </c>
       <c r="E16">
-        <v>0.9630174528611607</v>
+        <v>0.9630174528611634</v>
       </c>
       <c r="F16">
-        <v>0.9649528906824565</v>
+        <v>0.964952890682459</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023357568608715</v>
+        <v>1.023357568608717</v>
       </c>
       <c r="J16">
-        <v>0.9811011377029661</v>
+        <v>0.9811011377029687</v>
       </c>
       <c r="K16">
-        <v>0.9917042052112662</v>
+        <v>0.9917042052112688</v>
       </c>
       <c r="L16">
-        <v>0.9780494103809396</v>
+        <v>0.9780494103809424</v>
       </c>
       <c r="M16">
-        <v>0.9799465005167823</v>
+        <v>0.9799465005167847</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9564997166227954</v>
+        <v>0.9564997166227956</v>
       </c>
       <c r="D17">
-        <v>0.9813572434716424</v>
+        <v>0.9813572434716423</v>
       </c>
       <c r="E17">
         <v>0.9683614655614934</v>
       </c>
       <c r="F17">
-        <v>0.9704204788310691</v>
+        <v>0.9704204788310689</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1012,13 +1012,13 @@
         <v>0.9857386553755969</v>
       </c>
       <c r="K17">
-        <v>0.9957002390586502</v>
+        <v>0.9957002390586503</v>
       </c>
       <c r="L17">
-        <v>0.9829479458877536</v>
+        <v>0.9829479458877535</v>
       </c>
       <c r="M17">
-        <v>0.9849678137287365</v>
+        <v>0.9849678137287364</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.959702019535335</v>
+        <v>0.9597020195353343</v>
       </c>
       <c r="D18">
-        <v>0.9838713245644788</v>
+        <v>0.9838713245644783</v>
       </c>
       <c r="E18">
-        <v>0.971406341612565</v>
+        <v>0.9714063416125647</v>
       </c>
       <c r="F18">
-        <v>0.9735363572860498</v>
+        <v>0.9735363572860494</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.027103722649075</v>
       </c>
       <c r="J18">
-        <v>0.98837890493396</v>
+        <v>0.9883789049339594</v>
       </c>
       <c r="K18">
-        <v>0.9979743913783506</v>
+        <v>0.99797439137835</v>
       </c>
       <c r="L18">
-        <v>0.9857375933159513</v>
+        <v>0.985737593315951</v>
       </c>
       <c r="M18">
-        <v>0.9878280770858673</v>
+        <v>0.9878280770858668</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9607813899972636</v>
+        <v>0.9607813899972644</v>
       </c>
       <c r="D19">
-        <v>0.9847188038682417</v>
+        <v>0.9847188038682426</v>
       </c>
       <c r="E19">
-        <v>0.9724328821796414</v>
+        <v>0.9724328821796424</v>
       </c>
       <c r="F19">
-        <v>0.9745869351650052</v>
+        <v>0.9745869351650056</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.027561036244411</v>
       </c>
       <c r="J19">
-        <v>0.9892686796988293</v>
+        <v>0.9892686796988299</v>
       </c>
       <c r="K19">
-        <v>0.9987406375659573</v>
+        <v>0.9987406375659583</v>
       </c>
       <c r="L19">
-        <v>0.9866778496678514</v>
+        <v>0.9866778496678522</v>
       </c>
       <c r="M19">
-        <v>0.98879225153628</v>
+        <v>0.9887922515362806</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9559045884788291</v>
+        <v>0.9559045884788299</v>
       </c>
       <c r="D20">
-        <v>0.9808900596697989</v>
+        <v>0.9808900596697996</v>
       </c>
       <c r="E20">
-        <v>0.9677957082620686</v>
+        <v>0.9677957082620697</v>
       </c>
       <c r="F20">
-        <v>0.9698415769047816</v>
+        <v>0.9698415769047823</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025493280309266</v>
+        <v>1.025493280309267</v>
       </c>
       <c r="J20">
-        <v>0.9852479110664708</v>
+        <v>0.9852479110664714</v>
       </c>
       <c r="K20">
-        <v>0.9952774687441964</v>
+        <v>0.9952774687441971</v>
       </c>
       <c r="L20">
-        <v>0.9824294974377018</v>
+        <v>0.9824294974377029</v>
       </c>
       <c r="M20">
-        <v>0.9844362978902188</v>
+        <v>0.9844362978902195</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,19 +1140,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
         <v>0.9390884482258725</v>
       </c>
       <c r="D21">
-        <v>0.9676961584030955</v>
+        <v>0.9676961584030953</v>
       </c>
       <c r="E21">
-        <v>0.9518244581566102</v>
+        <v>0.95182445815661</v>
       </c>
       <c r="F21">
-        <v>0.9535051144041523</v>
+        <v>0.9535051144041521</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.018336209459914</v>
       </c>
       <c r="J21">
-        <v>0.9713736670236925</v>
+        <v>0.9713736670236924</v>
       </c>
       <c r="K21">
         <v>0.9833165177983465</v>
       </c>
       <c r="L21">
-        <v>0.9677798606099436</v>
+        <v>0.9677798606099435</v>
       </c>
       <c r="M21">
-        <v>0.9694243388561705</v>
+        <v>0.9694243388561703</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9276484835278206</v>
+        <v>0.9276484835278215</v>
       </c>
       <c r="D22">
-        <v>0.9587303245030544</v>
+        <v>0.9587303245030551</v>
       </c>
       <c r="E22">
-        <v>0.9409761611933861</v>
+        <v>0.9409761611933873</v>
       </c>
       <c r="F22">
-        <v>0.9424146989681003</v>
+        <v>0.9424146989681011</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.013447264360912</v>
       </c>
       <c r="J22">
-        <v>0.9619288475473746</v>
+        <v>0.9619288475473755</v>
       </c>
       <c r="K22">
-        <v>0.9751662038910223</v>
+        <v>0.975166203891023</v>
       </c>
       <c r="L22">
-        <v>0.9578151542820977</v>
+        <v>0.9578151542820987</v>
       </c>
       <c r="M22">
-        <v>0.9592202731388187</v>
+        <v>0.9592202731388195</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1225,7 +1225,7 @@
         <v>0.9635541511246273</v>
       </c>
       <c r="E23">
-        <v>0.9468124771285329</v>
+        <v>0.946812477128533</v>
       </c>
       <c r="F23">
         <v>0.9483807118765674</v>
@@ -1234,10 +1234,10 @@
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.016080030078968</v>
+        <v>1.016080030078967</v>
       </c>
       <c r="J23">
-        <v>0.9670120709620422</v>
+        <v>0.967012070962042</v>
       </c>
       <c r="K23">
         <v>0.9795534211614526</v>
@@ -1246,7 +1246,7 @@
         <v>0.963177432993345</v>
       </c>
       <c r="M23">
-        <v>0.9647106832345</v>
+        <v>0.9647106832344999</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.956173738983124</v>
+        <v>0.9561737389831256</v>
       </c>
       <c r="D24">
-        <v>0.9811013447970687</v>
+        <v>0.9811013447970701</v>
       </c>
       <c r="E24">
-        <v>0.9680515711773989</v>
+        <v>0.9680515711774004</v>
       </c>
       <c r="F24">
-        <v>0.9701033826117922</v>
+        <v>0.9701033826117935</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02560750004734</v>
+        <v>1.025607500047341</v>
       </c>
       <c r="J24">
-        <v>0.985469855964304</v>
+        <v>0.9854698559643054</v>
       </c>
       <c r="K24">
-        <v>0.9954686743710577</v>
+        <v>0.995468674371059</v>
       </c>
       <c r="L24">
-        <v>0.9826639693829118</v>
+        <v>0.9826639693829132</v>
       </c>
       <c r="M24">
-        <v>0.9846766774850645</v>
+        <v>0.9846766774850658</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9791286477837413</v>
+        <v>0.9791286477837396</v>
       </c>
       <c r="D25">
-        <v>0.999128503009228</v>
+        <v>0.999128503009227</v>
       </c>
       <c r="E25">
-        <v>0.9898998448555854</v>
+        <v>0.9898998448555836</v>
       </c>
       <c r="F25">
-        <v>0.9924711570292504</v>
+        <v>0.9924711570292487</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035301460461121</v>
+        <v>1.03530146046112</v>
       </c>
       <c r="J25">
-        <v>1.00437942651938</v>
+        <v>1.004379426519378</v>
       </c>
       <c r="K25">
-        <v>1.011740362927456</v>
+        <v>1.011740362927455</v>
       </c>
       <c r="L25">
-        <v>1.002657002692501</v>
+        <v>1.0026570026925</v>
       </c>
       <c r="M25">
-        <v>1.005187483856985</v>
+        <v>1.005187483856984</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_44/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9956252084241913</v>
+        <v>0.9986698183677919</v>
       </c>
       <c r="D2">
-        <v>1.012085536846545</v>
+        <v>1.014456853506084</v>
       </c>
       <c r="E2">
-        <v>1.005633039935346</v>
+        <v>1.008632021572121</v>
       </c>
       <c r="F2">
-        <v>1.008595123089831</v>
+        <v>1.0113382561657</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042197517903861</v>
+        <v>1.043604599409223</v>
       </c>
       <c r="J2">
-        <v>1.017937560774448</v>
+        <v>1.02089038786079</v>
       </c>
       <c r="K2">
-        <v>1.023379029971827</v>
+        <v>1.025718389521427</v>
       </c>
       <c r="L2">
-        <v>1.017014451463109</v>
+        <v>1.019972394395751</v>
       </c>
       <c r="M2">
-        <v>1.019935998973392</v>
+        <v>1.022641859098865</v>
+      </c>
+      <c r="N2">
+        <v>1.022340169309317</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.006765674506119</v>
+        <v>1.009773437428843</v>
       </c>
       <c r="D3">
-        <v>1.020831696265934</v>
+        <v>1.023176659876602</v>
       </c>
       <c r="E3">
-        <v>1.016272879396747</v>
+        <v>1.019238946446691</v>
       </c>
       <c r="F3">
-        <v>1.019508516912401</v>
+        <v>1.022215758452573</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046812312789363</v>
+        <v>1.048205525520562</v>
       </c>
       <c r="J3">
-        <v>1.027073584382719</v>
+        <v>1.03000116873699</v>
       </c>
       <c r="K3">
-        <v>1.031204793338168</v>
+        <v>1.03352133660917</v>
       </c>
       <c r="L3">
-        <v>1.026701694999528</v>
+        <v>1.029631439922351</v>
       </c>
       <c r="M3">
-        <v>1.029897722280856</v>
+        <v>1.032572061472017</v>
+      </c>
+      <c r="N3">
+        <v>1.031463888539382</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013640919047643</v>
+        <v>1.016628065999596</v>
       </c>
       <c r="D4">
-        <v>1.026226175290003</v>
+        <v>1.028556490328142</v>
       </c>
       <c r="E4">
-        <v>1.022845147214056</v>
+        <v>1.025792846899516</v>
       </c>
       <c r="F4">
-        <v>1.026253966984641</v>
+        <v>1.028941024310009</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049640339068695</v>
+        <v>1.051025947459118</v>
       </c>
       <c r="J4">
-        <v>1.032702010091724</v>
+        <v>1.035615780549984</v>
       </c>
       <c r="K4">
-        <v>1.036018051203489</v>
+        <v>1.038322059899725</v>
       </c>
       <c r="L4">
-        <v>1.032675453597909</v>
+        <v>1.035589630793922</v>
       </c>
       <c r="M4">
-        <v>1.036045528297082</v>
+        <v>1.038702267081522</v>
+      </c>
+      <c r="N4">
+        <v>1.037086473745156</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016458262632718</v>
+        <v>1.019437409917143</v>
       </c>
       <c r="D5">
-        <v>1.028435809914413</v>
+        <v>1.030760464816682</v>
       </c>
       <c r="E5">
-        <v>1.025539658990134</v>
+        <v>1.028480243072196</v>
       </c>
       <c r="F5">
-        <v>1.02902047979877</v>
+        <v>1.031699681035079</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050794359515037</v>
+        <v>1.052177055320096</v>
       </c>
       <c r="J5">
-        <v>1.035006011790929</v>
+        <v>1.037914495545487</v>
       </c>
       <c r="K5">
-        <v>1.037986428447022</v>
+        <v>1.040285629384878</v>
       </c>
       <c r="L5">
-        <v>1.035122187555973</v>
+        <v>1.038030373756029</v>
       </c>
       <c r="M5">
-        <v>1.038564683154462</v>
+        <v>1.041214601524649</v>
+      </c>
+      <c r="N5">
+        <v>1.039388453179618</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016927206118467</v>
+        <v>1.019905046683522</v>
       </c>
       <c r="D6">
-        <v>1.028803542366595</v>
+        <v>1.031127274153747</v>
       </c>
       <c r="E6">
-        <v>1.025988232078215</v>
+        <v>1.028927654531112</v>
       </c>
       <c r="F6">
-        <v>1.029481097931247</v>
+        <v>1.032159014500414</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050986157611643</v>
+        <v>1.052368379943627</v>
       </c>
       <c r="J6">
-        <v>1.035389365853601</v>
+        <v>1.038296990383809</v>
       </c>
       <c r="K6">
-        <v>1.038313824631019</v>
+        <v>1.040612243579487</v>
       </c>
       <c r="L6">
-        <v>1.035529370738303</v>
+        <v>1.03843658127083</v>
       </c>
       <c r="M6">
-        <v>1.03898398497183</v>
+        <v>1.041632789806565</v>
+      </c>
+      <c r="N6">
+        <v>1.039771491204483</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013678843115446</v>
+        <v>1.016665880676832</v>
       </c>
       <c r="D7">
-        <v>1.026255922887538</v>
+        <v>1.028586160428101</v>
       </c>
       <c r="E7">
-        <v>1.02288141273926</v>
+        <v>1.025829015076472</v>
       </c>
       <c r="F7">
-        <v>1.026291197618118</v>
+        <v>1.028978147612645</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04965589260122</v>
+        <v>1.051041461007682</v>
       </c>
       <c r="J7">
-        <v>1.032733033794361</v>
+        <v>1.035646731662413</v>
       </c>
       <c r="K7">
-        <v>1.036044563395733</v>
+        <v>1.038348506120297</v>
       </c>
       <c r="L7">
-        <v>1.032708393776771</v>
+        <v>1.035622488847848</v>
       </c>
       <c r="M7">
-        <v>1.036079438982939</v>
+        <v>1.038736084464602</v>
+      </c>
+      <c r="N7">
+        <v>1.037117468811714</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9994636235116667</v>
+        <v>1.0024950422117</v>
       </c>
       <c r="D8">
-        <v>1.015099560243459</v>
+        <v>1.01746142122792</v>
       </c>
       <c r="E8">
-        <v>1.009297613130891</v>
+        <v>1.012284800227489</v>
       </c>
       <c r="F8">
-        <v>1.012353009485817</v>
+        <v>1.015083317383636</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043791752561291</v>
+        <v>1.045193834171723</v>
       </c>
       <c r="J8">
-        <v>1.021087396359048</v>
+        <v>1.024031115336131</v>
       </c>
       <c r="K8">
-        <v>1.026078810264812</v>
+        <v>1.028409949168366</v>
       </c>
       <c r="L8">
-        <v>1.020353098131905</v>
+        <v>1.023300898124295</v>
       </c>
       <c r="M8">
-        <v>1.023368211422283</v>
+        <v>1.026062779305113</v>
+      </c>
+      <c r="N8">
+        <v>1.02548535697792</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9714927295227084</v>
+        <v>0.9746333140801298</v>
       </c>
       <c r="D9">
-        <v>0.9931306589214394</v>
+        <v>0.995571244388339</v>
       </c>
       <c r="E9">
-        <v>0.9826262545342086</v>
+        <v>0.9857113180228949</v>
       </c>
       <c r="F9">
-        <v>0.9850218488185171</v>
+        <v>0.9878576846731862</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032088014029523</v>
+        <v>1.033532277911944</v>
       </c>
       <c r="J9">
-        <v>0.9980939334620522</v>
+        <v>1.001114771178821</v>
       </c>
       <c r="K9">
-        <v>1.006336178342902</v>
+        <v>1.008736586068971</v>
       </c>
       <c r="L9">
-        <v>0.9960076416258906</v>
+        <v>0.9990405527330075</v>
       </c>
       <c r="M9">
-        <v>0.9983627023025073</v>
+        <v>1.001150883141662</v>
+      </c>
+      <c r="N9">
+        <v>1.002536468983364</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9502303439948676</v>
+        <v>0.9534769390323806</v>
       </c>
       <c r="D10">
-        <v>0.9764364538665169</v>
+        <v>0.9789540990051429</v>
       </c>
       <c r="E10">
-        <v>0.9624033057581332</v>
+        <v>0.9655838088074792</v>
       </c>
       <c r="F10">
-        <v>0.9643246245418413</v>
+        <v>0.9672619877573897</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023082709584519</v>
+        <v>1.024569046122433</v>
       </c>
       <c r="J10">
-        <v>0.9805678923872543</v>
+        <v>0.9836662191999541</v>
       </c>
       <c r="K10">
-        <v>0.9912446001801551</v>
+        <v>0.993714032894578</v>
       </c>
       <c r="L10">
-        <v>0.9774862625549592</v>
+        <v>0.9806035622521373</v>
       </c>
       <c r="M10">
-        <v>0.9793693351297195</v>
+        <v>0.9822486121761697</v>
+      </c>
+      <c r="N10">
+        <v>0.9850631380593106</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9402013281823025</v>
+        <v>0.9435062047551379</v>
       </c>
       <c r="D11">
-        <v>0.9685688350731162</v>
+        <v>0.9711289718265302</v>
       </c>
       <c r="E11">
-        <v>0.9528805195388823</v>
+        <v>0.9561135919561182</v>
       </c>
       <c r="F11">
-        <v>0.9545849911710638</v>
+        <v>0.9575779010940076</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.018811018432132</v>
+        <v>1.020320747721045</v>
       </c>
       <c r="J11">
-        <v>0.9722922404129781</v>
+        <v>0.9754338596699659</v>
       </c>
       <c r="K11">
-        <v>0.9841088790445691</v>
+        <v>0.9866166947591667</v>
       </c>
       <c r="L11">
-        <v>0.9687493243364848</v>
+        <v>0.9719134763349061</v>
       </c>
       <c r="M11">
-        <v>0.9704173841245007</v>
+        <v>0.9733467730109165</v>
+      </c>
+      <c r="N11">
+        <v>0.9768190876345247</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9363292145534461</v>
+        <v>0.9396581916823672</v>
       </c>
       <c r="D12">
-        <v>0.9655328221049196</v>
+        <v>0.9681105467132898</v>
       </c>
       <c r="E12">
-        <v>0.9492066594639467</v>
+        <v>0.9524614856344398</v>
       </c>
       <c r="F12">
-        <v>0.9508284738472002</v>
+        <v>0.9538443082799991</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.017158351900667</v>
+        <v>1.018677793642753</v>
       </c>
       <c r="J12">
-        <v>0.969096002172411</v>
+        <v>0.9722556345013961</v>
       </c>
       <c r="K12">
-        <v>0.9813515527222731</v>
+        <v>0.9838753072115041</v>
       </c>
       <c r="L12">
-        <v>0.9653762668560985</v>
+        <v>0.9685598661433363</v>
       </c>
       <c r="M12">
-        <v>0.9669625093159571</v>
+        <v>0.9699126231554359</v>
+      </c>
+      <c r="N12">
+        <v>0.973636349021668</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9371668928680216</v>
+        <v>0.9404905771013897</v>
       </c>
       <c r="D13">
-        <v>0.966189538108295</v>
+        <v>0.9687633994187118</v>
       </c>
       <c r="E13">
-        <v>0.9500013146641791</v>
+        <v>0.9532513626523863</v>
       </c>
       <c r="F13">
-        <v>0.9516409622521306</v>
+        <v>0.9546517641619762</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.017516032556526</v>
+        <v>1.019033339542479</v>
       </c>
       <c r="J13">
-        <v>0.9697875077556537</v>
+        <v>0.9729431790491808</v>
       </c>
       <c r="K13">
-        <v>0.9819481590072123</v>
+        <v>0.9844684100788281</v>
       </c>
       <c r="L13">
-        <v>0.966105966424205</v>
+        <v>0.9692852914329945</v>
       </c>
       <c r="M13">
-        <v>0.9677098541203629</v>
+        <v>0.9706554163156912</v>
+      </c>
+      <c r="N13">
+        <v>0.974324869961573</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9398844139491438</v>
+        <v>0.9431912283338213</v>
       </c>
       <c r="D14">
-        <v>0.9683203154353798</v>
+        <v>0.970881866030149</v>
       </c>
       <c r="E14">
-        <v>0.9525797722906021</v>
+        <v>0.9558145935217941</v>
       </c>
       <c r="F14">
-        <v>0.9542774571386794</v>
+        <v>0.9572722112308633</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.018675822604179</v>
+        <v>1.020186332057859</v>
       </c>
       <c r="J14">
-        <v>0.9720306633914326</v>
+        <v>0.9751737287699265</v>
       </c>
       <c r="K14">
-        <v>0.9838832488207341</v>
+        <v>0.9863923447769206</v>
       </c>
       <c r="L14">
-        <v>0.9684732494227667</v>
+        <v>0.9716389636241721</v>
       </c>
       <c r="M14">
-        <v>0.9701345883983671</v>
+        <v>0.9730656436379649</v>
+      </c>
+      <c r="N14">
+        <v>0.9765585873187698</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9415384908812915</v>
+        <v>0.9448352580604343</v>
       </c>
       <c r="D15">
-        <v>0.9696174876591152</v>
+        <v>0.9721717083822504</v>
       </c>
       <c r="E15">
-        <v>0.9541495841572243</v>
+        <v>0.9573753387034813</v>
       </c>
       <c r="F15">
-        <v>0.9558827345652193</v>
+        <v>0.9588679251751014</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.019381317163699</v>
+        <v>1.020887783132696</v>
       </c>
       <c r="J15">
-        <v>0.9733958758293043</v>
+        <v>0.9765314477108785</v>
       </c>
       <c r="K15">
-        <v>0.9850607951712684</v>
+        <v>0.9875632559236937</v>
       </c>
       <c r="L15">
-        <v>0.9699141828659261</v>
+        <v>0.9730718002086884</v>
       </c>
       <c r="M15">
-        <v>0.971610648499594</v>
+        <v>0.9745330640935638</v>
+      </c>
+      <c r="N15">
+        <v>0.9779182343763508</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9508767646697743</v>
+        <v>0.9541197978612541</v>
       </c>
       <c r="D16">
-        <v>0.9769437436462973</v>
+        <v>0.9794587941755623</v>
       </c>
       <c r="E16">
-        <v>0.9630174528611634</v>
+        <v>0.9661947450833684</v>
       </c>
       <c r="F16">
-        <v>0.964952890682459</v>
+        <v>0.9678868537131664</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023357568608717</v>
+        <v>1.024842480481705</v>
       </c>
       <c r="J16">
-        <v>0.9811011377029687</v>
+        <v>0.9841968323947047</v>
       </c>
       <c r="K16">
-        <v>0.9917042052112688</v>
+        <v>0.9941713005485709</v>
       </c>
       <c r="L16">
-        <v>0.9780494103809424</v>
+        <v>0.9811638557503592</v>
       </c>
       <c r="M16">
-        <v>0.9799465005167847</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9828227154439937</v>
+      </c>
+      <c r="N16">
+        <v>0.9855945047856599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9564997166227956</v>
+        <v>0.9597127072329245</v>
       </c>
       <c r="D17">
-        <v>0.9813572434716423</v>
+        <v>0.9838504222459777</v>
       </c>
       <c r="E17">
-        <v>0.9683614655614934</v>
+        <v>0.9715116860193166</v>
       </c>
       <c r="F17">
-        <v>0.9704204788310689</v>
+        <v>0.9733257350303034</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025745820232073</v>
+        <v>1.027218742252461</v>
       </c>
       <c r="J17">
-        <v>0.9857386553755969</v>
+        <v>0.9888122200127534</v>
       </c>
       <c r="K17">
-        <v>0.9957002390586503</v>
+        <v>0.9981476638854929</v>
       </c>
       <c r="L17">
-        <v>0.9829479458877535</v>
+        <v>0.9860383630839007</v>
       </c>
       <c r="M17">
-        <v>0.9849678137287364</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9878182039103488</v>
+      </c>
+      <c r="N17">
+        <v>0.9902164467835184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9597020195353343</v>
+        <v>0.9628986313807</v>
       </c>
       <c r="D18">
-        <v>0.9838713245644783</v>
+        <v>0.986352589858237</v>
       </c>
       <c r="E18">
-        <v>0.9714063416125647</v>
+        <v>0.9745418112177687</v>
       </c>
       <c r="F18">
-        <v>0.9735363572860494</v>
+        <v>0.976425940731519</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027103722649075</v>
+        <v>1.028570129858339</v>
       </c>
       <c r="J18">
-        <v>0.9883789049339594</v>
+        <v>0.9914404617498722</v>
       </c>
       <c r="K18">
-        <v>0.99797439137835</v>
+        <v>1.000411128300563</v>
       </c>
       <c r="L18">
-        <v>0.985737593315951</v>
+        <v>0.9888149486039834</v>
       </c>
       <c r="M18">
-        <v>0.9878280770858668</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9906643905913889</v>
+      </c>
+      <c r="N18">
+        <v>0.9928484209253674</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9607813899972644</v>
+        <v>0.9639725968662017</v>
       </c>
       <c r="D19">
-        <v>0.9847188038682426</v>
+        <v>0.9871961395874225</v>
       </c>
       <c r="E19">
-        <v>0.9724328821796424</v>
+        <v>0.9755634854105346</v>
       </c>
       <c r="F19">
-        <v>0.9745869351650056</v>
+        <v>0.977471342950177</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027561036244411</v>
+        <v>1.029025297294127</v>
       </c>
       <c r="J19">
-        <v>0.9892686796988299</v>
+        <v>0.9923262834825868</v>
       </c>
       <c r="K19">
-        <v>0.9987406375659583</v>
+        <v>1.001173853597065</v>
       </c>
       <c r="L19">
-        <v>0.9866778496678522</v>
+        <v>0.9897509008719371</v>
       </c>
       <c r="M19">
-        <v>0.9887922515362806</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.991623920231119</v>
+      </c>
+      <c r="N19">
+        <v>0.9937355006265476</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,75 +1159,81 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9559045884788299</v>
+        <v>0.9591206804420244</v>
       </c>
       <c r="D20">
-        <v>0.9808900596697996</v>
+        <v>0.9833854951875501</v>
       </c>
       <c r="E20">
-        <v>0.9677957082620697</v>
+        <v>0.9709487225100731</v>
       </c>
       <c r="F20">
-        <v>0.9698415769047823</v>
+        <v>0.9727497989489713</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025493280309267</v>
+        <v>1.026967437745831</v>
       </c>
       <c r="J20">
-        <v>0.9852479110664714</v>
+        <v>0.9883237541262582</v>
       </c>
       <c r="K20">
-        <v>0.9952774687441971</v>
+        <v>0.9977269203505224</v>
       </c>
       <c r="L20">
-        <v>0.9824294974377029</v>
+        <v>0.9855223910629278</v>
       </c>
       <c r="M20">
-        <v>0.9844362978902195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9872893537449542</v>
+      </c>
+      <c r="N20">
+        <v>0.9897272872194366</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9390884482258725</v>
+        <v>0.9424001566548904</v>
       </c>
       <c r="D21">
-        <v>0.9676961584030953</v>
+        <v>0.9702612799821634</v>
       </c>
       <c r="E21">
-        <v>0.95182445815661</v>
+        <v>0.955063696349465</v>
       </c>
       <c r="F21">
-        <v>0.9535051144041521</v>
+        <v>0.9565045253149509</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.018336209459914</v>
+        <v>1.019848689873498</v>
       </c>
       <c r="J21">
-        <v>0.9713736670236924</v>
+        <v>0.9745203864239239</v>
       </c>
       <c r="K21">
-        <v>0.9833165177983465</v>
+        <v>0.9858288481232936</v>
       </c>
       <c r="L21">
-        <v>0.9677798606099435</v>
+        <v>0.9709495213975717</v>
       </c>
       <c r="M21">
-        <v>0.9694243388561703</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9723596025934401</v>
+      </c>
+      <c r="N21">
+        <v>0.9759043171516963</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9276484835278215</v>
+        <v>0.9310350031571195</v>
       </c>
       <c r="D22">
-        <v>0.9587303245030551</v>
+        <v>0.9613500709278802</v>
       </c>
       <c r="E22">
-        <v>0.9409761611933873</v>
+        <v>0.9442829563558829</v>
       </c>
       <c r="F22">
-        <v>0.9424146989681011</v>
+        <v>0.9454851747364104</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.013447264360912</v>
+        <v>1.014989970445543</v>
       </c>
       <c r="J22">
-        <v>0.9619288475473755</v>
+        <v>0.9651317105593513</v>
       </c>
       <c r="K22">
-        <v>0.975166203891023</v>
+        <v>0.9777281438174626</v>
       </c>
       <c r="L22">
-        <v>0.9578151542820987</v>
+        <v>0.9610453318750775</v>
       </c>
       <c r="M22">
-        <v>0.9592202731388195</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9622198726664243</v>
+      </c>
+      <c r="N22">
+        <v>0.9665023082905002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9338049367706427</v>
+        <v>0.9371501338810894</v>
       </c>
       <c r="D23">
-        <v>0.9635541511246273</v>
+        <v>0.9661437169935351</v>
       </c>
       <c r="E23">
-        <v>0.946812477128533</v>
+        <v>0.9500819482212569</v>
       </c>
       <c r="F23">
-        <v>0.9483807118765674</v>
+        <v>0.9514119613244031</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.016080030078967</v>
+        <v>1.017606019470038</v>
       </c>
       <c r="J23">
-        <v>0.967012070962042</v>
+        <v>0.9701838587344189</v>
       </c>
       <c r="K23">
-        <v>0.9795534211614526</v>
+        <v>0.9820879217307179</v>
       </c>
       <c r="L23">
-        <v>0.963177432993345</v>
+        <v>0.9663741418278924</v>
       </c>
       <c r="M23">
-        <v>0.9647106832344999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9676747457433511</v>
+      </c>
+      <c r="N23">
+        <v>0.971561631095466</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9561737389831256</v>
+        <v>0.9593884260830112</v>
       </c>
       <c r="D24">
-        <v>0.9811013447970701</v>
+        <v>0.9835957580121037</v>
       </c>
       <c r="E24">
-        <v>0.9680515711774004</v>
+        <v>0.9712033198569086</v>
       </c>
       <c r="F24">
-        <v>0.9701033826117935</v>
+        <v>0.973010261246014</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025607500047341</v>
+        <v>1.027081097790592</v>
       </c>
       <c r="J24">
-        <v>0.9854698559643054</v>
+        <v>0.9885446667538925</v>
       </c>
       <c r="K24">
-        <v>0.995468674371059</v>
+        <v>0.9979172077638553</v>
       </c>
       <c r="L24">
-        <v>0.9826639693829132</v>
+        <v>0.9857557411052272</v>
       </c>
       <c r="M24">
-        <v>0.9846766774850658</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9875285258241983</v>
+      </c>
+      <c r="N24">
+        <v>0.9899485135683408</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9791286477837396</v>
+        <v>0.9822362975670245</v>
       </c>
       <c r="D25">
-        <v>0.999128503009227</v>
+        <v>1.00154524419932</v>
       </c>
       <c r="E25">
-        <v>0.9898998448555836</v>
+        <v>0.9929553238877992</v>
       </c>
       <c r="F25">
-        <v>0.9924711570292487</v>
+        <v>0.9952752845244688</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03530146046112</v>
+        <v>1.03673283544102</v>
       </c>
       <c r="J25">
-        <v>1.004379426519378</v>
+        <v>1.007376634928743</v>
       </c>
       <c r="K25">
-        <v>1.011740362927455</v>
+        <v>1.014119619509291</v>
       </c>
       <c r="L25">
-        <v>1.0026570026925</v>
+        <v>1.005663992706284</v>
       </c>
       <c r="M25">
-        <v>1.005187483856984</v>
+        <v>1.007947391085928</v>
+      </c>
+      <c r="N25">
+        <v>1.008807225298057</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_44/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9986698183677919</v>
+        <v>1.021945704193304</v>
       </c>
       <c r="D2">
-        <v>1.014456853506084</v>
+        <v>1.041758050275473</v>
       </c>
       <c r="E2">
-        <v>1.008632021572121</v>
+        <v>1.029980490678775</v>
       </c>
       <c r="F2">
-        <v>1.0113382561657</v>
+        <v>1.046102266031906</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043604599409223</v>
+        <v>1.059240626118638</v>
       </c>
       <c r="J2">
-        <v>1.02089038786079</v>
+        <v>1.043489266181936</v>
       </c>
       <c r="K2">
-        <v>1.025718389521427</v>
+        <v>1.052664739996278</v>
       </c>
       <c r="L2">
-        <v>1.019972394395751</v>
+        <v>1.041037371728228</v>
       </c>
       <c r="M2">
-        <v>1.022641859098865</v>
+        <v>1.056954620749411</v>
       </c>
       <c r="N2">
-        <v>1.022340169309317</v>
+        <v>1.044971140629806</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.009773437428843</v>
+        <v>1.031386464724571</v>
       </c>
       <c r="D3">
-        <v>1.023176659876602</v>
+        <v>1.04938566180639</v>
       </c>
       <c r="E3">
-        <v>1.019238946446691</v>
+        <v>1.038915811341556</v>
       </c>
       <c r="F3">
-        <v>1.022215758452573</v>
+        <v>1.054299955173905</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048205525520562</v>
+        <v>1.063114618141024</v>
       </c>
       <c r="J3">
-        <v>1.03000116873699</v>
+        <v>1.051056594708552</v>
       </c>
       <c r="K3">
-        <v>1.03352133660917</v>
+        <v>1.059423356958231</v>
       </c>
       <c r="L3">
-        <v>1.029631439922351</v>
+        <v>1.049073840895988</v>
       </c>
       <c r="M3">
-        <v>1.032572061472017</v>
+        <v>1.064282183436948</v>
       </c>
       <c r="N3">
-        <v>1.031463888539382</v>
+        <v>1.052549215630915</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016628065999596</v>
+        <v>1.037260329620521</v>
       </c>
       <c r="D4">
-        <v>1.028556490328142</v>
+        <v>1.054134706740876</v>
       </c>
       <c r="E4">
-        <v>1.025792846899516</v>
+        <v>1.0444801434407</v>
       </c>
       <c r="F4">
-        <v>1.028941024310009</v>
+        <v>1.059408123251841</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051025947459118</v>
+        <v>1.065510053365771</v>
       </c>
       <c r="J4">
-        <v>1.035615780549984</v>
+        <v>1.055756658608596</v>
       </c>
       <c r="K4">
-        <v>1.038322059899725</v>
+        <v>1.063620891241255</v>
       </c>
       <c r="L4">
-        <v>1.035589630793922</v>
+        <v>1.054069810315933</v>
       </c>
       <c r="M4">
-        <v>1.038702267081522</v>
+        <v>1.068838758157042</v>
       </c>
       <c r="N4">
-        <v>1.037086473745156</v>
+        <v>1.057255954160802</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019437409917143</v>
+        <v>1.0396774534115</v>
       </c>
       <c r="D5">
-        <v>1.030760464816682</v>
+        <v>1.056089614222649</v>
       </c>
       <c r="E5">
-        <v>1.028480243072196</v>
+        <v>1.046770999215711</v>
       </c>
       <c r="F5">
-        <v>1.031699681035079</v>
+        <v>1.061511862345357</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052177055320096</v>
+        <v>1.066492148574955</v>
       </c>
       <c r="J5">
-        <v>1.037914495545487</v>
+        <v>1.057688737157506</v>
       </c>
       <c r="K5">
-        <v>1.040285629384878</v>
+        <v>1.065346299445804</v>
       </c>
       <c r="L5">
-        <v>1.038030373756029</v>
+        <v>1.056124611159524</v>
       </c>
       <c r="M5">
-        <v>1.041214601524649</v>
+        <v>1.070713102678748</v>
       </c>
       <c r="N5">
-        <v>1.039388453179618</v>
+        <v>1.059190776482864</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019905046683522</v>
+        <v>1.040080343125829</v>
       </c>
       <c r="D6">
-        <v>1.031127274153747</v>
+        <v>1.056415495712946</v>
       </c>
       <c r="E6">
-        <v>1.028927654531112</v>
+        <v>1.047152905313573</v>
       </c>
       <c r="F6">
-        <v>1.032159014500414</v>
+        <v>1.061862612794393</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052368379943627</v>
+        <v>1.066655629760081</v>
       </c>
       <c r="J6">
-        <v>1.038296990383809</v>
+        <v>1.058010658396623</v>
       </c>
       <c r="K6">
-        <v>1.040612243579487</v>
+        <v>1.065633778994068</v>
       </c>
       <c r="L6">
-        <v>1.03843658127083</v>
+        <v>1.056467043962699</v>
       </c>
       <c r="M6">
-        <v>1.041632789806565</v>
+        <v>1.071025476515056</v>
       </c>
       <c r="N6">
-        <v>1.039771491204483</v>
+        <v>1.059513154887065</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016665880676832</v>
+        <v>1.03729282770072</v>
       </c>
       <c r="D7">
-        <v>1.028586160428101</v>
+        <v>1.054160987935107</v>
       </c>
       <c r="E7">
-        <v>1.025829015076472</v>
+        <v>1.044510939568436</v>
       </c>
       <c r="F7">
-        <v>1.028978147612645</v>
+        <v>1.059436401327042</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051041461007682</v>
+        <v>1.065523272083811</v>
       </c>
       <c r="J7">
-        <v>1.035646731662413</v>
+        <v>1.055782643367868</v>
       </c>
       <c r="K7">
-        <v>1.038348506120297</v>
+        <v>1.063644096880058</v>
       </c>
       <c r="L7">
-        <v>1.035622488847848</v>
+        <v>1.054097441288476</v>
       </c>
       <c r="M7">
-        <v>1.038736084464602</v>
+        <v>1.068863961547575</v>
       </c>
       <c r="N7">
-        <v>1.037117468811714</v>
+        <v>1.057281975821412</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.0024950422117</v>
+        <v>1.02518745333966</v>
       </c>
       <c r="D8">
-        <v>1.01746142122792</v>
+        <v>1.044376417098537</v>
       </c>
       <c r="E8">
-        <v>1.012284800227489</v>
+        <v>1.033047581176823</v>
       </c>
       <c r="F8">
-        <v>1.015083317383636</v>
+        <v>1.04891543543657</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045193834171723</v>
+        <v>1.060573989987076</v>
       </c>
       <c r="J8">
-        <v>1.024031115336131</v>
+        <v>1.046089422153668</v>
       </c>
       <c r="K8">
-        <v>1.028409949168366</v>
+        <v>1.054987048190933</v>
       </c>
       <c r="L8">
-        <v>1.023300898124295</v>
+        <v>1.043797762539736</v>
       </c>
       <c r="M8">
-        <v>1.026062779305113</v>
+        <v>1.059471204136495</v>
       </c>
       <c r="N8">
-        <v>1.02548535697792</v>
+        <v>1.04757498912126</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9746333140801298</v>
+        <v>1.001849130404331</v>
       </c>
       <c r="D9">
-        <v>0.995571244388339</v>
+        <v>1.025547147351155</v>
       </c>
       <c r="E9">
-        <v>0.9857113180228949</v>
+        <v>1.010992394244671</v>
       </c>
       <c r="F9">
-        <v>0.9878576846731862</v>
+        <v>1.028703908869019</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033532277911944</v>
+        <v>1.050912134598684</v>
       </c>
       <c r="J9">
-        <v>1.001114771178821</v>
+        <v>1.027336759665638</v>
       </c>
       <c r="K9">
-        <v>1.008736586068971</v>
+        <v>1.038238904923272</v>
       </c>
       <c r="L9">
-        <v>0.9990405527330075</v>
+        <v>1.023909609965076</v>
       </c>
       <c r="M9">
-        <v>1.001150883141662</v>
+        <v>1.041347839483391</v>
       </c>
       <c r="N9">
-        <v>1.002536468983364</v>
+        <v>1.028795695701537</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9534769390323806</v>
+        <v>0.9845942874201052</v>
       </c>
       <c r="D10">
-        <v>0.9789540990051429</v>
+        <v>1.011662382741415</v>
       </c>
       <c r="E10">
-        <v>0.9655838088074792</v>
+        <v>0.9947249188483256</v>
       </c>
       <c r="F10">
-        <v>0.9672619877573897</v>
+        <v>1.013824270638892</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024569046122433</v>
+        <v>1.043691753016003</v>
       </c>
       <c r="J10">
-        <v>0.9836662191999541</v>
+        <v>1.013432754697021</v>
       </c>
       <c r="K10">
-        <v>0.993714032894578</v>
+        <v>1.025824214219935</v>
       </c>
       <c r="L10">
-        <v>0.9806035622521373</v>
+        <v>1.009190074199997</v>
       </c>
       <c r="M10">
-        <v>0.9822486121761697</v>
+        <v>1.027948330409963</v>
       </c>
       <c r="N10">
-        <v>0.9850631380593106</v>
+        <v>1.014871945451053</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9435062047551379</v>
+        <v>0.9766216579347274</v>
       </c>
       <c r="D11">
-        <v>0.9711289718265302</v>
+        <v>1.005259034025926</v>
       </c>
       <c r="E11">
-        <v>0.9561135919561182</v>
+        <v>0.9872198186506695</v>
       </c>
       <c r="F11">
-        <v>0.9575779010940076</v>
+        <v>1.006968060885447</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.020320747721045</v>
+        <v>1.040338724061977</v>
       </c>
       <c r="J11">
-        <v>0.9754338596699659</v>
+        <v>1.007000414894721</v>
       </c>
       <c r="K11">
-        <v>0.9866166947591667</v>
+        <v>1.020082449508186</v>
       </c>
       <c r="L11">
-        <v>0.9719134763349061</v>
+        <v>1.002386843196509</v>
       </c>
       <c r="M11">
-        <v>0.9733467730109165</v>
+        <v>1.021759755381817</v>
       </c>
       <c r="N11">
-        <v>0.9768190876345247</v>
+        <v>1.008430470988434</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9396581916823672</v>
+        <v>0.9735744291483867</v>
       </c>
       <c r="D12">
-        <v>0.9681105467132898</v>
+        <v>1.002813781852929</v>
       </c>
       <c r="E12">
-        <v>0.9524614856344398</v>
+        <v>0.9843532025229816</v>
       </c>
       <c r="F12">
-        <v>0.9538443082799991</v>
+        <v>1.004350784047661</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.018677793642753</v>
+        <v>1.039054783843595</v>
       </c>
       <c r="J12">
-        <v>0.9722556345013961</v>
+        <v>1.004540856243146</v>
       </c>
       <c r="K12">
-        <v>0.9838753072115041</v>
+        <v>1.0178872720619</v>
       </c>
       <c r="L12">
-        <v>0.9685598661433363</v>
+        <v>0.9997864379029275</v>
       </c>
       <c r="M12">
-        <v>0.9699126231554359</v>
+        <v>1.019395101913799</v>
       </c>
       <c r="N12">
-        <v>0.973636349021668</v>
+        <v>1.005967419481458</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9404905771013897</v>
+        <v>0.9742321477097018</v>
       </c>
       <c r="D13">
-        <v>0.9687633994187118</v>
+        <v>1.003341464239635</v>
       </c>
       <c r="E13">
-        <v>0.9532513626523863</v>
+        <v>0.9849718470487838</v>
       </c>
       <c r="F13">
-        <v>0.9546517641619762</v>
+        <v>1.004915547863269</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.019033339542479</v>
+        <v>1.039332015705431</v>
       </c>
       <c r="J13">
-        <v>0.9729431790491808</v>
+        <v>1.005071775556293</v>
       </c>
       <c r="K13">
-        <v>0.9844684100788281</v>
+        <v>1.01836110606818</v>
       </c>
       <c r="L13">
-        <v>0.9692852914329945</v>
+        <v>1.000347716287437</v>
       </c>
       <c r="M13">
-        <v>0.9706554163156912</v>
+        <v>1.019905456172918</v>
       </c>
       <c r="N13">
-        <v>0.974324869961573</v>
+        <v>1.006499092760927</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9431912283338213</v>
+        <v>0.9763715929197938</v>
       </c>
       <c r="D14">
-        <v>0.970881866030149</v>
+        <v>1.005058322750142</v>
       </c>
       <c r="E14">
-        <v>0.9558145935217941</v>
+        <v>0.9869845351246895</v>
       </c>
       <c r="F14">
-        <v>0.9572722112308633</v>
+        <v>1.006753210983225</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.020186332057859</v>
+        <v>1.040233406966773</v>
       </c>
       <c r="J14">
-        <v>0.9751737287699265</v>
+        <v>1.006798596072302</v>
       </c>
       <c r="K14">
-        <v>0.9863923447769206</v>
+        <v>1.019902317383556</v>
       </c>
       <c r="L14">
-        <v>0.9716389636241721</v>
+        <v>1.002173447491895</v>
       </c>
       <c r="M14">
-        <v>0.9730656436379649</v>
+        <v>1.02156568885475</v>
       </c>
       <c r="N14">
-        <v>0.9765585873187698</v>
+        <v>1.008228365560137</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9448352580604343</v>
+        <v>0.9776780488784176</v>
       </c>
       <c r="D15">
-        <v>0.9721717083822504</v>
+        <v>1.00610702231884</v>
       </c>
       <c r="E15">
-        <v>0.9573753387034813</v>
+        <v>0.9882138447158343</v>
       </c>
       <c r="F15">
-        <v>0.9588679251751014</v>
+        <v>1.00787582062321</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.020887783132696</v>
+        <v>1.040783537333885</v>
       </c>
       <c r="J15">
-        <v>0.9765314477108785</v>
+        <v>1.007852950119906</v>
       </c>
       <c r="K15">
-        <v>0.9875632559236937</v>
+        <v>1.020843388105674</v>
       </c>
       <c r="L15">
-        <v>0.9730718002086884</v>
+        <v>1.00328832161292</v>
       </c>
       <c r="M15">
-        <v>0.9745330640935638</v>
+        <v>1.02257961239557</v>
       </c>
       <c r="N15">
-        <v>0.9779182343763508</v>
+        <v>1.009284216911426</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9541197978612541</v>
+        <v>0.9851119931305886</v>
       </c>
       <c r="D16">
-        <v>0.9794587941755623</v>
+        <v>1.012078463806663</v>
       </c>
       <c r="E16">
-        <v>0.9661947450833684</v>
+        <v>0.9952125147105344</v>
       </c>
       <c r="F16">
-        <v>0.9678868537131664</v>
+        <v>1.014269901418682</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024842480481705</v>
+        <v>1.043909150164229</v>
       </c>
       <c r="J16">
-        <v>0.9841968323947047</v>
+        <v>1.013850289612029</v>
       </c>
       <c r="K16">
-        <v>0.9941713005485709</v>
+        <v>1.026196961902712</v>
       </c>
       <c r="L16">
-        <v>0.9811638557503592</v>
+        <v>1.009631816365277</v>
       </c>
       <c r="M16">
-        <v>0.9828227154439937</v>
+        <v>1.028350265707207</v>
       </c>
       <c r="N16">
-        <v>0.9855945047856599</v>
+        <v>1.015290073313532</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9597127072329245</v>
+        <v>0.9896341276177928</v>
       </c>
       <c r="D17">
-        <v>0.9838504222459777</v>
+        <v>1.015714300968654</v>
       </c>
       <c r="E17">
-        <v>0.9715116860193166</v>
+        <v>0.9994729249625969</v>
       </c>
       <c r="F17">
-        <v>0.9733257350303034</v>
+        <v>1.018164618757213</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027218742252461</v>
+        <v>1.04580624106682</v>
       </c>
       <c r="J17">
-        <v>0.9888122200127534</v>
+        <v>1.017496562826877</v>
       </c>
       <c r="K17">
-        <v>0.9981476638854929</v>
+        <v>1.029452299620471</v>
       </c>
       <c r="L17">
-        <v>0.9860383630839007</v>
+        <v>1.013490202029103</v>
       </c>
       <c r="M17">
-        <v>0.9878182039103488</v>
+        <v>1.031861479942089</v>
       </c>
       <c r="N17">
-        <v>0.9902164467835184</v>
+        <v>1.018941524654578</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9628986313807</v>
+        <v>0.9922242694128209</v>
       </c>
       <c r="D18">
-        <v>0.986352589858237</v>
+        <v>1.017797898092976</v>
       </c>
       <c r="E18">
-        <v>0.9745418112177687</v>
+        <v>1.001914192876136</v>
       </c>
       <c r="F18">
-        <v>0.976425940731519</v>
+        <v>1.020397124573834</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028570129858339</v>
+        <v>1.046891264353311</v>
       </c>
       <c r="J18">
-        <v>0.9914404617498722</v>
+        <v>1.019584287532001</v>
       </c>
       <c r="K18">
-        <v>1.000411128300563</v>
+        <v>1.031316329235338</v>
       </c>
       <c r="L18">
-        <v>0.9888149486039834</v>
+        <v>1.015699966459297</v>
       </c>
       <c r="M18">
-        <v>0.9906643905913889</v>
+        <v>1.033872826376574</v>
       </c>
       <c r="N18">
-        <v>0.9928484209253674</v>
+        <v>1.021032214168249</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9639725968662017</v>
+        <v>0.9930996635421868</v>
       </c>
       <c r="D19">
-        <v>0.9871961395874225</v>
+        <v>1.018502271614017</v>
       </c>
       <c r="E19">
-        <v>0.9755634854105346</v>
+        <v>1.002739441494514</v>
       </c>
       <c r="F19">
-        <v>0.977471342950177</v>
+        <v>1.021151930824984</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029025297294127</v>
+        <v>1.047257700367276</v>
       </c>
       <c r="J19">
-        <v>0.9923262834825868</v>
+        <v>1.020289747756503</v>
       </c>
       <c r="K19">
-        <v>1.001173853597065</v>
+        <v>1.031946222496157</v>
       </c>
       <c r="L19">
-        <v>0.9897509008719371</v>
+        <v>1.016446765031544</v>
       </c>
       <c r="M19">
-        <v>0.991623920231119</v>
+        <v>1.034552635493204</v>
       </c>
       <c r="N19">
-        <v>0.9937355006265476</v>
+        <v>1.021738676227187</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9591206804420244</v>
+        <v>0.9891539324451826</v>
       </c>
       <c r="D20">
-        <v>0.9833854951875501</v>
+        <v>1.01532810285042</v>
       </c>
       <c r="E20">
-        <v>0.9709487225100731</v>
+        <v>0.9990204126055655</v>
       </c>
       <c r="F20">
-        <v>0.9727497989489713</v>
+        <v>1.017750864876068</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026967437745831</v>
+        <v>1.045604956135606</v>
       </c>
       <c r="J20">
-        <v>0.9883237541262582</v>
+        <v>1.017109450544926</v>
       </c>
       <c r="K20">
-        <v>0.9977269203505224</v>
+        <v>1.029106676421935</v>
       </c>
       <c r="L20">
-        <v>0.9855223910629278</v>
+        <v>1.013080508774464</v>
       </c>
       <c r="M20">
-        <v>0.9872893537449542</v>
+        <v>1.031488606381808</v>
       </c>
       <c r="N20">
-        <v>0.9897272872194366</v>
+        <v>1.018553862628784</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9424001566548904</v>
+        <v>0.9757440448353687</v>
       </c>
       <c r="D21">
-        <v>0.9702612799821634</v>
+        <v>1.004554666117609</v>
       </c>
       <c r="E21">
-        <v>0.955063696349465</v>
+        <v>0.9863941133390761</v>
       </c>
       <c r="F21">
-        <v>0.9565045253149509</v>
+        <v>1.006214090114522</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.019848689873498</v>
+        <v>1.039969072022777</v>
       </c>
       <c r="J21">
-        <v>0.9745203864239239</v>
+        <v>1.006292107516408</v>
       </c>
       <c r="K21">
-        <v>0.9858288481232936</v>
+        <v>1.019450259699057</v>
       </c>
       <c r="L21">
-        <v>0.9709495213975717</v>
+        <v>1.001637920999473</v>
       </c>
       <c r="M21">
-        <v>0.9723596025934401</v>
+        <v>1.02107868331842</v>
       </c>
       <c r="N21">
-        <v>0.9759043171516963</v>
+        <v>1.007721157732399</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9310350031571195</v>
+        <v>0.9668091272692151</v>
       </c>
       <c r="D22">
-        <v>0.9613500709278802</v>
+        <v>0.9973894541421453</v>
       </c>
       <c r="E22">
-        <v>0.9442829563558829</v>
+        <v>0.9779927213365889</v>
       </c>
       <c r="F22">
-        <v>0.9454851747364104</v>
+        <v>0.9985465578665673</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.014989970445543</v>
+        <v>1.036200042601758</v>
       </c>
       <c r="J22">
-        <v>0.9651317105593513</v>
+        <v>0.9990785280827442</v>
       </c>
       <c r="K22">
-        <v>0.9777281438174626</v>
+        <v>1.013012804453322</v>
       </c>
       <c r="L22">
-        <v>0.9610453318750775</v>
+        <v>0.994013127087081</v>
       </c>
       <c r="M22">
-        <v>0.9622198726664243</v>
+        <v>1.014146862821216</v>
       </c>
       <c r="N22">
-        <v>0.9665023082905002</v>
+        <v>1.000497334188531</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9371501338810894</v>
+        <v>0.9715975576224611</v>
       </c>
       <c r="D23">
-        <v>0.9661437169935351</v>
+        <v>1.001228104313504</v>
       </c>
       <c r="E23">
-        <v>0.9500819482212569</v>
+        <v>0.9824940741378478</v>
       </c>
       <c r="F23">
-        <v>0.9514119613244031</v>
+        <v>1.00265381215212</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.017606019470038</v>
+        <v>1.038221187355661</v>
       </c>
       <c r="J23">
-        <v>0.9701838587344189</v>
+        <v>1.002944958890342</v>
       </c>
       <c r="K23">
-        <v>0.9820879217307179</v>
+        <v>1.016463023004227</v>
       </c>
       <c r="L23">
-        <v>0.9663741418278924</v>
+        <v>0.9980994274412606</v>
       </c>
       <c r="M23">
-        <v>0.9676747457433511</v>
+        <v>1.017861281940797</v>
       </c>
       <c r="N23">
-        <v>0.971561631095466</v>
+        <v>1.004369255771362</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9593884260830112</v>
+        <v>0.9893710581186836</v>
       </c>
       <c r="D24">
-        <v>0.9835957580121037</v>
+        <v>1.015502723295238</v>
       </c>
       <c r="E24">
-        <v>0.9712033198569086</v>
+        <v>0.9992250179775806</v>
       </c>
       <c r="F24">
-        <v>0.973010261246014</v>
+        <v>1.017937943011652</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027081097790592</v>
+        <v>1.045695974300952</v>
       </c>
       <c r="J24">
-        <v>0.9885446667538925</v>
+        <v>1.017284490084617</v>
       </c>
       <c r="K24">
-        <v>0.9979172077638553</v>
+        <v>1.029262955520821</v>
       </c>
       <c r="L24">
-        <v>0.9857557411052272</v>
+        <v>1.013265756850885</v>
       </c>
       <c r="M24">
-        <v>0.9875285258241983</v>
+        <v>1.03165720468244</v>
       </c>
       <c r="N24">
-        <v>0.9899485135683408</v>
+        <v>1.018729150744699</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9822362975670245</v>
+        <v>1.008152702450339</v>
       </c>
       <c r="D25">
-        <v>1.00154524419932</v>
+        <v>1.030627723121138</v>
       </c>
       <c r="E25">
-        <v>0.9929553238877992</v>
+        <v>1.016943500678744</v>
       </c>
       <c r="F25">
-        <v>0.9952752845244688</v>
+        <v>1.034153395128613</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03673283544102</v>
+        <v>1.053535076871107</v>
       </c>
       <c r="J25">
-        <v>1.007376634928743</v>
+        <v>1.03240877656189</v>
       </c>
       <c r="K25">
-        <v>1.014119619509291</v>
+        <v>1.042768485504423</v>
       </c>
       <c r="L25">
-        <v>1.005663992706284</v>
+        <v>1.029284363656298</v>
       </c>
       <c r="M25">
-        <v>1.007947391085928</v>
+        <v>1.046243688281985</v>
       </c>
       <c r="N25">
-        <v>1.008807225298057</v>
+        <v>1.03387491544355</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_44/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.021945704193304</v>
+        <v>1.002399152090792</v>
       </c>
       <c r="D2">
-        <v>1.041758050275473</v>
+        <v>1.019285155882951</v>
       </c>
       <c r="E2">
-        <v>1.029980490678775</v>
+        <v>1.010558565518854</v>
       </c>
       <c r="F2">
-        <v>1.046102266031906</v>
+        <v>0.979381566787734</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.059240626118638</v>
+        <v>1.044458791308915</v>
       </c>
       <c r="J2">
-        <v>1.043489266181936</v>
+        <v>1.02450834096132</v>
       </c>
       <c r="K2">
-        <v>1.052664739996278</v>
+        <v>1.030482200048785</v>
       </c>
       <c r="L2">
-        <v>1.041037371728228</v>
+        <v>1.021872736780188</v>
       </c>
       <c r="M2">
-        <v>1.056954620749411</v>
+        <v>0.991135824196188</v>
       </c>
       <c r="N2">
-        <v>1.044971140629806</v>
+        <v>1.025963260318235</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031386464724571</v>
+        <v>1.007317776346858</v>
       </c>
       <c r="D3">
-        <v>1.04938566180639</v>
+        <v>1.022882870352536</v>
       </c>
       <c r="E3">
-        <v>1.038915811341556</v>
+        <v>1.014972351542239</v>
       </c>
       <c r="F3">
-        <v>1.054299955173905</v>
+        <v>0.9869839498885674</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.063114618141024</v>
+        <v>1.046208479576357</v>
       </c>
       <c r="J3">
-        <v>1.051056594708552</v>
+        <v>1.027610919975502</v>
       </c>
       <c r="K3">
-        <v>1.059423356958231</v>
+        <v>1.033231098869818</v>
       </c>
       <c r="L3">
-        <v>1.049073840895988</v>
+        <v>1.025417176575794</v>
       </c>
       <c r="M3">
-        <v>1.064282183436948</v>
+        <v>0.9977861278439066</v>
       </c>
       <c r="N3">
-        <v>1.052549215630915</v>
+        <v>1.029070245350487</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.037260329620521</v>
+        <v>1.010423863972245</v>
       </c>
       <c r="D4">
-        <v>1.054134706740876</v>
+        <v>1.025156759045961</v>
       </c>
       <c r="E4">
-        <v>1.0444801434407</v>
+        <v>1.017764411922336</v>
       </c>
       <c r="F4">
-        <v>1.059408123251841</v>
+        <v>0.9917731003687213</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.065510053365771</v>
+        <v>1.047301257475753</v>
       </c>
       <c r="J4">
-        <v>1.055756658608596</v>
+        <v>1.029564633203621</v>
       </c>
       <c r="K4">
-        <v>1.063620891241255</v>
+        <v>1.034960756689352</v>
       </c>
       <c r="L4">
-        <v>1.054069810315933</v>
+        <v>1.027653061562495</v>
       </c>
       <c r="M4">
-        <v>1.068838758157042</v>
+        <v>1.001971841528746</v>
       </c>
       <c r="N4">
-        <v>1.057255954160802</v>
+        <v>1.031026733075484</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.0396774534115</v>
+        <v>1.011712104649392</v>
       </c>
       <c r="D5">
-        <v>1.056089614222649</v>
+        <v>1.026100262167715</v>
       </c>
       <c r="E5">
-        <v>1.046770999215711</v>
+        <v>1.01892352572219</v>
       </c>
       <c r="F5">
-        <v>1.061511862345357</v>
+        <v>0.9937569830686512</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.066492148574955</v>
+        <v>1.04775153849451</v>
       </c>
       <c r="J5">
-        <v>1.057688737157506</v>
+        <v>1.030373584774429</v>
       </c>
       <c r="K5">
-        <v>1.065346299445804</v>
+        <v>1.035676596680539</v>
       </c>
       <c r="L5">
-        <v>1.056124611159524</v>
+        <v>1.028579789297756</v>
       </c>
       <c r="M5">
-        <v>1.070713102678748</v>
+        <v>1.003704836179878</v>
       </c>
       <c r="N5">
-        <v>1.059190776482864</v>
+        <v>1.031836833450311</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040080343125829</v>
+        <v>1.011927397951326</v>
       </c>
       <c r="D6">
-        <v>1.056415495712946</v>
+        <v>1.026257965113825</v>
       </c>
       <c r="E6">
-        <v>1.047152905313573</v>
+        <v>1.019117303772653</v>
       </c>
       <c r="F6">
-        <v>1.061862612794393</v>
+        <v>0.9940884034055326</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.066655629760081</v>
+        <v>1.047826616223734</v>
       </c>
       <c r="J6">
-        <v>1.058010658396623</v>
+        <v>1.030508698843195</v>
       </c>
       <c r="K6">
-        <v>1.065633778994068</v>
+        <v>1.035796138434574</v>
       </c>
       <c r="L6">
-        <v>1.056467043962699</v>
+        <v>1.028734630041</v>
       </c>
       <c r="M6">
-        <v>1.071025476515056</v>
+        <v>1.003994289109628</v>
       </c>
       <c r="N6">
-        <v>1.059513154887065</v>
+        <v>1.031972139396552</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03729282770072</v>
+        <v>1.010441145508604</v>
       </c>
       <c r="D7">
-        <v>1.054160987935107</v>
+        <v>1.025169414415019</v>
       </c>
       <c r="E7">
-        <v>1.044510939568436</v>
+        <v>1.017779956874671</v>
       </c>
       <c r="F7">
-        <v>1.059436401327042</v>
+        <v>0.9917997228133603</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.065523272083811</v>
+        <v>1.047307309608218</v>
       </c>
       <c r="J7">
-        <v>1.055782643367868</v>
+        <v>1.029575490492142</v>
       </c>
       <c r="K7">
-        <v>1.063644096880058</v>
+        <v>1.034970365653521</v>
       </c>
       <c r="L7">
-        <v>1.054097441288476</v>
+        <v>1.027665495857114</v>
       </c>
       <c r="M7">
-        <v>1.068863961547575</v>
+        <v>1.001995100889385</v>
       </c>
       <c r="N7">
-        <v>1.057281975821412</v>
+        <v>1.031037605782601</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.02518745333966</v>
+        <v>1.00407776753849</v>
       </c>
       <c r="D8">
-        <v>1.044376417098537</v>
+        <v>1.020512531604971</v>
       </c>
       <c r="E8">
-        <v>1.033047581176823</v>
+        <v>1.012063867715221</v>
       </c>
       <c r="F8">
-        <v>1.04891543543657</v>
+        <v>0.9819788127723141</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.060573989987076</v>
+        <v>1.045058453424173</v>
       </c>
       <c r="J8">
-        <v>1.046089422153668</v>
+        <v>1.025568340087711</v>
       </c>
       <c r="K8">
-        <v>1.054987048190933</v>
+        <v>1.031421635293175</v>
       </c>
       <c r="L8">
-        <v>1.043797762539736</v>
+        <v>1.023082868702738</v>
       </c>
       <c r="M8">
-        <v>1.059471204136495</v>
+        <v>0.9934085554918398</v>
       </c>
       <c r="N8">
-        <v>1.04757498912126</v>
+        <v>1.027024764764969</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.001849130404331</v>
+        <v>0.992240286833952</v>
       </c>
       <c r="D9">
-        <v>1.025547147351155</v>
+        <v>1.011867804342599</v>
       </c>
       <c r="E9">
-        <v>1.010992394244671</v>
+        <v>1.00147035178925</v>
       </c>
       <c r="F9">
-        <v>1.028703908869019</v>
+        <v>0.9635942843636548</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050912134598684</v>
+        <v>1.04077907130445</v>
       </c>
       <c r="J9">
-        <v>1.027336759665638</v>
+        <v>1.018070068036536</v>
       </c>
       <c r="K9">
-        <v>1.038238904923272</v>
+        <v>1.024771225067368</v>
       </c>
       <c r="L9">
-        <v>1.023909609965076</v>
+        <v>1.014539618520892</v>
       </c>
       <c r="M9">
-        <v>1.041347839483391</v>
+        <v>0.9773069910734737</v>
       </c>
       <c r="N9">
-        <v>1.028795695701537</v>
+        <v>1.019515844307417</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9845942874201052</v>
+        <v>0.9838710036856038</v>
       </c>
       <c r="D10">
-        <v>1.011662382741415</v>
+        <v>1.005772119931527</v>
       </c>
       <c r="E10">
-        <v>0.9947249188483256</v>
+        <v>0.9940099377178956</v>
       </c>
       <c r="F10">
-        <v>1.013824270638892</v>
+        <v>0.9504841380138805</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043691753016003</v>
+        <v>1.037690338270551</v>
       </c>
       <c r="J10">
-        <v>1.013432754697021</v>
+        <v>1.01273949159405</v>
       </c>
       <c r="K10">
-        <v>1.025824214219935</v>
+        <v>1.020037933214899</v>
       </c>
       <c r="L10">
-        <v>1.009190074199997</v>
+        <v>1.008488193435838</v>
       </c>
       <c r="M10">
-        <v>1.027948330409963</v>
+        <v>0.9658089216968868</v>
       </c>
       <c r="N10">
-        <v>1.014871945451053</v>
+        <v>1.014177697834956</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9766216579347274</v>
+        <v>0.980119154367644</v>
       </c>
       <c r="D11">
-        <v>1.005259034025926</v>
+        <v>1.00304428426086</v>
       </c>
       <c r="E11">
-        <v>0.9872198186506695</v>
+        <v>0.9906730460419246</v>
       </c>
       <c r="F11">
-        <v>1.006968060885447</v>
+        <v>0.94457156855308</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040338724061977</v>
+        <v>1.03629114801269</v>
       </c>
       <c r="J11">
-        <v>1.007000414894721</v>
+        <v>1.01034304322321</v>
       </c>
       <c r="K11">
-        <v>1.020082449508186</v>
+        <v>1.017909017293272</v>
       </c>
       <c r="L11">
-        <v>1.002386843196509</v>
+        <v>1.005773024928233</v>
       </c>
       <c r="M11">
-        <v>1.021759755381817</v>
+        <v>0.9606203750505815</v>
       </c>
       <c r="N11">
-        <v>1.008430470988434</v>
+        <v>1.011777846232554</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9735744291483867</v>
+        <v>0.9787049462000432</v>
       </c>
       <c r="D12">
-        <v>1.002813781852929</v>
+        <v>1.002016866325015</v>
       </c>
       <c r="E12">
-        <v>0.9843532025229816</v>
+        <v>0.9894164301756974</v>
       </c>
       <c r="F12">
-        <v>1.004350784047661</v>
+        <v>0.9423367117043633</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039054783843595</v>
+        <v>1.035761594141666</v>
       </c>
       <c r="J12">
-        <v>1.004540856243146</v>
+        <v>1.00943871741641</v>
       </c>
       <c r="K12">
-        <v>1.0178872720619</v>
+        <v>1.017105528099159</v>
       </c>
       <c r="L12">
-        <v>0.9997864379029275</v>
+        <v>1.004749242962926</v>
       </c>
       <c r="M12">
-        <v>1.019395101913799</v>
+        <v>0.9586588100768773</v>
       </c>
       <c r="N12">
-        <v>1.005967419481458</v>
+        <v>1.010872236179381</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9742321477097018</v>
+        <v>0.9790092549087634</v>
       </c>
       <c r="D13">
-        <v>1.003341464239635</v>
+        <v>1.002237908061411</v>
       </c>
       <c r="E13">
-        <v>0.9849718470487838</v>
+        <v>0.989686774144212</v>
       </c>
       <c r="F13">
-        <v>1.004915547863269</v>
+        <v>0.942817902138975</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039332015705431</v>
+        <v>1.03587563972991</v>
       </c>
       <c r="J13">
-        <v>1.005071775556293</v>
+        <v>1.009633355732155</v>
       </c>
       <c r="K13">
-        <v>1.01836110606818</v>
+        <v>1.01727846824211</v>
       </c>
       <c r="L13">
-        <v>1.000347716287437</v>
+        <v>1.004969554775168</v>
       </c>
       <c r="M13">
-        <v>1.019905456172918</v>
+        <v>0.9590811733446888</v>
       </c>
       <c r="N13">
-        <v>1.006499092760927</v>
+        <v>1.011067150903859</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9763715929197938</v>
+        <v>0.9800026843397356</v>
       </c>
       <c r="D14">
-        <v>1.005058322750142</v>
+        <v>1.002959652353315</v>
       </c>
       <c r="E14">
-        <v>0.9869845351246895</v>
+        <v>0.9905695306046106</v>
       </c>
       <c r="F14">
-        <v>1.006753210983225</v>
+        <v>0.9443876434959478</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040233406966773</v>
+        <v>1.036247578917722</v>
       </c>
       <c r="J14">
-        <v>1.006798596072302</v>
+        <v>1.01026858624063</v>
       </c>
       <c r="K14">
-        <v>1.019902317383556</v>
+        <v>1.017842864874015</v>
       </c>
       <c r="L14">
-        <v>1.002173447491895</v>
+        <v>1.005688715961471</v>
       </c>
       <c r="M14">
-        <v>1.02156568885475</v>
+        <v>0.9604589486544364</v>
       </c>
       <c r="N14">
-        <v>1.008228365560137</v>
+        <v>1.011703283512519</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9776780488784176</v>
+        <v>0.9806119947647776</v>
       </c>
       <c r="D15">
-        <v>1.00610702231884</v>
+        <v>1.0034024355112</v>
       </c>
       <c r="E15">
-        <v>0.9882138447158343</v>
+        <v>0.9911111176970555</v>
       </c>
       <c r="F15">
-        <v>1.00787582062321</v>
+        <v>0.9453495857926915</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040783537333885</v>
+        <v>1.036475422458304</v>
       </c>
       <c r="J15">
-        <v>1.007852950119906</v>
+        <v>1.010658064939973</v>
       </c>
       <c r="K15">
-        <v>1.020843388105674</v>
+        <v>1.018188898352864</v>
       </c>
       <c r="L15">
-        <v>1.00328832161292</v>
+        <v>1.006129762926225</v>
       </c>
       <c r="M15">
-        <v>1.02257961239557</v>
+        <v>0.9613032063436492</v>
       </c>
       <c r="N15">
-        <v>1.009284216911426</v>
+        <v>1.012093315316288</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9851119931305886</v>
+        <v>0.9841171915333009</v>
       </c>
       <c r="D16">
-        <v>1.012078463806663</v>
+        <v>1.005951220680375</v>
       </c>
       <c r="E16">
-        <v>0.9952125147105344</v>
+        <v>0.9942290573949273</v>
       </c>
       <c r="F16">
-        <v>1.014269901418682</v>
+        <v>0.9508713001480477</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043909150164229</v>
+        <v>1.03778185084478</v>
       </c>
       <c r="J16">
-        <v>1.013850289612029</v>
+        <v>1.012896600114989</v>
       </c>
       <c r="K16">
-        <v>1.026196961902712</v>
+        <v>1.020177484482183</v>
       </c>
       <c r="L16">
-        <v>1.009631816365277</v>
+        <v>1.008666308933824</v>
       </c>
       <c r="M16">
-        <v>1.028350265707207</v>
+        <v>0.9661486176711483</v>
       </c>
       <c r="N16">
-        <v>1.015290073313532</v>
+        <v>1.014335029468016</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9896341276177928</v>
+        <v>0.9862807299200761</v>
       </c>
       <c r="D17">
-        <v>1.015714300968654</v>
+        <v>1.007525739406435</v>
       </c>
       <c r="E17">
-        <v>0.9994729249625969</v>
+        <v>0.9961555753146967</v>
       </c>
       <c r="F17">
-        <v>1.018164618757213</v>
+        <v>0.9542696296715316</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04580624106682</v>
+        <v>1.03858443259401</v>
       </c>
       <c r="J17">
-        <v>1.017496562826877</v>
+        <v>1.014276523268911</v>
       </c>
       <c r="K17">
-        <v>1.029452299620471</v>
+        <v>1.021403089419433</v>
       </c>
       <c r="L17">
-        <v>1.013490202029103</v>
+        <v>1.010231348672139</v>
       </c>
       <c r="M17">
-        <v>1.031861479942089</v>
+        <v>0.9691299790166642</v>
       </c>
       <c r="N17">
-        <v>1.018941524654578</v>
+        <v>1.015716912271097</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9922242694128209</v>
+        <v>0.9875304462537499</v>
       </c>
       <c r="D18">
-        <v>1.017797898092976</v>
+        <v>1.008435669256657</v>
       </c>
       <c r="E18">
-        <v>1.001914192876136</v>
+        <v>0.9972690899460981</v>
       </c>
       <c r="F18">
-        <v>1.020397124573834</v>
+        <v>0.956229305991061</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046891264353311</v>
+        <v>1.039046647527434</v>
       </c>
       <c r="J18">
-        <v>1.019584287532001</v>
+        <v>1.015072958674053</v>
       </c>
       <c r="K18">
-        <v>1.031316329235338</v>
+        <v>1.022110363588946</v>
       </c>
       <c r="L18">
-        <v>1.015699966459297</v>
+        <v>1.011135129545356</v>
       </c>
       <c r="M18">
-        <v>1.033872826376574</v>
+        <v>0.9708489182154941</v>
       </c>
       <c r="N18">
-        <v>1.021032214168249</v>
+        <v>1.016514478705866</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9930996635421868</v>
+        <v>0.9879545312274757</v>
       </c>
       <c r="D19">
-        <v>1.018502271614017</v>
+        <v>1.008744522759395</v>
       </c>
       <c r="E19">
-        <v>1.002739441494514</v>
+        <v>0.9976470741376253</v>
       </c>
       <c r="F19">
-        <v>1.021151930824984</v>
+        <v>0.9568937787550182</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047257700367276</v>
+        <v>1.039203263120846</v>
       </c>
       <c r="J19">
-        <v>1.020289747756503</v>
+        <v>1.015343115516124</v>
       </c>
       <c r="K19">
-        <v>1.031946222496157</v>
+        <v>1.022350259336804</v>
       </c>
       <c r="L19">
-        <v>1.016446765031544</v>
+        <v>1.011441783876276</v>
       </c>
       <c r="M19">
-        <v>1.034552635493204</v>
+        <v>0.9714317125216964</v>
       </c>
       <c r="N19">
-        <v>1.021738676227187</v>
+        <v>1.01678501920164</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9891539324451826</v>
+        <v>0.9860498782607459</v>
       </c>
       <c r="D20">
-        <v>1.01532810285042</v>
+        <v>1.00735768976916</v>
       </c>
       <c r="E20">
-        <v>0.9990204126055655</v>
+        <v>0.9959499401702312</v>
       </c>
       <c r="F20">
-        <v>1.017750864876068</v>
+        <v>0.9539073717551441</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045604956135606</v>
+        <v>1.038498939065766</v>
       </c>
       <c r="J20">
-        <v>1.017109450544926</v>
+        <v>1.01412935095837</v>
       </c>
       <c r="K20">
-        <v>1.029106676421935</v>
+        <v>1.021272385214559</v>
       </c>
       <c r="L20">
-        <v>1.013080508774464</v>
+        <v>1.010064380810116</v>
       </c>
       <c r="M20">
-        <v>1.031488606381808</v>
+        <v>0.9688121989145814</v>
       </c>
       <c r="N20">
-        <v>1.018553862628784</v>
+        <v>1.015569530958992</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9757440448353687</v>
+        <v>0.9797107247842907</v>
       </c>
       <c r="D21">
-        <v>1.004554666117609</v>
+        <v>1.002747515750321</v>
       </c>
       <c r="E21">
-        <v>0.9863941133390761</v>
+        <v>0.9903100639432836</v>
       </c>
       <c r="F21">
-        <v>1.006214090114522</v>
+        <v>0.9439264891531669</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039969072022777</v>
+        <v>1.036138328268011</v>
       </c>
       <c r="J21">
-        <v>1.006292107516408</v>
+        <v>1.010081925917415</v>
       </c>
       <c r="K21">
-        <v>1.019450259699057</v>
+        <v>1.017677021894753</v>
       </c>
       <c r="L21">
-        <v>1.001637920999473</v>
+        <v>1.005477370338805</v>
       </c>
       <c r="M21">
-        <v>1.02107868331842</v>
+        <v>0.9600541992925593</v>
       </c>
       <c r="N21">
-        <v>1.007721157732399</v>
+        <v>1.011516358110234</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9668091272692151</v>
+        <v>0.9756050415824034</v>
       </c>
       <c r="D22">
-        <v>0.9973894541421453</v>
+        <v>0.9997663681846426</v>
       </c>
       <c r="E22">
-        <v>0.9779927213365889</v>
+        <v>0.9866641924577423</v>
       </c>
       <c r="F22">
-        <v>0.9985465578665673</v>
+        <v>0.9374254994903012</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036200042601758</v>
+        <v>1.034596912830796</v>
       </c>
       <c r="J22">
-        <v>0.9990785280827442</v>
+        <v>1.007454591596755</v>
       </c>
       <c r="K22">
-        <v>1.013012804453322</v>
+        <v>1.015342454788118</v>
       </c>
       <c r="L22">
-        <v>0.994013127087081</v>
+        <v>1.002504545706606</v>
       </c>
       <c r="M22">
-        <v>1.014146862821216</v>
+        <v>0.9543475668075286</v>
       </c>
       <c r="N22">
-        <v>1.000497334188531</v>
+        <v>1.008885292673479</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9715975576224611</v>
+        <v>0.9777934193457283</v>
       </c>
       <c r="D23">
-        <v>1.001228104313504</v>
+        <v>1.001354881740242</v>
       </c>
       <c r="E23">
-        <v>0.9824940741378478</v>
+        <v>0.988606818200811</v>
       </c>
       <c r="F23">
-        <v>1.00265381215212</v>
+        <v>0.9408943718576279</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038221187355661</v>
+        <v>1.035419669823527</v>
       </c>
       <c r="J23">
-        <v>1.002944958890342</v>
+        <v>1.008855548663746</v>
       </c>
       <c r="K23">
-        <v>1.016463023004227</v>
+        <v>1.016587355460106</v>
       </c>
       <c r="L23">
-        <v>0.9980994274412606</v>
+        <v>1.004089272903477</v>
       </c>
       <c r="M23">
-        <v>1.017861281940797</v>
+        <v>0.957392752200702</v>
       </c>
       <c r="N23">
-        <v>1.004369255771362</v>
+        <v>1.010288239260197</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9893710581186836</v>
+        <v>0.9861542279084267</v>
       </c>
       <c r="D24">
-        <v>1.015502723295238</v>
+        <v>1.007433650245128</v>
       </c>
       <c r="E24">
-        <v>0.9992250179775806</v>
+        <v>0.9960428892483733</v>
       </c>
       <c r="F24">
-        <v>1.017937943011652</v>
+        <v>0.9540711298425563</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045695974300952</v>
+        <v>1.038537588156727</v>
       </c>
       <c r="J24">
-        <v>1.017284490084617</v>
+        <v>1.014195877837321</v>
       </c>
       <c r="K24">
-        <v>1.029262955520821</v>
+        <v>1.021331468248038</v>
       </c>
       <c r="L24">
-        <v>1.013265756850885</v>
+        <v>1.010139854387492</v>
       </c>
       <c r="M24">
-        <v>1.03165720468244</v>
+        <v>0.9689558517824073</v>
       </c>
       <c r="N24">
-        <v>1.018729150744699</v>
+        <v>1.015636152313743</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.008152702450339</v>
+        <v>0.9953801914762347</v>
       </c>
       <c r="D25">
-        <v>1.030627723121138</v>
+        <v>1.014158326672626</v>
       </c>
       <c r="E25">
-        <v>1.016943500678744</v>
+        <v>1.004275431882197</v>
       </c>
       <c r="F25">
-        <v>1.034153395128613</v>
+        <v>0.9684873709357402</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053535076871107</v>
+        <v>1.041925147618693</v>
       </c>
       <c r="J25">
-        <v>1.03240877656189</v>
+        <v>1.020064037167798</v>
       </c>
       <c r="K25">
-        <v>1.042768485504423</v>
+        <v>1.026540757949623</v>
       </c>
       <c r="L25">
-        <v>1.029284363656298</v>
+        <v>1.016807737865848</v>
       </c>
       <c r="M25">
-        <v>1.046243688281985</v>
+        <v>0.9815954061973718</v>
       </c>
       <c r="N25">
-        <v>1.03387491544355</v>
+        <v>1.021512645103557</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_44/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.002399152090792</v>
+        <v>1.031084866867711</v>
       </c>
       <c r="D2">
-        <v>1.019285155882951</v>
+        <v>1.034459721883535</v>
       </c>
       <c r="E2">
-        <v>1.010558565518854</v>
+        <v>1.034723110283632</v>
       </c>
       <c r="F2">
-        <v>0.979381566787734</v>
+        <v>1.029680412142678</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044458791308915</v>
+        <v>1.036335185846188</v>
       </c>
       <c r="J2">
-        <v>1.02450834096132</v>
+        <v>1.036222541304671</v>
       </c>
       <c r="K2">
-        <v>1.030482200048785</v>
+        <v>1.037259133915187</v>
       </c>
       <c r="L2">
-        <v>1.021872736780188</v>
+        <v>1.037521766041777</v>
       </c>
       <c r="M2">
-        <v>0.991135824196188</v>
+        <v>1.032493620167627</v>
       </c>
       <c r="N2">
-        <v>1.025963260318235</v>
+        <v>1.037694096169729</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.007317776346858</v>
+        <v>1.0320807527608</v>
       </c>
       <c r="D3">
-        <v>1.022882870352536</v>
+        <v>1.035199337676789</v>
       </c>
       <c r="E3">
-        <v>1.014972351542239</v>
+        <v>1.035666960242666</v>
       </c>
       <c r="F3">
-        <v>0.9869839498885674</v>
+        <v>1.031308047458651</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046208479576357</v>
+        <v>1.036615465583436</v>
       </c>
       <c r="J3">
-        <v>1.027610919975502</v>
+        <v>1.036859917068646</v>
       </c>
       <c r="K3">
-        <v>1.033231098869818</v>
+        <v>1.037808127357966</v>
       </c>
       <c r="L3">
-        <v>1.025417176575794</v>
+        <v>1.038274504481072</v>
       </c>
       <c r="M3">
-        <v>0.9977861278439066</v>
+        <v>1.033927248383229</v>
       </c>
       <c r="N3">
-        <v>1.029070245350487</v>
+        <v>1.038332377080379</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.010423863972245</v>
+        <v>1.032724876323362</v>
       </c>
       <c r="D4">
-        <v>1.025156759045961</v>
+        <v>1.035677608407569</v>
       </c>
       <c r="E4">
-        <v>1.017764411922336</v>
+        <v>1.03627776384439</v>
       </c>
       <c r="F4">
-        <v>0.9917731003687213</v>
+        <v>1.032360902234008</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047301257475753</v>
+        <v>1.036795293688005</v>
       </c>
       <c r="J4">
-        <v>1.029564633203621</v>
+        <v>1.037271478711103</v>
       </c>
       <c r="K4">
-        <v>1.034960756689352</v>
+        <v>1.038162388674269</v>
       </c>
       <c r="L4">
-        <v>1.027653061562495</v>
+        <v>1.038761026308899</v>
       </c>
       <c r="M4">
-        <v>1.001971841528746</v>
+        <v>1.034854104806733</v>
       </c>
       <c r="N4">
-        <v>1.031026733075484</v>
+        <v>1.038744523187574</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.011712104649392</v>
+        <v>1.032995599411111</v>
       </c>
       <c r="D5">
-        <v>1.026100262167715</v>
+        <v>1.035878599183474</v>
       </c>
       <c r="E5">
-        <v>1.01892352572219</v>
+        <v>1.036534562758361</v>
       </c>
       <c r="F5">
-        <v>0.9937569830686512</v>
+        <v>1.032803448790433</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04775153849451</v>
+        <v>1.036870526949768</v>
       </c>
       <c r="J5">
-        <v>1.030373584774429</v>
+        <v>1.037444293157647</v>
       </c>
       <c r="K5">
-        <v>1.035676596680539</v>
+        <v>1.038311087213265</v>
       </c>
       <c r="L5">
-        <v>1.028579789297756</v>
+        <v>1.038965428854925</v>
       </c>
       <c r="M5">
-        <v>1.003704836179878</v>
+        <v>1.035243569995311</v>
       </c>
       <c r="N5">
-        <v>1.031836833450311</v>
+        <v>1.038917583050455</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.011927397951326</v>
+        <v>1.033041051136637</v>
       </c>
       <c r="D6">
-        <v>1.026257965113825</v>
+        <v>1.035912342065855</v>
       </c>
       <c r="E6">
-        <v>1.019117303772653</v>
+        <v>1.036577681439803</v>
       </c>
       <c r="F6">
-        <v>0.9940884034055326</v>
+        <v>1.032877750174697</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047826616223734</v>
+        <v>1.036883137461072</v>
       </c>
       <c r="J6">
-        <v>1.030508698843195</v>
+        <v>1.03747329739586</v>
       </c>
       <c r="K6">
-        <v>1.035796138434574</v>
+        <v>1.038336040702296</v>
       </c>
       <c r="L6">
-        <v>1.028734630041</v>
+        <v>1.038999741261018</v>
       </c>
       <c r="M6">
-        <v>1.003994289109628</v>
+        <v>1.035308952211278</v>
       </c>
       <c r="N6">
-        <v>1.031972139396552</v>
+        <v>1.038946628478012</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.010441145508604</v>
+        <v>1.032728493998575</v>
       </c>
       <c r="D7">
-        <v>1.025169414415019</v>
+        <v>1.03568029434787</v>
       </c>
       <c r="E7">
-        <v>1.017779956874671</v>
+        <v>1.036281195136417</v>
       </c>
       <c r="F7">
-        <v>0.9917997228133603</v>
+        <v>1.032366815843973</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047307309608218</v>
+        <v>1.036796300398277</v>
       </c>
       <c r="J7">
-        <v>1.029575490492142</v>
+        <v>1.037273788675217</v>
       </c>
       <c r="K7">
-        <v>1.034970365653521</v>
+        <v>1.038164376506281</v>
       </c>
       <c r="L7">
-        <v>1.027665495857114</v>
+        <v>1.03876375806075</v>
       </c>
       <c r="M7">
-        <v>1.001995100889385</v>
+        <v>1.034859309580701</v>
       </c>
       <c r="N7">
-        <v>1.031037605782601</v>
+        <v>1.038746836432103</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.00407776753849</v>
+        <v>1.031421489914182</v>
       </c>
       <c r="D8">
-        <v>1.020512531604971</v>
+        <v>1.034709742729889</v>
       </c>
       <c r="E8">
-        <v>1.012063867715221</v>
+        <v>1.03504207465137</v>
       </c>
       <c r="F8">
-        <v>0.9819788127723141</v>
+        <v>1.030230552152257</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045058453424173</v>
+        <v>1.036430224951466</v>
       </c>
       <c r="J8">
-        <v>1.025568340087711</v>
+        <v>1.036438124476844</v>
       </c>
       <c r="K8">
-        <v>1.031421635293175</v>
+        <v>1.037444870703894</v>
       </c>
       <c r="L8">
-        <v>1.023082868702738</v>
+        <v>1.037776271767409</v>
       </c>
       <c r="M8">
-        <v>0.9934085554918398</v>
+        <v>1.032978289868451</v>
       </c>
       <c r="N8">
-        <v>1.027024764764969</v>
+        <v>1.037909985494715</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.992240286833952</v>
+        <v>1.029116188701491</v>
       </c>
       <c r="D9">
-        <v>1.011867804342599</v>
+        <v>1.03299713005511</v>
       </c>
       <c r="E9">
-        <v>1.00147035178925</v>
+        <v>1.032859098882809</v>
       </c>
       <c r="F9">
-        <v>0.9635942843636548</v>
+        <v>1.0264633371033</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04077907130445</v>
+        <v>1.035773413349372</v>
       </c>
       <c r="J9">
-        <v>1.018070068036536</v>
+        <v>1.034958941396355</v>
       </c>
       <c r="K9">
-        <v>1.024771225067368</v>
+        <v>1.036169534798001</v>
       </c>
       <c r="L9">
-        <v>1.014539618520892</v>
+        <v>1.03603195684209</v>
       </c>
       <c r="M9">
-        <v>0.9773069910734737</v>
+        <v>1.029657341800363</v>
       </c>
       <c r="N9">
-        <v>1.019515844307417</v>
+        <v>1.036428701804587</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9838710036856038</v>
+        <v>1.027577788727478</v>
       </c>
       <c r="D10">
-        <v>1.005772119931527</v>
+        <v>1.031853785157397</v>
       </c>
       <c r="E10">
-        <v>0.9940099377178956</v>
+        <v>1.031404095381022</v>
       </c>
       <c r="F10">
-        <v>0.9504841380138805</v>
+        <v>1.023949545485956</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037690338270551</v>
+        <v>1.035327630835807</v>
       </c>
       <c r="J10">
-        <v>1.01273949159405</v>
+        <v>1.033968319311888</v>
       </c>
       <c r="K10">
-        <v>1.020037933214899</v>
+        <v>1.035314263372312</v>
       </c>
       <c r="L10">
-        <v>1.008488193435838</v>
+        <v>1.034866195349131</v>
       </c>
       <c r="M10">
-        <v>0.9658089216968868</v>
+        <v>1.02743875873737</v>
       </c>
       <c r="N10">
-        <v>1.014177697834956</v>
+        <v>1.035436672923135</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.980119154367644</v>
+        <v>1.026911267208977</v>
       </c>
       <c r="D11">
-        <v>1.00304428426086</v>
+        <v>1.031358321818441</v>
       </c>
       <c r="E11">
-        <v>0.9906730460419246</v>
+        <v>1.030774129266148</v>
       </c>
       <c r="F11">
-        <v>0.94457156855308</v>
+        <v>1.022860407167323</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03629114801269</v>
+        <v>1.035132722549318</v>
       </c>
       <c r="J11">
-        <v>1.01034304322321</v>
+        <v>1.033538292367316</v>
       </c>
       <c r="K11">
-        <v>1.017909017293272</v>
+        <v>1.034942718574033</v>
       </c>
       <c r="L11">
-        <v>1.005773024928233</v>
+        <v>1.03436071472696</v>
       </c>
       <c r="M11">
-        <v>0.9606203750505815</v>
+        <v>1.026476914783653</v>
       </c>
       <c r="N11">
-        <v>1.011777846232554</v>
+        <v>1.035006035290977</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9787049462000432</v>
+        <v>1.026663632418259</v>
       </c>
       <c r="D12">
-        <v>1.002016866325015</v>
+        <v>1.031174226171839</v>
       </c>
       <c r="E12">
-        <v>0.9894164301756974</v>
+        <v>1.030540140024408</v>
       </c>
       <c r="F12">
-        <v>0.9423367117043633</v>
+        <v>1.022455747263852</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035761594141666</v>
+        <v>1.03506004185223</v>
       </c>
       <c r="J12">
-        <v>1.00943871741641</v>
+        <v>1.033378397904916</v>
       </c>
       <c r="K12">
-        <v>1.017105528099159</v>
+        <v>1.03480452843364</v>
       </c>
       <c r="L12">
-        <v>1.004749242962926</v>
+        <v>1.034172850964928</v>
       </c>
       <c r="M12">
-        <v>0.9586588100768773</v>
+        <v>1.026119458638381</v>
       </c>
       <c r="N12">
-        <v>1.010872236179381</v>
+        <v>1.034845913760099</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9790092549087634</v>
+        <v>1.026716753613386</v>
       </c>
       <c r="D13">
-        <v>1.002237908061411</v>
+        <v>1.031213717965103</v>
       </c>
       <c r="E13">
-        <v>0.989686774144212</v>
+        <v>1.030590331151811</v>
       </c>
       <c r="F13">
-        <v>0.942817902138975</v>
+        <v>1.022542553083564</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03587563972991</v>
+        <v>1.035075644925045</v>
       </c>
       <c r="J13">
-        <v>1.009633355732155</v>
+        <v>1.033412703214364</v>
       </c>
       <c r="K13">
-        <v>1.01727846824211</v>
+        <v>1.034834178926729</v>
       </c>
       <c r="L13">
-        <v>1.004969554775168</v>
+        <v>1.034213153178966</v>
       </c>
       <c r="M13">
-        <v>0.9590811733446888</v>
+        <v>1.02619614265181</v>
       </c>
       <c r="N13">
-        <v>1.011067150903859</v>
+        <v>1.034880267787022</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9800026843397356</v>
+        <v>1.026890798851531</v>
       </c>
       <c r="D14">
-        <v>1.002959652353315</v>
+        <v>1.031343105610015</v>
       </c>
       <c r="E14">
-        <v>0.9905695306046106</v>
+        <v>1.030754787479319</v>
       </c>
       <c r="F14">
-        <v>0.9443876434959478</v>
+        <v>1.022826960049566</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036247578917722</v>
+        <v>1.035126720517353</v>
       </c>
       <c r="J14">
-        <v>1.01026858624063</v>
+        <v>1.033525078777816</v>
       </c>
       <c r="K14">
-        <v>1.017842864874015</v>
+        <v>1.034931299447166</v>
       </c>
       <c r="L14">
-        <v>1.005688715961471</v>
+        <v>1.03434518801209</v>
       </c>
       <c r="M14">
-        <v>0.9604589486544364</v>
+        <v>1.02644737114966</v>
       </c>
       <c r="N14">
-        <v>1.011703283512519</v>
+        <v>1.034992802936664</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9806119947647776</v>
+        <v>1.026998026006834</v>
       </c>
       <c r="D15">
-        <v>1.0034024355112</v>
+        <v>1.031422817847376</v>
       </c>
       <c r="E15">
-        <v>0.9911111176970555</v>
+        <v>1.030856115516115</v>
       </c>
       <c r="F15">
-        <v>0.9453495857926915</v>
+        <v>1.023002178362701</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036475422458304</v>
+        <v>1.035158152352288</v>
       </c>
       <c r="J15">
-        <v>1.010658064939973</v>
+        <v>1.033594295404502</v>
       </c>
       <c r="K15">
-        <v>1.018188898352864</v>
+        <v>1.034991114489648</v>
       </c>
       <c r="L15">
-        <v>1.006129762926225</v>
+        <v>1.034426524991487</v>
       </c>
       <c r="M15">
-        <v>0.9613032063436492</v>
+        <v>1.026602136671115</v>
       </c>
       <c r="N15">
-        <v>1.012093315316288</v>
+        <v>1.035062117858899</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9841171915333009</v>
+        <v>1.027622015360307</v>
       </c>
       <c r="D16">
-        <v>1.005951220680375</v>
+        <v>1.031886659239615</v>
       </c>
       <c r="E16">
-        <v>0.9942290573949273</v>
+        <v>1.031445905354159</v>
       </c>
       <c r="F16">
-        <v>0.9508713001480477</v>
+        <v>1.024021813651321</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03778185084478</v>
+        <v>1.035340526581052</v>
       </c>
       <c r="J16">
-        <v>1.012896600114989</v>
+        <v>1.033996835931522</v>
       </c>
       <c r="K16">
-        <v>1.020177484482183</v>
+        <v>1.03533889610561</v>
       </c>
       <c r="L16">
-        <v>1.008666308933824</v>
+        <v>1.03489972765016</v>
       </c>
       <c r="M16">
-        <v>0.9661486176711483</v>
+        <v>1.027502567654898</v>
       </c>
       <c r="N16">
-        <v>1.014335029468016</v>
+        <v>1.03546523003964</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9862807299200761</v>
+        <v>1.028013323624294</v>
       </c>
       <c r="D17">
-        <v>1.007525739406435</v>
+        <v>1.032177510756262</v>
       </c>
       <c r="E17">
-        <v>0.9961555753146967</v>
+        <v>1.031815880446787</v>
       </c>
       <c r="F17">
-        <v>0.9542696296715316</v>
+        <v>1.024661224432206</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03858443259401</v>
+        <v>1.035454421097223</v>
       </c>
       <c r="J17">
-        <v>1.014276523268911</v>
+        <v>1.034249048915382</v>
       </c>
       <c r="K17">
-        <v>1.021403089419433</v>
+        <v>1.035556726872336</v>
       </c>
       <c r="L17">
-        <v>1.010231348672139</v>
+        <v>1.035196367647184</v>
       </c>
       <c r="M17">
-        <v>0.9691299790166642</v>
+        <v>1.028067062776425</v>
       </c>
       <c r="N17">
-        <v>1.015716912271097</v>
+        <v>1.035717801194866</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9875304462537499</v>
+        <v>1.028241530134688</v>
       </c>
       <c r="D18">
-        <v>1.008435669256657</v>
+        <v>1.032347122161675</v>
       </c>
       <c r="E18">
-        <v>0.9972690899460981</v>
+        <v>1.032031686502042</v>
       </c>
       <c r="F18">
-        <v>0.956229305991061</v>
+        <v>1.025034119735508</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039046647527434</v>
+        <v>1.035520672329922</v>
       </c>
       <c r="J18">
-        <v>1.015072958674053</v>
+        <v>1.034396056237067</v>
       </c>
       <c r="K18">
-        <v>1.022110363588946</v>
+        <v>1.035683667490362</v>
       </c>
       <c r="L18">
-        <v>1.011135129545356</v>
+        <v>1.035369325430198</v>
       </c>
       <c r="M18">
-        <v>0.9708489182154941</v>
+        <v>1.028396209558266</v>
       </c>
       <c r="N18">
-        <v>1.016514478705866</v>
+        <v>1.03586501728381</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9879545312274757</v>
+        <v>1.02831933642446</v>
       </c>
       <c r="D19">
-        <v>1.008744522759395</v>
+        <v>1.032404948938975</v>
       </c>
       <c r="E19">
-        <v>0.9976470741376253</v>
+        <v>1.032105271804983</v>
       </c>
       <c r="F19">
-        <v>0.9568937787550182</v>
+        <v>1.025161257085796</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039203263120846</v>
+        <v>1.035543231512899</v>
       </c>
       <c r="J19">
-        <v>1.015343115516124</v>
+        <v>1.034446164280076</v>
       </c>
       <c r="K19">
-        <v>1.022350259336804</v>
+        <v>1.03572693123755</v>
       </c>
       <c r="L19">
-        <v>1.011441783876276</v>
+        <v>1.035428288173747</v>
       </c>
       <c r="M19">
-        <v>0.9714317125216964</v>
+        <v>1.028508421029522</v>
       </c>
       <c r="N19">
-        <v>1.01678501920164</v>
+        <v>1.035915196485987</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9860498782607459</v>
+        <v>1.027971343785014</v>
       </c>
       <c r="D20">
-        <v>1.00735768976916</v>
+        <v>1.032146309007731</v>
       </c>
       <c r="E20">
-        <v>0.9959499401702312</v>
+        <v>1.031776185021876</v>
       </c>
       <c r="F20">
-        <v>0.9539073717551441</v>
+        <v>1.02459262819447</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038498939065766</v>
+        <v>1.03544222007094</v>
       </c>
       <c r="J20">
-        <v>1.01412935095837</v>
+        <v>1.034221999637915</v>
       </c>
       <c r="K20">
-        <v>1.021272385214559</v>
+        <v>1.035533367734624</v>
       </c>
       <c r="L20">
-        <v>1.010064380810116</v>
+        <v>1.035164547950888</v>
       </c>
       <c r="M20">
-        <v>0.9688121989145814</v>
+        <v>1.028006509597962</v>
       </c>
       <c r="N20">
-        <v>1.015569530958992</v>
+        <v>1.035690713504322</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9797107247842907</v>
+        <v>1.026839548506671</v>
       </c>
       <c r="D21">
-        <v>1.002747515750321</v>
+        <v>1.03130500579083</v>
       </c>
       <c r="E21">
-        <v>0.9903100639432836</v>
+        <v>1.03070635896927</v>
       </c>
       <c r="F21">
-        <v>0.9439264891531669</v>
+        <v>1.022743212260087</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036138328268011</v>
+        <v>1.035111687846144</v>
       </c>
       <c r="J21">
-        <v>1.010081925917415</v>
+        <v>1.033491991490596</v>
       </c>
       <c r="K21">
-        <v>1.017677021894753</v>
+        <v>1.034902704899448</v>
       </c>
       <c r="L21">
-        <v>1.005477370338805</v>
+        <v>1.034306309970822</v>
       </c>
       <c r="M21">
-        <v>0.9600541992925593</v>
+        <v>1.026373395765654</v>
       </c>
       <c r="N21">
-        <v>1.011516358110234</v>
+        <v>1.034959668661701</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9756050415824034</v>
+        <v>1.026127601759306</v>
       </c>
       <c r="D22">
-        <v>0.9997663681846426</v>
+        <v>1.030775706439928</v>
       </c>
       <c r="E22">
-        <v>0.9866641924577423</v>
+        <v>1.03003376404136</v>
       </c>
       <c r="F22">
-        <v>0.9374254994903012</v>
+        <v>1.021579797142</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034596912830796</v>
+        <v>1.034902231093274</v>
       </c>
       <c r="J22">
-        <v>1.007454591596755</v>
+        <v>1.033032061094005</v>
       </c>
       <c r="K22">
-        <v>1.015342454788118</v>
+        <v>1.034505129670079</v>
       </c>
       <c r="L22">
-        <v>1.002504545706606</v>
+        <v>1.033766089407381</v>
       </c>
       <c r="M22">
-        <v>0.9543475668075286</v>
+        <v>1.025345521592694</v>
       </c>
       <c r="N22">
-        <v>1.008885292673479</v>
+        <v>1.034499085111192</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9777934193457283</v>
+        <v>1.026505051069101</v>
       </c>
       <c r="D23">
-        <v>1.001354881740242</v>
+        <v>1.031056330238916</v>
       </c>
       <c r="E23">
-        <v>0.988606818200811</v>
+        <v>1.030390315134848</v>
       </c>
       <c r="F23">
-        <v>0.9408943718576279</v>
+        <v>1.022196606312865</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035419669823527</v>
+        <v>1.035013423483279</v>
       </c>
       <c r="J23">
-        <v>1.008855548663746</v>
+        <v>1.033275968803982</v>
       </c>
       <c r="K23">
-        <v>1.016587355460106</v>
+        <v>1.034715991779107</v>
       </c>
       <c r="L23">
-        <v>1.004089272903477</v>
+        <v>1.034052528875126</v>
       </c>
       <c r="M23">
-        <v>0.957392752200702</v>
+        <v>1.025890520897437</v>
       </c>
       <c r="N23">
-        <v>1.010288239260197</v>
+        <v>1.034743339198094</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9861542279084267</v>
+        <v>1.027990312781238</v>
       </c>
       <c r="D24">
-        <v>1.007433650245128</v>
+        <v>1.032160407850079</v>
       </c>
       <c r="E24">
-        <v>0.9960428892483733</v>
+        <v>1.031794121657365</v>
       </c>
       <c r="F24">
-        <v>0.9540711298425563</v>
+        <v>1.024623624071962</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038537588156727</v>
+        <v>1.035447733750207</v>
       </c>
       <c r="J24">
-        <v>1.014195877837321</v>
+        <v>1.034234222363877</v>
       </c>
       <c r="K24">
-        <v>1.021331468248038</v>
+        <v>1.035543923082845</v>
       </c>
       <c r="L24">
-        <v>1.010139854387492</v>
+        <v>1.035178926109649</v>
       </c>
       <c r="M24">
-        <v>0.9689558517824073</v>
+        <v>1.028033871322469</v>
       </c>
       <c r="N24">
-        <v>1.015636152313743</v>
+        <v>1.035702953587957</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9953801914762347</v>
+        <v>1.029712430149042</v>
       </c>
       <c r="D25">
-        <v>1.014158326672626</v>
+        <v>1.033440163624249</v>
       </c>
       <c r="E25">
-        <v>1.004275431882197</v>
+        <v>1.033423392835367</v>
       </c>
       <c r="F25">
-        <v>0.9684873709357402</v>
+        <v>1.027437630959822</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041925147618693</v>
+        <v>1.035944607643391</v>
       </c>
       <c r="J25">
-        <v>1.020064037167798</v>
+        <v>1.035342135994919</v>
       </c>
       <c r="K25">
-        <v>1.026540757949623</v>
+        <v>1.036500127717948</v>
       </c>
       <c r="L25">
-        <v>1.016807737865848</v>
+        <v>1.036483409899328</v>
       </c>
       <c r="M25">
-        <v>0.9815954061973718</v>
+        <v>1.030516674805242</v>
       </c>
       <c r="N25">
-        <v>1.021512645103557</v>
+        <v>1.036812440583434</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_44/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.031084866867711</v>
+        <v>1.002399152090793</v>
       </c>
       <c r="D2">
-        <v>1.034459721883535</v>
+        <v>1.019285155882953</v>
       </c>
       <c r="E2">
-        <v>1.034723110283632</v>
+        <v>1.010558565518855</v>
       </c>
       <c r="F2">
-        <v>1.029680412142678</v>
+        <v>0.9793815667877351</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036335185846188</v>
+        <v>1.044458791308916</v>
       </c>
       <c r="J2">
-        <v>1.036222541304671</v>
+        <v>1.024508340961321</v>
       </c>
       <c r="K2">
-        <v>1.037259133915187</v>
+        <v>1.030482200048785</v>
       </c>
       <c r="L2">
-        <v>1.037521766041777</v>
+        <v>1.021872736780189</v>
       </c>
       <c r="M2">
-        <v>1.032493620167627</v>
+        <v>0.9911358241961888</v>
       </c>
       <c r="N2">
-        <v>1.037694096169729</v>
+        <v>1.025963260318236</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.0320807527608</v>
+        <v>1.007317776346858</v>
       </c>
       <c r="D3">
-        <v>1.035199337676789</v>
+        <v>1.022882870352537</v>
       </c>
       <c r="E3">
-        <v>1.035666960242666</v>
+        <v>1.01497235154224</v>
       </c>
       <c r="F3">
-        <v>1.031308047458651</v>
+        <v>0.9869839498885676</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036615465583436</v>
+        <v>1.046208479576357</v>
       </c>
       <c r="J3">
-        <v>1.036859917068646</v>
+        <v>1.027610919975502</v>
       </c>
       <c r="K3">
-        <v>1.037808127357966</v>
+        <v>1.033231098869819</v>
       </c>
       <c r="L3">
-        <v>1.038274504481072</v>
+        <v>1.025417176575795</v>
       </c>
       <c r="M3">
-        <v>1.033927248383229</v>
+        <v>0.9977861278439066</v>
       </c>
       <c r="N3">
-        <v>1.038332377080379</v>
+        <v>1.029070245350487</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032724876323362</v>
+        <v>1.010423863972243</v>
       </c>
       <c r="D4">
-        <v>1.035677608407569</v>
+        <v>1.025156759045959</v>
       </c>
       <c r="E4">
-        <v>1.03627776384439</v>
+        <v>1.017764411922335</v>
       </c>
       <c r="F4">
-        <v>1.032360902234008</v>
+        <v>0.9917731003687191</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036795293688005</v>
+        <v>1.047301257475752</v>
       </c>
       <c r="J4">
-        <v>1.037271478711103</v>
+        <v>1.029564633203619</v>
       </c>
       <c r="K4">
-        <v>1.038162388674269</v>
+        <v>1.03496075668935</v>
       </c>
       <c r="L4">
-        <v>1.038761026308899</v>
+        <v>1.027653061562494</v>
       </c>
       <c r="M4">
-        <v>1.034854104806733</v>
+        <v>1.001971841528744</v>
       </c>
       <c r="N4">
-        <v>1.038744523187574</v>
+        <v>1.031026733075482</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032995599411111</v>
+        <v>1.011712104649391</v>
       </c>
       <c r="D5">
-        <v>1.035878599183474</v>
+        <v>1.026100262167715</v>
       </c>
       <c r="E5">
-        <v>1.036534562758361</v>
+        <v>1.01892352572219</v>
       </c>
       <c r="F5">
-        <v>1.032803448790433</v>
+        <v>0.9937569830686513</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036870526949768</v>
+        <v>1.04775153849451</v>
       </c>
       <c r="J5">
-        <v>1.037444293157647</v>
+        <v>1.030373584774429</v>
       </c>
       <c r="K5">
-        <v>1.038311087213265</v>
+        <v>1.035676596680539</v>
       </c>
       <c r="L5">
-        <v>1.038965428854925</v>
+        <v>1.028579789297756</v>
       </c>
       <c r="M5">
-        <v>1.035243569995311</v>
+        <v>1.003704836179878</v>
       </c>
       <c r="N5">
-        <v>1.038917583050455</v>
+        <v>1.03183683345031</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033041051136637</v>
+        <v>1.011927397951326</v>
       </c>
       <c r="D6">
-        <v>1.035912342065855</v>
+        <v>1.026257965113826</v>
       </c>
       <c r="E6">
-        <v>1.036577681439803</v>
+        <v>1.019117303772652</v>
       </c>
       <c r="F6">
-        <v>1.032877750174697</v>
+        <v>0.9940884034055321</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036883137461072</v>
+        <v>1.047826616223734</v>
       </c>
       <c r="J6">
-        <v>1.03747329739586</v>
+        <v>1.030508698843194</v>
       </c>
       <c r="K6">
-        <v>1.038336040702296</v>
+        <v>1.035796138434574</v>
       </c>
       <c r="L6">
-        <v>1.038999741261018</v>
+        <v>1.028734630041</v>
       </c>
       <c r="M6">
-        <v>1.035308952211278</v>
+        <v>1.003994289109627</v>
       </c>
       <c r="N6">
-        <v>1.038946628478012</v>
+        <v>1.031972139396551</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032728493998575</v>
+        <v>1.010441145508604</v>
       </c>
       <c r="D7">
-        <v>1.03568029434787</v>
+        <v>1.025169414415019</v>
       </c>
       <c r="E7">
-        <v>1.036281195136417</v>
+        <v>1.017779956874671</v>
       </c>
       <c r="F7">
-        <v>1.032366815843973</v>
+        <v>0.9917997228133593</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036796300398277</v>
+        <v>1.047307309608218</v>
       </c>
       <c r="J7">
-        <v>1.037273788675217</v>
+        <v>1.029575490492142</v>
       </c>
       <c r="K7">
-        <v>1.038164376506281</v>
+        <v>1.034970365653521</v>
       </c>
       <c r="L7">
-        <v>1.03876375806075</v>
+        <v>1.027665495857113</v>
       </c>
       <c r="M7">
-        <v>1.034859309580701</v>
+        <v>1.001995100889384</v>
       </c>
       <c r="N7">
-        <v>1.038746836432103</v>
+        <v>1.0310376057826</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031421489914182</v>
+        <v>1.004077767538489</v>
       </c>
       <c r="D8">
-        <v>1.034709742729889</v>
+        <v>1.020512531604969</v>
       </c>
       <c r="E8">
-        <v>1.03504207465137</v>
+        <v>1.01206386771522</v>
       </c>
       <c r="F8">
-        <v>1.030230552152257</v>
+        <v>0.9819788127723127</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036430224951466</v>
+        <v>1.045058453424172</v>
       </c>
       <c r="J8">
-        <v>1.036438124476844</v>
+        <v>1.02556834008771</v>
       </c>
       <c r="K8">
-        <v>1.037444870703894</v>
+        <v>1.031421635293174</v>
       </c>
       <c r="L8">
-        <v>1.037776271767409</v>
+        <v>1.023082868702737</v>
       </c>
       <c r="M8">
-        <v>1.032978289868451</v>
+        <v>0.9934085554918383</v>
       </c>
       <c r="N8">
-        <v>1.037909985494715</v>
+        <v>1.027024764764968</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029116188701491</v>
+        <v>0.9922402868339525</v>
       </c>
       <c r="D9">
-        <v>1.03299713005511</v>
+        <v>1.011867804342599</v>
       </c>
       <c r="E9">
-        <v>1.032859098882809</v>
+        <v>1.00147035178925</v>
       </c>
       <c r="F9">
-        <v>1.0264633371033</v>
+        <v>0.963594284363656</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035773413349372</v>
+        <v>1.040779071304451</v>
       </c>
       <c r="J9">
-        <v>1.034958941396355</v>
+        <v>1.018070068036536</v>
       </c>
       <c r="K9">
-        <v>1.036169534798001</v>
+        <v>1.024771225067369</v>
       </c>
       <c r="L9">
-        <v>1.03603195684209</v>
+        <v>1.014539618520893</v>
       </c>
       <c r="M9">
-        <v>1.029657341800363</v>
+        <v>0.9773069910734749</v>
       </c>
       <c r="N9">
-        <v>1.036428701804587</v>
+        <v>1.019515844307417</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.027577788727478</v>
+        <v>0.9838710036856034</v>
       </c>
       <c r="D10">
-        <v>1.031853785157397</v>
+        <v>1.005772119931526</v>
       </c>
       <c r="E10">
-        <v>1.031404095381022</v>
+        <v>0.9940099377178953</v>
       </c>
       <c r="F10">
-        <v>1.023949545485956</v>
+        <v>0.9504841380138802</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035327630835807</v>
+        <v>1.037690338270551</v>
       </c>
       <c r="J10">
-        <v>1.033968319311888</v>
+        <v>1.012739491594049</v>
       </c>
       <c r="K10">
-        <v>1.035314263372312</v>
+        <v>1.020037933214899</v>
       </c>
       <c r="L10">
-        <v>1.034866195349131</v>
+        <v>1.008488193435838</v>
       </c>
       <c r="M10">
-        <v>1.02743875873737</v>
+        <v>0.9658089216968866</v>
       </c>
       <c r="N10">
-        <v>1.035436672923135</v>
+        <v>1.014177697834956</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.026911267208977</v>
+        <v>0.9801191543676443</v>
       </c>
       <c r="D11">
-        <v>1.031358321818441</v>
+        <v>1.00304428426086</v>
       </c>
       <c r="E11">
-        <v>1.030774129266148</v>
+        <v>0.9906730460419254</v>
       </c>
       <c r="F11">
-        <v>1.022860407167323</v>
+        <v>0.9445715685530796</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035132722549318</v>
+        <v>1.036291148012691</v>
       </c>
       <c r="J11">
-        <v>1.033538292367316</v>
+        <v>1.010343043223211</v>
       </c>
       <c r="K11">
-        <v>1.034942718574033</v>
+        <v>1.017909017293272</v>
       </c>
       <c r="L11">
-        <v>1.03436071472696</v>
+        <v>1.005773024928233</v>
       </c>
       <c r="M11">
-        <v>1.026476914783653</v>
+        <v>0.9606203750505813</v>
       </c>
       <c r="N11">
-        <v>1.035006035290977</v>
+        <v>1.011777846232554</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.026663632418259</v>
+        <v>0.9787049462000428</v>
       </c>
       <c r="D12">
-        <v>1.031174226171839</v>
+        <v>1.002016866325015</v>
       </c>
       <c r="E12">
-        <v>1.030540140024408</v>
+        <v>0.9894164301756969</v>
       </c>
       <c r="F12">
-        <v>1.022455747263852</v>
+        <v>0.9423367117043632</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03506004185223</v>
+        <v>1.035761594141666</v>
       </c>
       <c r="J12">
-        <v>1.033378397904916</v>
+        <v>1.00943871741641</v>
       </c>
       <c r="K12">
-        <v>1.03480452843364</v>
+        <v>1.017105528099159</v>
       </c>
       <c r="L12">
-        <v>1.034172850964928</v>
+        <v>1.004749242962926</v>
       </c>
       <c r="M12">
-        <v>1.026119458638381</v>
+        <v>0.9586588100768771</v>
       </c>
       <c r="N12">
-        <v>1.034845913760099</v>
+        <v>1.01087223617938</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.026716753613386</v>
+        <v>0.9790092549087628</v>
       </c>
       <c r="D13">
-        <v>1.031213717965103</v>
+        <v>1.00223790806141</v>
       </c>
       <c r="E13">
-        <v>1.030590331151811</v>
+        <v>0.9896867741442114</v>
       </c>
       <c r="F13">
-        <v>1.022542553083564</v>
+        <v>0.9428179021389747</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035075644925045</v>
+        <v>1.03587563972991</v>
       </c>
       <c r="J13">
-        <v>1.033412703214364</v>
+        <v>1.009633355732154</v>
       </c>
       <c r="K13">
-        <v>1.034834178926729</v>
+        <v>1.017278468242109</v>
       </c>
       <c r="L13">
-        <v>1.034213153178966</v>
+        <v>1.004969554775167</v>
       </c>
       <c r="M13">
-        <v>1.02619614265181</v>
+        <v>0.9590811733446883</v>
       </c>
       <c r="N13">
-        <v>1.034880267787022</v>
+        <v>1.011067150903859</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.026890798851531</v>
+        <v>0.980002684339736</v>
       </c>
       <c r="D14">
-        <v>1.031343105610015</v>
+        <v>1.002959652353316</v>
       </c>
       <c r="E14">
-        <v>1.030754787479319</v>
+        <v>0.9905695306046115</v>
       </c>
       <c r="F14">
-        <v>1.022826960049566</v>
+        <v>0.9443876434959482</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035126720517353</v>
+        <v>1.036247578917722</v>
       </c>
       <c r="J14">
-        <v>1.033525078777816</v>
+        <v>1.010268586240631</v>
       </c>
       <c r="K14">
-        <v>1.034931299447166</v>
+        <v>1.017842864874015</v>
       </c>
       <c r="L14">
-        <v>1.03434518801209</v>
+        <v>1.005688715961472</v>
       </c>
       <c r="M14">
-        <v>1.02644737114966</v>
+        <v>0.9604589486544368</v>
       </c>
       <c r="N14">
-        <v>1.034992802936664</v>
+        <v>1.011703283512519</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026998026006834</v>
+        <v>0.980611994764777</v>
       </c>
       <c r="D15">
-        <v>1.031422817847376</v>
+        <v>1.0034024355112</v>
       </c>
       <c r="E15">
-        <v>1.030856115516115</v>
+        <v>0.9911111176970546</v>
       </c>
       <c r="F15">
-        <v>1.023002178362701</v>
+        <v>0.9453495857926905</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035158152352288</v>
+        <v>1.036475422458303</v>
       </c>
       <c r="J15">
-        <v>1.033594295404502</v>
+        <v>1.010658064939972</v>
       </c>
       <c r="K15">
-        <v>1.034991114489648</v>
+        <v>1.018188898352863</v>
       </c>
       <c r="L15">
-        <v>1.034426524991487</v>
+        <v>1.006129762926224</v>
       </c>
       <c r="M15">
-        <v>1.026602136671115</v>
+        <v>0.9613032063436483</v>
       </c>
       <c r="N15">
-        <v>1.035062117858899</v>
+        <v>1.012093315316288</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.027622015360307</v>
+        <v>0.9841171915332992</v>
       </c>
       <c r="D16">
-        <v>1.031886659239615</v>
+        <v>1.005951220680374</v>
       </c>
       <c r="E16">
-        <v>1.031445905354159</v>
+        <v>0.9942290573949256</v>
       </c>
       <c r="F16">
-        <v>1.024021813651321</v>
+        <v>0.9508713001480453</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035340526581052</v>
+        <v>1.037781850844779</v>
       </c>
       <c r="J16">
-        <v>1.033996835931522</v>
+        <v>1.012896600114987</v>
       </c>
       <c r="K16">
-        <v>1.03533889610561</v>
+        <v>1.020177484482182</v>
       </c>
       <c r="L16">
-        <v>1.03489972765016</v>
+        <v>1.008666308933823</v>
       </c>
       <c r="M16">
-        <v>1.027502567654898</v>
+        <v>0.9661486176711462</v>
       </c>
       <c r="N16">
-        <v>1.03546523003964</v>
+        <v>1.014335029468015</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.028013323624294</v>
+        <v>0.9862807299200755</v>
       </c>
       <c r="D17">
-        <v>1.032177510756262</v>
+        <v>1.007525739406434</v>
       </c>
       <c r="E17">
-        <v>1.031815880446787</v>
+        <v>0.9961555753146961</v>
       </c>
       <c r="F17">
-        <v>1.024661224432206</v>
+        <v>0.9542696296715313</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035454421097223</v>
+        <v>1.03858443259401</v>
       </c>
       <c r="J17">
-        <v>1.034249048915382</v>
+        <v>1.014276523268911</v>
       </c>
       <c r="K17">
-        <v>1.035556726872336</v>
+        <v>1.021403089419433</v>
       </c>
       <c r="L17">
-        <v>1.035196367647184</v>
+        <v>1.010231348672138</v>
       </c>
       <c r="M17">
-        <v>1.028067062776425</v>
+        <v>0.9691299790166638</v>
       </c>
       <c r="N17">
-        <v>1.035717801194866</v>
+        <v>1.015716912271096</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.028241530134688</v>
+        <v>0.9875304462537505</v>
       </c>
       <c r="D18">
-        <v>1.032347122161675</v>
+        <v>1.008435669256658</v>
       </c>
       <c r="E18">
-        <v>1.032031686502042</v>
+        <v>0.9972690899460985</v>
       </c>
       <c r="F18">
-        <v>1.025034119735508</v>
+        <v>0.9562293059910624</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035520672329922</v>
+        <v>1.039046647527435</v>
       </c>
       <c r="J18">
-        <v>1.034396056237067</v>
+        <v>1.015072958674054</v>
       </c>
       <c r="K18">
-        <v>1.035683667490362</v>
+        <v>1.022110363588947</v>
       </c>
       <c r="L18">
-        <v>1.035369325430198</v>
+        <v>1.011135129545356</v>
       </c>
       <c r="M18">
-        <v>1.028396209558266</v>
+        <v>0.9708489182154952</v>
       </c>
       <c r="N18">
-        <v>1.03586501728381</v>
+        <v>1.016514478705867</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.02831933642446</v>
+        <v>0.9879545312274739</v>
       </c>
       <c r="D19">
-        <v>1.032404948938975</v>
+        <v>1.008744522759394</v>
       </c>
       <c r="E19">
-        <v>1.032105271804983</v>
+        <v>0.997647074137624</v>
       </c>
       <c r="F19">
-        <v>1.025161257085796</v>
+        <v>0.9568937787550171</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035543231512899</v>
+        <v>1.039203263120845</v>
       </c>
       <c r="J19">
-        <v>1.034446164280076</v>
+        <v>1.015343115516123</v>
       </c>
       <c r="K19">
-        <v>1.03572693123755</v>
+        <v>1.022350259336802</v>
       </c>
       <c r="L19">
-        <v>1.035428288173747</v>
+        <v>1.011441783876275</v>
       </c>
       <c r="M19">
-        <v>1.028508421029522</v>
+        <v>0.9714317125216952</v>
       </c>
       <c r="N19">
-        <v>1.035915196485987</v>
+        <v>1.016785019201638</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.027971343785014</v>
+        <v>0.9860498782607449</v>
       </c>
       <c r="D20">
-        <v>1.032146309007731</v>
+        <v>1.007357689769159</v>
       </c>
       <c r="E20">
-        <v>1.031776185021876</v>
+        <v>0.9959499401702301</v>
       </c>
       <c r="F20">
-        <v>1.02459262819447</v>
+        <v>0.9539073717551431</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03544222007094</v>
+        <v>1.038498939065766</v>
       </c>
       <c r="J20">
-        <v>1.034221999637915</v>
+        <v>1.014129350958369</v>
       </c>
       <c r="K20">
-        <v>1.035533367734624</v>
+        <v>1.021272385214558</v>
       </c>
       <c r="L20">
-        <v>1.035164547950888</v>
+        <v>1.010064380810115</v>
       </c>
       <c r="M20">
-        <v>1.028006509597962</v>
+        <v>0.9688121989145806</v>
       </c>
       <c r="N20">
-        <v>1.035690713504322</v>
+        <v>1.015569530958992</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026839548506671</v>
+        <v>0.9797107247842909</v>
       </c>
       <c r="D21">
-        <v>1.03130500579083</v>
+        <v>1.002747515750321</v>
       </c>
       <c r="E21">
-        <v>1.03070635896927</v>
+        <v>0.9903100639432836</v>
       </c>
       <c r="F21">
-        <v>1.022743212260087</v>
+        <v>0.9439264891531672</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035111687846144</v>
+        <v>1.036138328268011</v>
       </c>
       <c r="J21">
-        <v>1.033491991490596</v>
+        <v>1.010081925917415</v>
       </c>
       <c r="K21">
-        <v>1.034902704899448</v>
+        <v>1.017677021894753</v>
       </c>
       <c r="L21">
-        <v>1.034306309970822</v>
+        <v>1.005477370338805</v>
       </c>
       <c r="M21">
-        <v>1.026373395765654</v>
+        <v>0.9600541992925595</v>
       </c>
       <c r="N21">
-        <v>1.034959668661701</v>
+        <v>1.011516358110234</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.026127601759306</v>
+        <v>0.9756050415824045</v>
       </c>
       <c r="D22">
-        <v>1.030775706439928</v>
+        <v>0.9997663681846435</v>
       </c>
       <c r="E22">
-        <v>1.03003376404136</v>
+        <v>0.9866641924577435</v>
       </c>
       <c r="F22">
-        <v>1.021579797142</v>
+        <v>0.9374254994903023</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034902231093274</v>
+        <v>1.034596912830797</v>
       </c>
       <c r="J22">
-        <v>1.033032061094005</v>
+        <v>1.007454591596755</v>
       </c>
       <c r="K22">
-        <v>1.034505129670079</v>
+        <v>1.015342454788119</v>
       </c>
       <c r="L22">
-        <v>1.033766089407381</v>
+        <v>1.002504545706608</v>
       </c>
       <c r="M22">
-        <v>1.025345521592694</v>
+        <v>0.9543475668075294</v>
       </c>
       <c r="N22">
-        <v>1.034499085111192</v>
+        <v>1.008885292673479</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.026505051069101</v>
+        <v>0.9777934193457288</v>
       </c>
       <c r="D23">
-        <v>1.031056330238916</v>
+        <v>1.001354881740242</v>
       </c>
       <c r="E23">
-        <v>1.030390315134848</v>
+        <v>0.9886068182008113</v>
       </c>
       <c r="F23">
-        <v>1.022196606312865</v>
+        <v>0.9408943718576283</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035013423483279</v>
+        <v>1.035419669823527</v>
       </c>
       <c r="J23">
-        <v>1.033275968803982</v>
+        <v>1.008855548663746</v>
       </c>
       <c r="K23">
-        <v>1.034715991779107</v>
+        <v>1.016587355460107</v>
       </c>
       <c r="L23">
-        <v>1.034052528875126</v>
+        <v>1.004089272903477</v>
       </c>
       <c r="M23">
-        <v>1.025890520897437</v>
+        <v>0.9573927522007023</v>
       </c>
       <c r="N23">
-        <v>1.034743339198094</v>
+        <v>1.010288239260197</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.027990312781238</v>
+        <v>0.9861542279084263</v>
       </c>
       <c r="D24">
-        <v>1.032160407850079</v>
+        <v>1.007433650245128</v>
       </c>
       <c r="E24">
-        <v>1.031794121657365</v>
+        <v>0.9960428892483728</v>
       </c>
       <c r="F24">
-        <v>1.024623624071962</v>
+        <v>0.9540711298425565</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035447733750207</v>
+        <v>1.038537588156726</v>
       </c>
       <c r="J24">
-        <v>1.034234222363877</v>
+        <v>1.01419587783732</v>
       </c>
       <c r="K24">
-        <v>1.035543923082845</v>
+        <v>1.021331468248038</v>
       </c>
       <c r="L24">
-        <v>1.035178926109649</v>
+        <v>1.010139854387492</v>
       </c>
       <c r="M24">
-        <v>1.028033871322469</v>
+        <v>0.9689558517824075</v>
       </c>
       <c r="N24">
-        <v>1.035702953587957</v>
+        <v>1.015636152313743</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.029712430149042</v>
+        <v>0.9953801914762342</v>
       </c>
       <c r="D25">
-        <v>1.033440163624249</v>
+        <v>1.014158326672626</v>
       </c>
       <c r="E25">
-        <v>1.033423392835367</v>
+        <v>1.004275431882196</v>
       </c>
       <c r="F25">
-        <v>1.027437630959822</v>
+        <v>0.968487370935739</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035944607643391</v>
+        <v>1.041925147618693</v>
       </c>
       <c r="J25">
-        <v>1.035342135994919</v>
+        <v>1.020064037167798</v>
       </c>
       <c r="K25">
-        <v>1.036500127717948</v>
+        <v>1.026540757949622</v>
       </c>
       <c r="L25">
-        <v>1.036483409899328</v>
+        <v>1.016807737865848</v>
       </c>
       <c r="M25">
-        <v>1.030516674805242</v>
+        <v>0.9815954061973707</v>
       </c>
       <c r="N25">
-        <v>1.036812440583434</v>
+        <v>1.021512645103556</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_44/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.002399152090793</v>
+        <v>1.015748137197464</v>
       </c>
       <c r="D2">
-        <v>1.019285155882953</v>
+        <v>1.036457323714645</v>
       </c>
       <c r="E2">
-        <v>1.010558565518855</v>
+        <v>1.02382118471828</v>
       </c>
       <c r="F2">
-        <v>0.9793815667877351</v>
+        <v>1.041601155528297</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044458791308916</v>
+        <v>1.05543321706569</v>
       </c>
       <c r="J2">
-        <v>1.024508340961321</v>
+        <v>1.037467814527685</v>
       </c>
       <c r="K2">
-        <v>1.030482200048785</v>
+        <v>1.047431082422198</v>
       </c>
       <c r="L2">
-        <v>1.021872736780189</v>
+        <v>1.03495833565764</v>
       </c>
       <c r="M2">
-        <v>0.9911358241961888</v>
+        <v>1.052509818176859</v>
       </c>
       <c r="N2">
-        <v>1.025963260318236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.01627938962303</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.050130326138215</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.044608149701735</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007317776346858</v>
+        <v>1.019162293666321</v>
       </c>
       <c r="D3">
-        <v>1.022882870352537</v>
+        <v>1.038745937054491</v>
       </c>
       <c r="E3">
-        <v>1.01497235154224</v>
+        <v>1.026753352869883</v>
       </c>
       <c r="F3">
-        <v>0.9869839498885676</v>
+        <v>1.04400227791667</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046208479576357</v>
+        <v>1.056353034726695</v>
       </c>
       <c r="J3">
-        <v>1.027610919975502</v>
+        <v>1.03914386472738</v>
       </c>
       <c r="K3">
-        <v>1.033231098869819</v>
+        <v>1.048905943769392</v>
       </c>
       <c r="L3">
-        <v>1.025417176575795</v>
+        <v>1.037054991192824</v>
       </c>
       <c r="M3">
-        <v>0.9977861278439066</v>
+        <v>1.054101474358073</v>
       </c>
       <c r="N3">
-        <v>1.029070245350487</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.016847649885737</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.051389997687596</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.04564834401525</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010423863972243</v>
+        <v>1.021335901280759</v>
       </c>
       <c r="D4">
-        <v>1.025156759045959</v>
+        <v>1.040206868859224</v>
       </c>
       <c r="E4">
-        <v>1.017764411922335</v>
+        <v>1.028625307741518</v>
       </c>
       <c r="F4">
-        <v>0.9917731003687191</v>
+        <v>1.045536933192603</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047301257475752</v>
+        <v>1.056930280169281</v>
       </c>
       <c r="J4">
-        <v>1.029564633203619</v>
+        <v>1.040209142797519</v>
       </c>
       <c r="K4">
-        <v>1.03496075668935</v>
+        <v>1.049843091700882</v>
       </c>
       <c r="L4">
-        <v>1.027653061562494</v>
+        <v>1.038390102682569</v>
       </c>
       <c r="M4">
-        <v>1.001971841528744</v>
+        <v>1.055115158662344</v>
       </c>
       <c r="N4">
-        <v>1.031026733075482</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.017208852238867</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.052192248535804</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.04631186488306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011712104649391</v>
+        <v>1.022244301150559</v>
       </c>
       <c r="D5">
-        <v>1.026100262167715</v>
+        <v>1.040820195950959</v>
       </c>
       <c r="E5">
-        <v>1.01892352572219</v>
+        <v>1.029409255301472</v>
       </c>
       <c r="F5">
-        <v>0.9937569830686513</v>
+        <v>1.046180374819057</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04775153849451</v>
+        <v>1.057170918041856</v>
       </c>
       <c r="J5">
-        <v>1.030373584774429</v>
+        <v>1.040655313686949</v>
       </c>
       <c r="K5">
-        <v>1.035676596680539</v>
+        <v>1.050236816060197</v>
       </c>
       <c r="L5">
-        <v>1.028579789297756</v>
+        <v>1.03894919784726</v>
       </c>
       <c r="M5">
-        <v>1.003704836179878</v>
+        <v>1.055540201221318</v>
       </c>
       <c r="N5">
-        <v>1.03183683345031</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.017360504318252</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.052528635805204</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.046597363637946</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011927397951326</v>
+        <v>1.022399882008223</v>
       </c>
       <c r="D6">
-        <v>1.026257965113826</v>
+        <v>1.040927555836784</v>
       </c>
       <c r="E6">
-        <v>1.019117303772652</v>
+        <v>1.02954406240312</v>
       </c>
       <c r="F6">
-        <v>0.9940884034055321</v>
+        <v>1.046291467122611</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047826616223734</v>
+        <v>1.057213751445162</v>
       </c>
       <c r="J6">
-        <v>1.030508698843194</v>
+        <v>1.040733420138647</v>
       </c>
       <c r="K6">
-        <v>1.035796138434574</v>
+        <v>1.050307291133585</v>
       </c>
       <c r="L6">
-        <v>1.028734630041</v>
+        <v>1.039046262820696</v>
       </c>
       <c r="M6">
-        <v>1.003994289109627</v>
+        <v>1.05561462589486</v>
       </c>
       <c r="N6">
-        <v>1.031972139396551</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.017387497016493</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.05258753698017</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.046655861905008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010441145508604</v>
+        <v>1.021357581460203</v>
       </c>
       <c r="D7">
-        <v>1.025169414415019</v>
+        <v>1.040227552528057</v>
       </c>
       <c r="E7">
-        <v>1.017779956874671</v>
+        <v>1.028645272454136</v>
       </c>
       <c r="F7">
-        <v>0.9917997228133593</v>
+        <v>1.045554439864578</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047307309608218</v>
+        <v>1.056940689687671</v>
       </c>
       <c r="J7">
-        <v>1.029575490492142</v>
+        <v>1.040224402228496</v>
       </c>
       <c r="K7">
-        <v>1.034970365653521</v>
+        <v>1.049860702051247</v>
       </c>
       <c r="L7">
-        <v>1.027665495857113</v>
+        <v>1.038406953024182</v>
       </c>
       <c r="M7">
-        <v>1.001995100889384</v>
+        <v>1.05512964845065</v>
       </c>
       <c r="N7">
-        <v>1.0310376057826</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.017215247326813</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.05220371604952</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.046344252264001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.004077767538489</v>
+        <v>1.016921355031219</v>
       </c>
       <c r="D8">
-        <v>1.020512531604969</v>
+        <v>1.037250392159349</v>
       </c>
       <c r="E8">
-        <v>1.01206386771522</v>
+        <v>1.024829279889864</v>
       </c>
       <c r="F8">
-        <v>0.9819788127723127</v>
+        <v>1.042427655271284</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045058453424172</v>
+        <v>1.055756709781511</v>
       </c>
       <c r="J8">
-        <v>1.02556834008771</v>
+        <v>1.038049837842443</v>
       </c>
       <c r="K8">
-        <v>1.031421635293174</v>
+        <v>1.047948359930546</v>
       </c>
       <c r="L8">
-        <v>1.023082868702737</v>
+        <v>1.035683106633563</v>
       </c>
       <c r="M8">
-        <v>0.9934085554918383</v>
+        <v>1.053062022954751</v>
       </c>
       <c r="N8">
-        <v>1.027024764764968</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.016478295846136</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.050567353329703</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.044996617966065</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9922402868339525</v>
+        <v>1.008805718594691</v>
       </c>
       <c r="D9">
-        <v>1.011867804342599</v>
+        <v>1.031826654368078</v>
       </c>
       <c r="E9">
-        <v>1.00147035178925</v>
+        <v>1.017888446059675</v>
       </c>
       <c r="F9">
-        <v>0.963594284363656</v>
+        <v>1.036753024547242</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040779071304451</v>
+        <v>1.053518812155876</v>
       </c>
       <c r="J9">
-        <v>1.018070068036536</v>
+        <v>1.034051310848851</v>
       </c>
       <c r="K9">
-        <v>1.024771225067369</v>
+        <v>1.044423639784667</v>
       </c>
       <c r="L9">
-        <v>1.014539618520893</v>
+        <v>1.030697812765198</v>
       </c>
       <c r="M9">
-        <v>0.9773069910734749</v>
+        <v>1.049276680996843</v>
       </c>
       <c r="N9">
-        <v>1.019515844307417</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.015121420133786</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.047571544032556</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.042501298011229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9838710036856034</v>
+        <v>1.003237442931928</v>
       </c>
       <c r="D10">
-        <v>1.005772119931526</v>
+        <v>1.028151436272682</v>
       </c>
       <c r="E10">
-        <v>0.9940099377178953</v>
+        <v>1.013162927106033</v>
       </c>
       <c r="F10">
-        <v>0.9504841380138802</v>
+        <v>1.032966887778476</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037690338270551</v>
+        <v>1.051964072423069</v>
       </c>
       <c r="J10">
-        <v>1.012739491594049</v>
+        <v>1.031323199779403</v>
       </c>
       <c r="K10">
-        <v>1.020037933214899</v>
+        <v>1.042030353626461</v>
       </c>
       <c r="L10">
-        <v>1.008488193435838</v>
+        <v>1.02729851946548</v>
       </c>
       <c r="M10">
-        <v>0.9658089216968866</v>
+        <v>1.04676537735492</v>
       </c>
       <c r="N10">
-        <v>1.014177697834956</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.014201990958152</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.045635027691902</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.040825806862193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9801191543676443</v>
+        <v>1.001142025649532</v>
       </c>
       <c r="D11">
-        <v>1.00304428426086</v>
+        <v>1.026941416443277</v>
       </c>
       <c r="E11">
-        <v>0.9906730460419254</v>
+        <v>1.011443595713938</v>
       </c>
       <c r="F11">
-        <v>0.9445715685530796</v>
+        <v>1.032120864331061</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036291148012691</v>
+        <v>1.051537345750673</v>
       </c>
       <c r="J11">
-        <v>1.010343043223211</v>
+        <v>1.030467372073576</v>
       </c>
       <c r="K11">
-        <v>1.017909017293272</v>
+        <v>1.041372534493604</v>
       </c>
       <c r="L11">
-        <v>1.005773024928233</v>
+        <v>1.026152881888774</v>
       </c>
       <c r="M11">
-        <v>0.9606203750505813</v>
+        <v>1.046461427836487</v>
       </c>
       <c r="N11">
-        <v>1.011777846232554</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.013962438166359</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.045827027349334</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.040393313331591</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9787049462000428</v>
+        <v>1.000476010131099</v>
       </c>
       <c r="D12">
-        <v>1.002016866325015</v>
+        <v>1.026618623902618</v>
       </c>
       <c r="E12">
-        <v>0.9894164301756969</v>
+        <v>1.010918097784038</v>
       </c>
       <c r="F12">
-        <v>0.9423367117043632</v>
+        <v>1.032087205706721</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035761594141666</v>
+        <v>1.051462703683289</v>
       </c>
       <c r="J12">
-        <v>1.00943871741641</v>
+        <v>1.030260238007235</v>
       </c>
       <c r="K12">
-        <v>1.017105528099159</v>
+        <v>1.041253024335921</v>
       </c>
       <c r="L12">
-        <v>1.004749242962926</v>
+        <v>1.025839071560549</v>
       </c>
       <c r="M12">
-        <v>0.9586588100768771</v>
+        <v>1.046624445649559</v>
       </c>
       <c r="N12">
-        <v>1.01087223617938</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.013930489910341</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.046279841553854</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.040308816926387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9790092549087628</v>
+        <v>1.000879544772133</v>
       </c>
       <c r="D13">
-        <v>1.00223790806141</v>
+        <v>1.026974985789304</v>
       </c>
       <c r="E13">
-        <v>0.9896867741442114</v>
+        <v>1.011288344012807</v>
       </c>
       <c r="F13">
-        <v>0.9428179021389747</v>
+        <v>1.032700086470247</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03587563972991</v>
+        <v>1.051669394071162</v>
       </c>
       <c r="J13">
-        <v>1.009633355732154</v>
+        <v>1.030554242218166</v>
       </c>
       <c r="K13">
-        <v>1.017278468242109</v>
+        <v>1.041560651114981</v>
       </c>
       <c r="L13">
-        <v>1.004969554775167</v>
+        <v>1.02615910746299</v>
       </c>
       <c r="M13">
-        <v>0.9590811733446883</v>
+        <v>1.047184496286849</v>
       </c>
       <c r="N13">
-        <v>1.011067150903859</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.014063166259423</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.046997427333442</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.040523841654624</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.980002684339736</v>
+        <v>1.001647066218356</v>
       </c>
       <c r="D14">
-        <v>1.002959652353316</v>
+        <v>1.027532870773155</v>
       </c>
       <c r="E14">
-        <v>0.9905695306046115</v>
+        <v>1.011953782523804</v>
       </c>
       <c r="F14">
-        <v>0.9443876434959482</v>
+        <v>1.033421756569366</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036247578917722</v>
+        <v>1.051941431649402</v>
       </c>
       <c r="J14">
-        <v>1.010268586240631</v>
+        <v>1.030987041850523</v>
       </c>
       <c r="K14">
-        <v>1.017842864874015</v>
+        <v>1.041969901857277</v>
       </c>
       <c r="L14">
-        <v>1.005688715961472</v>
+        <v>1.02667041283317</v>
       </c>
       <c r="M14">
-        <v>0.9604589486544368</v>
+        <v>1.047755940426097</v>
       </c>
       <c r="N14">
-        <v>1.011703283512519</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.014230656603281</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.047621417293424</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.040814605524181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.980611994764777</v>
+        <v>1.002072219676835</v>
       </c>
       <c r="D15">
-        <v>1.0034024355112</v>
+        <v>1.027825300080195</v>
       </c>
       <c r="E15">
-        <v>0.9911111176970546</v>
+        <v>1.012316919050274</v>
       </c>
       <c r="F15">
-        <v>0.9453495857926905</v>
+        <v>1.033753664821128</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036475422458303</v>
+        <v>1.052074618739127</v>
       </c>
       <c r="J15">
-        <v>1.010658064939972</v>
+        <v>1.03120847650837</v>
       </c>
       <c r="K15">
-        <v>1.018188898352863</v>
+        <v>1.042171758053287</v>
       </c>
       <c r="L15">
-        <v>1.006129762926224</v>
+        <v>1.026939576696091</v>
       </c>
       <c r="M15">
-        <v>0.9613032063436483</v>
+        <v>1.047997371131395</v>
       </c>
       <c r="N15">
-        <v>1.012093315316288</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.01431018099989</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.047849573246526</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.040963149833667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9841171915332992</v>
+        <v>1.004353222104465</v>
       </c>
       <c r="D16">
-        <v>1.005951220680374</v>
+        <v>1.029320659237099</v>
       </c>
       <c r="E16">
-        <v>0.9942290573949256</v>
+        <v>1.014243809232314</v>
       </c>
       <c r="F16">
-        <v>0.9508713001480453</v>
+        <v>1.035272144618265</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037781850844779</v>
+        <v>1.0527130044245</v>
       </c>
       <c r="J16">
-        <v>1.012896600114987</v>
+        <v>1.032318945934878</v>
       </c>
       <c r="K16">
-        <v>1.020177484482182</v>
+        <v>1.043144774427769</v>
       </c>
       <c r="L16">
-        <v>1.008666308933823</v>
+        <v>1.028324626303638</v>
       </c>
       <c r="M16">
-        <v>0.9661486176711462</v>
+        <v>1.048997576199449</v>
       </c>
       <c r="N16">
-        <v>1.014335029468015</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.014678482825831</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.048601639025595</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.041654240948453</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9862807299200755</v>
+        <v>1.005703440873203</v>
       </c>
       <c r="D17">
-        <v>1.007525739406434</v>
+        <v>1.030177279771717</v>
       </c>
       <c r="E17">
-        <v>0.9961555753146961</v>
+        <v>1.015376722415344</v>
       </c>
       <c r="F17">
-        <v>0.9542696296715313</v>
+        <v>1.036055295082553</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03858443259401</v>
+        <v>1.053057978572607</v>
       </c>
       <c r="J17">
-        <v>1.014276523268911</v>
+        <v>1.032944194959807</v>
       </c>
       <c r="K17">
-        <v>1.021403089419433</v>
+        <v>1.043676101661621</v>
       </c>
       <c r="L17">
-        <v>1.010231348672138</v>
+        <v>1.029120408618281</v>
       </c>
       <c r="M17">
-        <v>0.9691299790166638</v>
+        <v>1.049459358445186</v>
       </c>
       <c r="N17">
-        <v>1.015716912271096</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.014873250032422</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.048838385772618</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.042032472573496</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9875304462537505</v>
+        <v>1.006366352145616</v>
       </c>
       <c r="D18">
-        <v>1.008435669256658</v>
+        <v>1.030539553530298</v>
       </c>
       <c r="E18">
-        <v>0.9972690899460985</v>
+        <v>1.015915470924254</v>
       </c>
       <c r="F18">
-        <v>0.9562293059910624</v>
+        <v>1.036231231308042</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039046647527435</v>
+        <v>1.053168160375983</v>
       </c>
       <c r="J18">
-        <v>1.015072958674054</v>
+        <v>1.033190985264223</v>
       </c>
       <c r="K18">
-        <v>1.022110363588947</v>
+        <v>1.043851164300093</v>
       </c>
       <c r="L18">
-        <v>1.011135129545356</v>
+        <v>1.029465023499912</v>
       </c>
       <c r="M18">
-        <v>0.9708489182154952</v>
+        <v>1.04945255929926</v>
       </c>
       <c r="N18">
-        <v>1.016514478705867</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.014928286249283</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.048596941022378</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.042144699134693</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9879545312274739</v>
+        <v>1.006409311501802</v>
       </c>
       <c r="D19">
-        <v>1.008744522759394</v>
+        <v>1.030460170376537</v>
       </c>
       <c r="E19">
-        <v>0.997647074137624</v>
+        <v>1.015918059230506</v>
       </c>
       <c r="F19">
-        <v>0.9568937787550171</v>
+        <v>1.035854936058417</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039203263120845</v>
+        <v>1.05307014406788</v>
       </c>
       <c r="J19">
-        <v>1.015343115516123</v>
+        <v>1.033099125406221</v>
       </c>
       <c r="K19">
-        <v>1.022350259336802</v>
+        <v>1.043711210175438</v>
       </c>
       <c r="L19">
-        <v>1.011441783876275</v>
+        <v>1.029404467695141</v>
       </c>
       <c r="M19">
-        <v>0.9714317125216952</v>
+        <v>1.049020809859566</v>
       </c>
       <c r="N19">
-        <v>1.016785019201638</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.014861813774551</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.047932564079863</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.04205209441931</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9860498782607449</v>
+        <v>1.004703962581451</v>
       </c>
       <c r="D20">
-        <v>1.007357689769159</v>
+        <v>1.029133390507088</v>
       </c>
       <c r="E20">
-        <v>0.9959499401702301</v>
+        <v>1.014408972564356</v>
       </c>
       <c r="F20">
-        <v>0.9539073717551431</v>
+        <v>1.033970616124705</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038498939065766</v>
+        <v>1.052388556792675</v>
       </c>
       <c r="J20">
-        <v>1.014129350958369</v>
+        <v>1.032054750937194</v>
       </c>
       <c r="K20">
-        <v>1.021272385214558</v>
+        <v>1.04268260379764</v>
       </c>
       <c r="L20">
-        <v>1.010064380810115</v>
+        <v>1.028203102579496</v>
       </c>
       <c r="M20">
-        <v>0.9688121989145806</v>
+        <v>1.047441323746963</v>
       </c>
       <c r="N20">
-        <v>1.015569530958992</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.014452329353775</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.046159504540201</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.041328731671908</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9797107247842909</v>
+        <v>1.000458505981948</v>
       </c>
       <c r="D21">
-        <v>1.002747515750321</v>
+        <v>1.02630472499716</v>
       </c>
       <c r="E21">
-        <v>0.9903100639432836</v>
+        <v>1.010806339243124</v>
       </c>
       <c r="F21">
-        <v>0.9439264891531672</v>
+        <v>1.030984294020698</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036138328268011</v>
+        <v>1.051154543800968</v>
       </c>
       <c r="J21">
-        <v>1.010081925917415</v>
+        <v>1.029937069749439</v>
       </c>
       <c r="K21">
-        <v>1.017677021894753</v>
+        <v>1.040804314293055</v>
       </c>
       <c r="L21">
-        <v>1.005477370338805</v>
+        <v>1.025585834154157</v>
       </c>
       <c r="M21">
-        <v>0.9600541992925595</v>
+        <v>1.045401511583509</v>
       </c>
       <c r="N21">
-        <v>1.011516358110234</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.013729406891784</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.044504630586795</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.040003931702618</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9756050415824045</v>
+        <v>0.9977537940232633</v>
       </c>
       <c r="D22">
-        <v>0.9997663681846435</v>
+        <v>1.024512876076989</v>
       </c>
       <c r="E22">
-        <v>0.9866641924577435</v>
+        <v>1.008519826424658</v>
       </c>
       <c r="F22">
-        <v>0.9374254994903023</v>
+        <v>1.02912396829312</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034596912830797</v>
+        <v>1.050366357522667</v>
       </c>
       <c r="J22">
-        <v>1.007454591596755</v>
+        <v>1.028592892783503</v>
       </c>
       <c r="K22">
-        <v>1.015342454788119</v>
+        <v>1.039613882112795</v>
       </c>
       <c r="L22">
-        <v>1.002504545706608</v>
+        <v>1.023924372457184</v>
       </c>
       <c r="M22">
-        <v>0.9543475668075294</v>
+        <v>1.044139740576632</v>
       </c>
       <c r="N22">
-        <v>1.008885292673479</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.013271906482113</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.043506028259413</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.039148842001077</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9777934193457288</v>
+        <v>0.9991833779667649</v>
       </c>
       <c r="D23">
-        <v>1.001354881740242</v>
+        <v>1.025454164980379</v>
       </c>
       <c r="E23">
-        <v>0.9886068182008113</v>
+        <v>1.009726442231429</v>
       </c>
       <c r="F23">
-        <v>0.9408943718576283</v>
+        <v>1.030104555474679</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035419669823527</v>
+        <v>1.050779859406943</v>
       </c>
       <c r="J23">
-        <v>1.008855548663746</v>
+        <v>1.029299347797523</v>
       </c>
       <c r="K23">
-        <v>1.016587355460107</v>
+        <v>1.040236150682161</v>
       </c>
       <c r="L23">
-        <v>1.004089272903477</v>
+        <v>1.024799241333382</v>
       </c>
       <c r="M23">
-        <v>0.9573927522007023</v>
+        <v>1.044802762560357</v>
       </c>
       <c r="N23">
-        <v>1.010288239260197</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.013511028125865</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.044030763339961</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.039579237383739</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9861542279084263</v>
+        <v>1.004724203553607</v>
       </c>
       <c r="D24">
-        <v>1.007433650245128</v>
+        <v>1.029122281010662</v>
       </c>
       <c r="E24">
-        <v>0.9960428892483728</v>
+        <v>1.014419170543932</v>
       </c>
       <c r="F24">
-        <v>0.9540711298425565</v>
+        <v>1.033924911946498</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038537588156726</v>
+        <v>1.052371848267901</v>
       </c>
       <c r="J24">
-        <v>1.01419587783732</v>
+        <v>1.032041604133359</v>
       </c>
       <c r="K24">
-        <v>1.021331468248038</v>
+        <v>1.042656575538134</v>
       </c>
       <c r="L24">
-        <v>1.010139854387492</v>
+        <v>1.028197714247486</v>
       </c>
       <c r="M24">
-        <v>0.9689558517824075</v>
+        <v>1.047381356350178</v>
       </c>
       <c r="N24">
-        <v>1.015636152313743</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.01444153007958</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.046071534657231</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.041283122748346</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9953801914762342</v>
+        <v>1.010954133390009</v>
       </c>
       <c r="D25">
-        <v>1.014158326672626</v>
+        <v>1.033267733604823</v>
       </c>
       <c r="E25">
-        <v>1.004275431882196</v>
+        <v>1.019722828343131</v>
       </c>
       <c r="F25">
-        <v>0.968487370935739</v>
+        <v>1.038252598204972</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041925147618693</v>
+        <v>1.054125617759154</v>
       </c>
       <c r="J25">
-        <v>1.020064037167798</v>
+        <v>1.035118388423247</v>
       </c>
       <c r="K25">
-        <v>1.026540757949622</v>
+        <v>1.0453706638154</v>
       </c>
       <c r="L25">
-        <v>1.016807737865848</v>
+        <v>1.032022497863456</v>
       </c>
       <c r="M25">
-        <v>0.9815954061973707</v>
+        <v>1.050284756824923</v>
       </c>
       <c r="N25">
-        <v>1.021512645103556</v>
+        <v>1.015485588766861</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.048369360303592</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.043199254529007</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_44/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.015748137197464</v>
+        <v>1.014782077310224</v>
       </c>
       <c r="D2">
-        <v>1.036457323714645</v>
+        <v>1.034829198065108</v>
       </c>
       <c r="E2">
-        <v>1.02382118471828</v>
+        <v>1.022861191778361</v>
       </c>
       <c r="F2">
-        <v>1.041601155528297</v>
+        <v>1.04048315281195</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.05543321706569</v>
+        <v>1.054563699313</v>
       </c>
       <c r="J2">
-        <v>1.037467814527685</v>
+        <v>1.036529472473084</v>
       </c>
       <c r="K2">
-        <v>1.047431082422198</v>
+        <v>1.045823729454322</v>
       </c>
       <c r="L2">
-        <v>1.03495833565764</v>
+        <v>1.034010962795862</v>
       </c>
       <c r="M2">
-        <v>1.052509818176859</v>
+        <v>1.051405895668155</v>
       </c>
       <c r="N2">
-        <v>1.01627938962303</v>
+        <v>1.01681320100522</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.050130326138215</v>
+        <v>1.049256656447679</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.044608149701735</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.043480335465586</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024177213270912</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.019162293666321</v>
+        <v>1.018075991058828</v>
       </c>
       <c r="D3">
-        <v>1.038745937054491</v>
+        <v>1.036962476702765</v>
       </c>
       <c r="E3">
-        <v>1.026753352869883</v>
+        <v>1.025672719972373</v>
       </c>
       <c r="F3">
-        <v>1.04400227791667</v>
+        <v>1.042773172532156</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.056353034726695</v>
+        <v>1.055392290825331</v>
       </c>
       <c r="J3">
-        <v>1.03914386472738</v>
+        <v>1.038085728612712</v>
       </c>
       <c r="K3">
-        <v>1.048905943769392</v>
+        <v>1.047143289413744</v>
       </c>
       <c r="L3">
-        <v>1.037054991192824</v>
+        <v>1.035987322303396</v>
       </c>
       <c r="M3">
-        <v>1.054101474358073</v>
+        <v>1.052886520584678</v>
       </c>
       <c r="N3">
-        <v>1.016847649885737</v>
+        <v>1.017231212639219</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.051389997687596</v>
+        <v>1.050428456862923</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.04564834401525</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.044410445662618</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024433145721546</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021335901280759</v>
+        <v>1.020173732950409</v>
       </c>
       <c r="D4">
-        <v>1.040206868859224</v>
+        <v>1.038324933735249</v>
       </c>
       <c r="E4">
-        <v>1.028625307741518</v>
+        <v>1.027468449079779</v>
       </c>
       <c r="F4">
-        <v>1.045536933192603</v>
+        <v>1.044237498890088</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.056930280169281</v>
+        <v>1.055911627805029</v>
       </c>
       <c r="J4">
-        <v>1.040209142797519</v>
+        <v>1.039075101072967</v>
       </c>
       <c r="K4">
-        <v>1.049843091700882</v>
+        <v>1.047981808971342</v>
       </c>
       <c r="L4">
-        <v>1.038390102682569</v>
+        <v>1.037246282977789</v>
       </c>
       <c r="M4">
-        <v>1.055115158662344</v>
+        <v>1.053829796782896</v>
       </c>
       <c r="N4">
-        <v>1.017208852238867</v>
+        <v>1.017497031770153</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.052192248535804</v>
+        <v>1.051174986256567</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.04631186488306</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.04500431238384</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024593526778634</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022244301150559</v>
+        <v>1.021050544744736</v>
       </c>
       <c r="D5">
-        <v>1.040820195950959</v>
+        <v>1.038897232499655</v>
       </c>
       <c r="E5">
-        <v>1.029409255301472</v>
+        <v>1.028220636237032</v>
       </c>
       <c r="F5">
-        <v>1.046180374819057</v>
+        <v>1.044851649840437</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.057170918041856</v>
+        <v>1.056128105153073</v>
       </c>
       <c r="J5">
-        <v>1.040655313686949</v>
+        <v>1.039489598349482</v>
       </c>
       <c r="K5">
-        <v>1.050236816060197</v>
+        <v>1.048334402290401</v>
       </c>
       <c r="L5">
-        <v>1.03894919784726</v>
+        <v>1.037773617977168</v>
       </c>
       <c r="M5">
-        <v>1.055540201221318</v>
+        <v>1.054225488290481</v>
       </c>
       <c r="N5">
-        <v>1.017360504318252</v>
+        <v>1.017608688709456</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.052528635805204</v>
+        <v>1.051488144939861</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.046597363637946</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.045261439881573</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024660915716841</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022399882008223</v>
+        <v>1.021200677156</v>
       </c>
       <c r="D6">
-        <v>1.040927555836784</v>
+        <v>1.0389976065516</v>
       </c>
       <c r="E6">
-        <v>1.02954406240312</v>
+        <v>1.028349965410005</v>
       </c>
       <c r="F6">
-        <v>1.046291467122611</v>
+        <v>1.04495774058981</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.057213751445162</v>
+        <v>1.056166804473023</v>
       </c>
       <c r="J6">
-        <v>1.040733420138647</v>
+        <v>1.039562241688738</v>
       </c>
       <c r="K6">
-        <v>1.050307291133585</v>
+        <v>1.048397873171094</v>
       </c>
       <c r="L6">
-        <v>1.039046262820696</v>
+        <v>1.037865204955135</v>
       </c>
       <c r="M6">
-        <v>1.05561462589486</v>
+        <v>1.054294900680562</v>
       </c>
       <c r="N6">
-        <v>1.017387497016493</v>
+        <v>1.017628592608367</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.05258753698017</v>
+        <v>1.051543079369662</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.046655861905008</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.045315854388189</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024673617780233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021357581460203</v>
+        <v>1.02020154162854</v>
       </c>
       <c r="D7">
-        <v>1.040227552528057</v>
+        <v>1.038349637970247</v>
       </c>
       <c r="E7">
-        <v>1.028645272454136</v>
+        <v>1.027494509804894</v>
       </c>
       <c r="F7">
-        <v>1.045554439864578</v>
+        <v>1.044258456428369</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.056940689687671</v>
+        <v>1.055925108073814</v>
       </c>
       <c r="J7">
-        <v>1.040224402228496</v>
+        <v>1.03909632867717</v>
       </c>
       <c r="K7">
-        <v>1.049860702051247</v>
+        <v>1.048003387806358</v>
       </c>
       <c r="L7">
-        <v>1.038406953024182</v>
+        <v>1.0372691555816</v>
       </c>
       <c r="M7">
-        <v>1.05512964845065</v>
+        <v>1.053847694771009</v>
       </c>
       <c r="N7">
-        <v>1.017215247326813</v>
+        <v>1.017529532001136</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.05220371604952</v>
+        <v>1.051189151108231</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.046344252264001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.0450415041979</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024599931374728</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016921355031219</v>
+        <v>1.015935177172283</v>
       </c>
       <c r="D8">
-        <v>1.037250392159349</v>
+        <v>1.035583975509369</v>
       </c>
       <c r="E8">
-        <v>1.024829279889864</v>
+        <v>1.023848933614176</v>
       </c>
       <c r="F8">
-        <v>1.042427655271284</v>
+        <v>1.041284081361156</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.055756709781511</v>
+        <v>1.054866966414544</v>
       </c>
       <c r="J8">
-        <v>1.038049837842443</v>
+        <v>1.03709101989141</v>
       </c>
       <c r="K8">
-        <v>1.047948359930546</v>
+        <v>1.046302582844479</v>
       </c>
       <c r="L8">
-        <v>1.035683106633563</v>
+        <v>1.034715262800911</v>
       </c>
       <c r="M8">
-        <v>1.053062022954751</v>
+        <v>1.051932429604941</v>
       </c>
       <c r="N8">
-        <v>1.016478295846136</v>
+        <v>1.017043883439346</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.050567353329703</v>
+        <v>1.049673367656139</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.044996617966065</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.04384390227275</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024274567760892</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.008805718594691</v>
+        <v>1.008112965640867</v>
       </c>
       <c r="D9">
-        <v>1.031826654368078</v>
+        <v>1.030534150507726</v>
       </c>
       <c r="E9">
-        <v>1.017888446059675</v>
+        <v>1.017201636774701</v>
       </c>
       <c r="F9">
-        <v>1.036753024547242</v>
+        <v>1.035877880854199</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.053518812155876</v>
+        <v>1.052848557837744</v>
       </c>
       <c r="J9">
-        <v>1.034051310848851</v>
+        <v>1.033382451433023</v>
       </c>
       <c r="K9">
-        <v>1.044423639784667</v>
+        <v>1.043150522607156</v>
       </c>
       <c r="L9">
-        <v>1.030697812765198</v>
+        <v>1.03002166087419</v>
       </c>
       <c r="M9">
-        <v>1.049276680996843</v>
+        <v>1.048414499055743</v>
       </c>
       <c r="N9">
-        <v>1.015121420133786</v>
+        <v>1.016056714670166</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.047571544032556</v>
+        <v>1.046889191127826</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.042501298011229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.041611790838895</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023649133485315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.003237442931928</v>
+        <v>1.002777734733646</v>
       </c>
       <c r="D10">
-        <v>1.028151436272682</v>
+        <v>1.027136143052285</v>
       </c>
       <c r="E10">
-        <v>1.013162927106033</v>
+        <v>1.012708078491865</v>
       </c>
       <c r="F10">
-        <v>1.032966887778476</v>
+        <v>1.032294009491016</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.051964072423069</v>
+        <v>1.051459121243682</v>
       </c>
       <c r="J10">
-        <v>1.031323199779403</v>
+        <v>1.030881576365174</v>
       </c>
       <c r="K10">
-        <v>1.042030353626461</v>
+        <v>1.041032142009902</v>
       </c>
       <c r="L10">
-        <v>1.02729851946548</v>
+        <v>1.026851613879083</v>
       </c>
       <c r="M10">
-        <v>1.04676537735492</v>
+        <v>1.046103679413276</v>
       </c>
       <c r="N10">
-        <v>1.014201990958152</v>
+        <v>1.015506434868226</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.045635027691902</v>
+        <v>1.045111373753199</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.040825806862193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.040132349028632</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023226350140096</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.001142025649532</v>
+        <v>1.000788750579896</v>
       </c>
       <c r="D11">
-        <v>1.026941416443277</v>
+        <v>1.026034928278513</v>
       </c>
       <c r="E11">
-        <v>1.011443595713938</v>
+        <v>1.011094373091651</v>
       </c>
       <c r="F11">
-        <v>1.032120864331061</v>
+        <v>1.031530743031337</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.051537345750673</v>
+        <v>1.051100669338764</v>
       </c>
       <c r="J11">
-        <v>1.030467372073576</v>
+        <v>1.030128753379156</v>
       </c>
       <c r="K11">
-        <v>1.041372534493604</v>
+        <v>1.040482016743207</v>
       </c>
       <c r="L11">
-        <v>1.026152881888774</v>
+        <v>1.025810055351682</v>
       </c>
       <c r="M11">
-        <v>1.046461427836487</v>
+        <v>1.045881564462319</v>
       </c>
       <c r="N11">
-        <v>1.013962438166359</v>
+        <v>1.015566945431269</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.045827027349334</v>
+        <v>1.045368362622434</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.040393313331591</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.039779212758968</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023164202616921</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.000476010131099</v>
+        <v>1.00015002318094</v>
       </c>
       <c r="D12">
-        <v>1.026618623902618</v>
+        <v>1.025738412077074</v>
       </c>
       <c r="E12">
-        <v>1.010918097784038</v>
+        <v>1.010595960027673</v>
       </c>
       <c r="F12">
-        <v>1.032087205706721</v>
+        <v>1.031517627151831</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.051462703683289</v>
+        <v>1.051042946368616</v>
       </c>
       <c r="J12">
-        <v>1.030260238007235</v>
+        <v>1.029948035113394</v>
       </c>
       <c r="K12">
-        <v>1.041253024335921</v>
+        <v>1.040388577007141</v>
       </c>
       <c r="L12">
-        <v>1.025839071560549</v>
+        <v>1.02552293525413</v>
       </c>
       <c r="M12">
-        <v>1.046624445649559</v>
+        <v>1.046064924487822</v>
       </c>
       <c r="N12">
-        <v>1.013930489910341</v>
+        <v>1.01564530921168</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.046279841553854</v>
+        <v>1.045837414815419</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.040308816926387</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.039713150000637</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023178035705656</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.000879544772133</v>
+        <v>1.000511473451446</v>
       </c>
       <c r="D13">
-        <v>1.026974985789304</v>
+        <v>1.026052055036156</v>
       </c>
       <c r="E13">
-        <v>1.011288344012807</v>
+        <v>1.010924587575583</v>
       </c>
       <c r="F13">
-        <v>1.032700086470247</v>
+        <v>1.032098558503424</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.051669394071162</v>
+        <v>1.051222933292108</v>
       </c>
       <c r="J13">
-        <v>1.030554242218166</v>
+        <v>1.030201660649736</v>
       </c>
       <c r="K13">
-        <v>1.041560651114981</v>
+        <v>1.040654180860405</v>
       </c>
       <c r="L13">
-        <v>1.02615910746299</v>
+        <v>1.025802099042411</v>
       </c>
       <c r="M13">
-        <v>1.047184496286849</v>
+        <v>1.046593538634429</v>
       </c>
       <c r="N13">
-        <v>1.014063166259423</v>
+        <v>1.015712167506913</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.046997427333442</v>
+        <v>1.046530258939114</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.040523841654624</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.039898217532896</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023256903022876</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.001647066218356</v>
+        <v>1.001219047869564</v>
       </c>
       <c r="D14">
-        <v>1.027532870773155</v>
+        <v>1.026549593006294</v>
       </c>
       <c r="E14">
-        <v>1.011953782523804</v>
+        <v>1.01153067475228</v>
       </c>
       <c r="F14">
-        <v>1.033421756569366</v>
+        <v>1.032774757871142</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.051941431649402</v>
+        <v>1.051457040791893</v>
       </c>
       <c r="J14">
-        <v>1.030987041850523</v>
+        <v>1.030576782526047</v>
       </c>
       <c r="K14">
-        <v>1.041969901857277</v>
+        <v>1.041003945732029</v>
       </c>
       <c r="L14">
-        <v>1.02667041283317</v>
+        <v>1.026255055058345</v>
       </c>
       <c r="M14">
-        <v>1.047755940426097</v>
+        <v>1.047120167094231</v>
       </c>
       <c r="N14">
-        <v>1.014230656603281</v>
+        <v>1.015755265943547</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.047621417293424</v>
+        <v>1.047118888057049</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.040814605524181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.040147057408824</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023342026185907</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.002072219676835</v>
+        <v>1.00161473053574</v>
       </c>
       <c r="D15">
-        <v>1.027825300080195</v>
+        <v>1.026812262572472</v>
       </c>
       <c r="E15">
-        <v>1.012316919050274</v>
+        <v>1.011864609647004</v>
       </c>
       <c r="F15">
-        <v>1.033753664821128</v>
+        <v>1.033084201140718</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.052074618739127</v>
+        <v>1.051571509108332</v>
       </c>
       <c r="J15">
-        <v>1.03120847650837</v>
+        <v>1.030769805477465</v>
       </c>
       <c r="K15">
-        <v>1.042171758053287</v>
+        <v>1.041176432491267</v>
       </c>
       <c r="L15">
-        <v>1.026939576696091</v>
+        <v>1.026495488119573</v>
       </c>
       <c r="M15">
-        <v>1.047997371131395</v>
+        <v>1.04733943435495</v>
       </c>
       <c r="N15">
-        <v>1.01431018099989</v>
+        <v>1.015768352617058</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.047849573246526</v>
+        <v>1.047329539130373</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.040963149833667</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.040275405680405</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023379919307561</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.004353222104465</v>
+        <v>1.003759389887912</v>
       </c>
       <c r="D16">
-        <v>1.029320659237099</v>
+        <v>1.028166483965122</v>
       </c>
       <c r="E16">
-        <v>1.014243809232314</v>
+        <v>1.013656194703504</v>
       </c>
       <c r="F16">
-        <v>1.035272144618265</v>
+        <v>1.034496503466206</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.0527130044245</v>
+        <v>1.052121689592978</v>
       </c>
       <c r="J16">
-        <v>1.032318945934878</v>
+        <v>1.031748331443213</v>
       </c>
       <c r="K16">
-        <v>1.043144774427769</v>
+        <v>1.042009907404366</v>
       </c>
       <c r="L16">
-        <v>1.028324626303638</v>
+        <v>1.027747216755501</v>
       </c>
       <c r="M16">
-        <v>1.048997576199449</v>
+        <v>1.048234713426497</v>
       </c>
       <c r="N16">
-        <v>1.014678482825831</v>
+        <v>1.015819307295354</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.048601639025595</v>
+        <v>1.047998654280422</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.041654240948453</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.040868136326667</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023542738486789</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.005703440873203</v>
+        <v>1.005043790420235</v>
       </c>
       <c r="D17">
-        <v>1.030177279771717</v>
+        <v>1.028951445022001</v>
       </c>
       <c r="E17">
-        <v>1.015376722415344</v>
+        <v>1.014723638048293</v>
       </c>
       <c r="F17">
-        <v>1.036055295082553</v>
+        <v>1.035226226666126</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.053057978572607</v>
+        <v>1.052422545469657</v>
       </c>
       <c r="J17">
-        <v>1.032944194959807</v>
+        <v>1.032309513581057</v>
       </c>
       <c r="K17">
-        <v>1.043676101661621</v>
+        <v>1.042470203676647</v>
       </c>
       <c r="L17">
-        <v>1.029120408618281</v>
+        <v>1.028478341328722</v>
       </c>
       <c r="M17">
-        <v>1.049459358445186</v>
+        <v>1.048643571706007</v>
       </c>
       <c r="N17">
-        <v>1.014873250032422</v>
+        <v>1.01586446422351</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.048838385772618</v>
+        <v>1.048193505110701</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.042032472573496</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.041196394437232</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023623505943245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.006366352145616</v>
+        <v>1.005687541670006</v>
       </c>
       <c r="D18">
-        <v>1.030539553530298</v>
+        <v>1.029290497344222</v>
       </c>
       <c r="E18">
-        <v>1.015915470924254</v>
+        <v>1.015243219461472</v>
       </c>
       <c r="F18">
-        <v>1.036231231308042</v>
+        <v>1.035384940133555</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.053168160375983</v>
+        <v>1.052518828901258</v>
       </c>
       <c r="J18">
-        <v>1.033190985264223</v>
+        <v>1.032537389200501</v>
       </c>
       <c r="K18">
-        <v>1.043851164300093</v>
+        <v>1.042622092270131</v>
       </c>
       <c r="L18">
-        <v>1.029465023499912</v>
+        <v>1.028803922117305</v>
       </c>
       <c r="M18">
-        <v>1.04945255929926</v>
+        <v>1.048619611778539</v>
       </c>
       <c r="N18">
-        <v>1.014928286249283</v>
+        <v>1.015865367161094</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.048596941022378</v>
+        <v>1.047938359195757</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.042144699134693</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.041291101077805</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023631715084752</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.006409311501802</v>
+        <v>1.005748458878445</v>
       </c>
       <c r="D19">
-        <v>1.030460170376537</v>
+        <v>1.029228710178824</v>
       </c>
       <c r="E19">
-        <v>1.015918059230506</v>
+        <v>1.015263531744001</v>
       </c>
       <c r="F19">
-        <v>1.035854936058417</v>
+        <v>1.035021523266586</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.05307014406788</v>
+        <v>1.052431914726588</v>
       </c>
       <c r="J19">
-        <v>1.033099125406221</v>
+        <v>1.032462673291165</v>
       </c>
       <c r="K19">
-        <v>1.043711210175438</v>
+        <v>1.042499351175588</v>
       </c>
       <c r="L19">
-        <v>1.029404467695141</v>
+        <v>1.028760737977509</v>
       </c>
       <c r="M19">
-        <v>1.049020809859566</v>
+        <v>1.048200479785038</v>
       </c>
       <c r="N19">
-        <v>1.014861813774551</v>
+        <v>1.015809937130476</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.047932564079863</v>
+        <v>1.047283749571051</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.04205209441931</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.0412112912404</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023576696421819</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.004703962581451</v>
+        <v>1.004162381909343</v>
       </c>
       <c r="D20">
-        <v>1.029133390507088</v>
+        <v>1.02803113706178</v>
       </c>
       <c r="E20">
-        <v>1.014408972564356</v>
+        <v>1.013872831552933</v>
       </c>
       <c r="F20">
-        <v>1.033970616124705</v>
+        <v>1.033232594542792</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.052388556792675</v>
+        <v>1.051829736232466</v>
       </c>
       <c r="J20">
-        <v>1.032054750937194</v>
+        <v>1.031533788312874</v>
       </c>
       <c r="K20">
-        <v>1.04268260379764</v>
+        <v>1.041598372219214</v>
       </c>
       <c r="L20">
-        <v>1.028203102579496</v>
+        <v>1.027676052663011</v>
       </c>
       <c r="M20">
-        <v>1.047441323746963</v>
+        <v>1.046715218874415</v>
       </c>
       <c r="N20">
-        <v>1.014452329353775</v>
+        <v>1.015584700202381</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.046159504540201</v>
+        <v>1.045584873457568</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.041328731671908</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.040578555313761</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023342606009975</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.000458505981948</v>
+        <v>1.000196547513009</v>
       </c>
       <c r="D21">
-        <v>1.02630472499716</v>
+        <v>1.025486694811375</v>
       </c>
       <c r="E21">
-        <v>1.010806339243124</v>
+        <v>1.010547417057079</v>
       </c>
       <c r="F21">
-        <v>1.030984294020698</v>
+        <v>1.030461386958551</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.051154543800968</v>
+        <v>1.050774337098267</v>
       </c>
       <c r="J21">
-        <v>1.029937069749439</v>
+        <v>1.029686053453862</v>
       </c>
       <c r="K21">
-        <v>1.040804314293055</v>
+        <v>1.040000783574661</v>
       </c>
       <c r="L21">
-        <v>1.025585834154157</v>
+        <v>1.025331683205187</v>
       </c>
       <c r="M21">
-        <v>1.045401511583509</v>
+        <v>1.044887760845978</v>
       </c>
       <c r="N21">
-        <v>1.013729406891784</v>
+        <v>1.015503896119452</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.044504630586795</v>
+        <v>1.044098033453553</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.040003931702618</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.039452547525682</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023019583898276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9977537940232633</v>
+        <v>0.9976679450920747</v>
       </c>
       <c r="D22">
-        <v>1.024512876076989</v>
+        <v>1.02387376311453</v>
       </c>
       <c r="E22">
-        <v>1.008519826424658</v>
+        <v>1.008435060437646</v>
       </c>
       <c r="F22">
-        <v>1.02912396829312</v>
+        <v>1.028736609302504</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.050366357522667</v>
+        <v>1.05009822065298</v>
       </c>
       <c r="J22">
-        <v>1.028592892783503</v>
+        <v>1.02851083662861</v>
       </c>
       <c r="K22">
-        <v>1.039613882112795</v>
+        <v>1.03898666187332</v>
       </c>
       <c r="L22">
-        <v>1.023924372457184</v>
+        <v>1.023841248905292</v>
       </c>
       <c r="M22">
-        <v>1.044139740576632</v>
+        <v>1.043759503424111</v>
       </c>
       <c r="N22">
-        <v>1.013271906482113</v>
+        <v>1.015446085927791</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.043506028259413</v>
+        <v>1.043205097233361</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.039148842001077</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.03872081576443</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.02281373159119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9991833779667649</v>
+        <v>0.9989932827171113</v>
       </c>
       <c r="D23">
-        <v>1.025454164980379</v>
+        <v>1.024712495513157</v>
       </c>
       <c r="E23">
-        <v>1.009726442231429</v>
+        <v>1.009538640944379</v>
       </c>
       <c r="F23">
-        <v>1.030104555474679</v>
+        <v>1.029638872056033</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I23">
-        <v>1.050779859406943</v>
+        <v>1.050446729545117</v>
       </c>
       <c r="J23">
-        <v>1.029299347797523</v>
+        <v>1.029117406909417</v>
       </c>
       <c r="K23">
-        <v>1.040236150682161</v>
+        <v>1.039507934147185</v>
       </c>
       <c r="L23">
-        <v>1.024799241333382</v>
+        <v>1.024614984123822</v>
       </c>
       <c r="M23">
-        <v>1.044802762560357</v>
+        <v>1.044345424318608</v>
       </c>
       <c r="N23">
-        <v>1.013511028125865</v>
+        <v>1.015431670654107</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.044030763339961</v>
+        <v>1.043668812457138</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.039579237383739</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.039078860735184</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022917198440933</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.004724203553607</v>
+        <v>1.004184454391774</v>
       </c>
       <c r="D24">
-        <v>1.029122281010662</v>
+        <v>1.028021508649361</v>
       </c>
       <c r="E24">
-        <v>1.014419170543932</v>
+        <v>1.013884830224612</v>
       </c>
       <c r="F24">
-        <v>1.033924911946498</v>
+        <v>1.033188032550187</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.052371848267901</v>
+        <v>1.051814053933207</v>
       </c>
       <c r="J24">
-        <v>1.032041604133359</v>
+        <v>1.031522373249687</v>
       </c>
       <c r="K24">
-        <v>1.042656575538134</v>
+        <v>1.041573778279269</v>
       </c>
       <c r="L24">
-        <v>1.028197714247486</v>
+        <v>1.027672422599283</v>
       </c>
       <c r="M24">
-        <v>1.047381356350178</v>
+        <v>1.046656361359422</v>
       </c>
       <c r="N24">
-        <v>1.01444153007958</v>
+        <v>1.015573284940722</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.046071534657231</v>
+        <v>1.045497753898109</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.041283122748346</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.040531288195204</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023331080828253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.010954133390009</v>
+        <v>1.01017407087689</v>
       </c>
       <c r="D25">
-        <v>1.033267733604823</v>
+        <v>1.03186985425909</v>
       </c>
       <c r="E25">
-        <v>1.019722828343131</v>
+        <v>1.018948892114282</v>
       </c>
       <c r="F25">
-        <v>1.038252598204972</v>
+        <v>1.037300875522242</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.054125617759154</v>
+        <v>1.053392580179478</v>
       </c>
       <c r="J25">
-        <v>1.035118388423247</v>
+        <v>1.034363822031488</v>
       </c>
       <c r="K25">
-        <v>1.0453706638154</v>
+        <v>1.043992785986572</v>
       </c>
       <c r="L25">
-        <v>1.032022497863456</v>
+        <v>1.03126000374625</v>
       </c>
       <c r="M25">
-        <v>1.050284756824923</v>
+        <v>1.049346479615502</v>
       </c>
       <c r="N25">
-        <v>1.015485588766861</v>
+        <v>1.016288970201246</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.048369360303592</v>
+        <v>1.047626784422256</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.043199254529007</v>
+        <v>1.042238480147701</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023819983642093</v>
       </c>
     </row>
   </sheetData>
